--- a/intents.xlsx
+++ b/intents.xlsx
@@ -5250,7 +5250,7 @@
   <dimension ref="A1:E418"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5296,7 +5296,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
         <v>600</v>
       </c>
@@ -5313,7 +5313,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
         <v>609</v>
       </c>
@@ -5330,173 +5330,173 @@
         <v>611</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="27" t="s">
         <v>618</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="27" t="s">
         <v>1161</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="27" t="s">
         <v>619</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="27" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="27" t="s">
         <v>627</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="27" t="s">
         <v>1162</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="27" t="s">
         <v>628</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="27" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="27" t="s">
         <v>636</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="27" t="s">
         <v>1164</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="27" t="s">
         <v>637</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="27" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="27" t="s">
         <v>645</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="27" t="s">
         <v>1165</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="27" t="s">
         <v>646</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="27" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="27" t="s">
         <v>654</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="27" t="s">
         <v>1166</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="27" t="s">
         <v>655</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="27" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="27" t="s">
         <v>663</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="27" t="s">
         <v>1167</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="27" t="s">
         <v>664</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="27" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="27" t="s">
         <v>672</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="27" t="s">
         <v>1168</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="27" t="s">
         <v>673</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="27" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:5" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="27" t="s">
         <v>681</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="27" t="s">
         <v>1169</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="27" t="s">
         <v>682</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="27" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+    <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="27" t="s">
         <v>690</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="27" t="s">
         <v>1170</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="27" t="s">
         <v>691</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="27" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="27" t="s">
         <v>711</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="27" t="s">
         <v>1154</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="27" t="s">
         <v>1174</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="27" t="s">
         <v>712</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="27" t="s">
         <v>713</v>
       </c>
     </row>
@@ -5551,7 +5551,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>104</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>235</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>238</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>241</v>
       </c>
@@ -5636,7 +5636,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>250</v>
       </c>
@@ -5653,7 +5653,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="7" t="s">
         <v>205</v>
       </c>
@@ -5670,7 +5670,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>271</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>289</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>301</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="15" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>307</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="15" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>327</v>
       </c>
@@ -5755,7 +5755,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="15" customFormat="1" ht="348" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>330</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>351</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>379</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>394</v>
       </c>
@@ -5857,7 +5857,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>603</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>612</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>621</v>
       </c>
@@ -5908,7 +5908,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>630</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>639</v>
       </c>
@@ -5942,7 +5942,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>648</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>657</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
         <v>666</v>
       </c>
@@ -6010,7 +6010,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="5" t="s">
         <v>684</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="5" t="s">
         <v>693</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="5" t="s">
         <v>699</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="5" t="s">
         <v>714</v>
       </c>
@@ -6078,7 +6078,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>10</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>22</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
         <v>25</v>
       </c>
@@ -6163,7 +6163,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>29</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A55" s="16" t="s">
         <v>48</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A56" s="16" t="s">
         <v>51</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A57" s="16" t="s">
         <v>53</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A58" s="16" t="s">
         <v>54</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A59" s="14" t="s">
         <v>67</v>
       </c>
@@ -6265,7 +6265,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
         <v>70</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
         <v>72</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="14" t="s">
         <v>74</v>
       </c>
@@ -6316,7 +6316,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="16" t="s">
         <v>90</v>
       </c>
@@ -6333,7 +6333,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A64" s="7" t="s">
         <v>157</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="7" t="s">
         <v>169</v>
       </c>
@@ -6384,7 +6384,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>259</v>
       </c>
@@ -6401,7 +6401,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>262</v>
       </c>
@@ -6418,7 +6418,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>265</v>
       </c>
@@ -6435,7 +6435,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>268</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>449</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>458</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>496</v>
       </c>
@@ -6537,7 +6537,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
         <v>729</v>
       </c>
@@ -6554,7 +6554,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>732</v>
       </c>
@@ -6571,7 +6571,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>735</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
         <v>741</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
         <v>744</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
         <v>747</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
         <v>750</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
         <v>753</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
         <v>759</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
         <v>762</v>
       </c>
@@ -6741,7 +6741,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
         <v>765</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
         <v>768</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
         <v>771</v>
       </c>
@@ -6792,7 +6792,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
         <v>774</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
         <v>777</v>
       </c>
@@ -6826,7 +6826,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
         <v>780</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
         <v>783</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
         <v>786</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
         <v>789</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
         <v>792</v>
       </c>
@@ -6928,7 +6928,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
         <v>798</v>
       </c>
@@ -6945,7 +6945,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="5" t="s">
         <v>801</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>803</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="5" t="s">
         <v>804</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="5" t="s">
         <v>807</v>
       </c>
@@ -6996,7 +6996,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="5" t="s">
         <v>810</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
         <v>130</v>
       </c>
@@ -7064,7 +7064,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="107" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
         <v>133</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="108" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
         <v>136</v>
       </c>
@@ -7098,7 +7098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
         <v>139</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>142</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="111" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="7" t="s">
         <v>145</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="7" t="s">
         <v>148</v>
       </c>
@@ -7166,7 +7166,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>151</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>160</v>
       </c>
@@ -7217,7 +7217,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>247</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>298</v>
       </c>
@@ -7251,7 +7251,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>321</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>348</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>376</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>391</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="123" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A123" s="14" t="s">
         <v>32</v>
       </c>
@@ -7353,7 +7353,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="14" t="s">
         <v>34</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="125" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
         <v>36</v>
       </c>
@@ -7472,7 +7472,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A131" s="16" t="s">
         <v>56</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A132" s="16" t="s">
         <v>59</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A133" s="16" t="s">
         <v>61</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A134" s="16" t="s">
         <v>63</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A135" s="16" t="s">
         <v>65</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>76</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>79</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A138" s="7" t="s">
         <v>80</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A139" s="7" t="s">
         <v>82</v>
       </c>
@@ -7625,7 +7625,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A140" s="7" t="s">
         <v>84</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A141" s="7" t="s">
         <v>86</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A142" s="7" t="s">
         <v>88</v>
       </c>
@@ -7693,7 +7693,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="144" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
         <v>606</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="145" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
         <v>615</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="146" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
         <v>624</v>
       </c>
@@ -7744,7 +7744,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="147" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>633</v>
       </c>
@@ -7761,7 +7761,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="148" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
         <v>642</v>
       </c>
@@ -7778,7 +7778,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="149" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
         <v>651</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
         <v>660</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="151" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
         <v>669</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="152" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
         <v>678</v>
       </c>
@@ -7846,7 +7846,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="153" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="5" t="s">
         <v>687</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="154" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="5" t="s">
         <v>696</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="5" t="s">
         <v>702</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="5" t="s">
         <v>723</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
         <v>214</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
         <v>217</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
         <v>220</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
         <v>223</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="163" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
         <v>226</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
         <v>229</v>
       </c>
@@ -8065,7 +8065,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="166" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>708</v>
       </c>
@@ -8082,7 +8082,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="167" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
         <v>720</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="5" t="s">
         <v>726</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="169" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>184</v>
       </c>
@@ -8133,7 +8133,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>163</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>178</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>190</v>
       </c>
@@ -8184,7 +8184,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>196</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>208</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
         <v>478</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>166</v>
       </c>
@@ -8269,7 +8269,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>199</v>
       </c>
@@ -8286,7 +8286,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
         <v>419</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A180" s="8" t="s">
         <v>422</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>187</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>232</v>
       </c>
@@ -8354,7 +8354,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>292</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>310</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>333</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="187" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
         <v>385</v>
       </c>
@@ -8473,7 +8473,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="190" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>97</v>
       </c>
@@ -8488,7 +8488,7 @@
       </c>
       <c r="E190" s="3"/>
     </row>
-    <row r="191" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="8" t="s">
         <v>411</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="192" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>175</v>
       </c>
@@ -8522,7 +8522,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>172</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="194" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>274</v>
       </c>
@@ -8556,7 +8556,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="195" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
         <v>405</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A196" s="8" t="s">
         <v>516</v>
       </c>
@@ -8590,7 +8590,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A197" s="14" t="s">
         <v>13</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A198" s="14" t="s">
         <v>16</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A199" s="14" t="s">
         <v>3</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A201" s="14" t="s">
         <v>8</v>
       </c>
@@ -8675,7 +8675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="14" t="s">
         <v>18</v>
       </c>
@@ -8962,7 +8962,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A221" s="7" t="s">
         <v>181</v>
       </c>
@@ -8979,7 +8979,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="7" t="s">
         <v>125</v>
       </c>
@@ -8994,7 +8994,7 @@
       </c>
       <c r="E222" s="3"/>
     </row>
-    <row r="223" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>253</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>460</v>
       </c>
@@ -9045,7 +9045,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
         <v>463</v>
       </c>
@@ -9062,7 +9062,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="227" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="8" t="s">
         <v>466</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A228" s="8" t="s">
         <v>499</v>
       </c>
@@ -9096,7 +9096,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="229" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
         <v>525</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="233" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
         <v>817</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
         <v>202</v>
       </c>
@@ -11731,7 +11731,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
         <v>116</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A385" s="7" t="s">
         <v>122</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>280</v>
       </c>
@@ -11799,7 +11799,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>283</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>285</v>
       </c>
@@ -11833,7 +11833,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>287</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>295</v>
       </c>
@@ -11884,7 +11884,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>313</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>317</v>
       </c>
@@ -11935,7 +11935,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>319</v>
       </c>
@@ -11952,7 +11952,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>324</v>
       </c>
@@ -11969,7 +11969,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>336</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>339</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>341</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>343</v>
       </c>
@@ -12037,7 +12037,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>345</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
         <v>362</v>
       </c>
@@ -12105,7 +12105,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
         <v>373</v>
       </c>
@@ -12122,7 +12122,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A407" s="3" t="s">
         <v>388</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>396</v>
       </c>
@@ -12156,7 +12156,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A409" s="3" t="s">
         <v>399</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A410" s="3" t="s">
         <v>402</v>
       </c>
@@ -12190,7 +12190,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" ht="116" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
         <v>425</v>
       </c>
@@ -12224,7 +12224,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>431</v>
       </c>
@@ -12241,7 +12241,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A414" s="8" t="s">
         <v>434</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A417" s="8" t="s">
         <v>443</v>
       </c>
@@ -12309,7 +12309,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A418" s="8" t="s">
         <v>446</v>
       </c>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -32,7 +32,7 @@
     <author>Preet Deep Singh</author>
   </authors>
   <commentList>
-    <comment ref="A35" authorId="0" shapeId="0">
+    <comment ref="A31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E49" authorId="0" shapeId="0">
+    <comment ref="E45" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E61" authorId="0" shapeId="0">
+    <comment ref="E57" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A118" authorId="0" shapeId="0">
+    <comment ref="A114" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -119,7 +119,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D120" authorId="0" shapeId="0">
+    <comment ref="D116" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -143,7 +143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E123" authorId="0" shapeId="0">
+    <comment ref="E119" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D132" authorId="0" shapeId="0">
+    <comment ref="D128" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E181" authorId="0" shapeId="0">
+    <comment ref="E182" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E186" authorId="0" shapeId="0">
+    <comment ref="E187" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1344">
   <si>
     <t>Input</t>
   </si>
@@ -3803,9 +3803,6 @@
     <t>services</t>
   </si>
   <si>
-    <t xml:space="preserve"> purpose</t>
-  </si>
-  <si>
     <t>definition</t>
   </si>
   <si>
@@ -3974,9 +3971,6 @@
     <t>certificate of education qualification</t>
   </si>
   <si>
-    <t>extend, employment visa</t>
-  </si>
-  <si>
     <t>financial standing, business visa</t>
   </si>
   <si>
@@ -4001,21 +3995,12 @@
     <t>passport, project visa</t>
   </si>
   <si>
-    <t>extend, project visa</t>
-  </si>
-  <si>
     <t>marriage certificate, birth certificate, entry visa</t>
   </si>
   <si>
     <t>invitation letter, personal request letter, entry visa</t>
   </si>
   <si>
-    <t>extend, entry visa</t>
-  </si>
-  <si>
-    <t>extend, tourist visa</t>
-  </si>
-  <si>
     <t>travel itinerary, tourist visa</t>
   </si>
   <si>
@@ -4686,6 +4671,12 @@
   </si>
   <si>
     <t>china, sar, macau</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>tourist visa</t>
   </si>
 </sst>
 </file>
@@ -4728,7 +4719,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4783,6 +4774,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4812,7 +4809,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4901,6 +4898,19 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5253,8 +5263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E417"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5288,10 +5298,10 @@
         <v>594</v>
       </c>
       <c r="B2" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>1150</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1155</v>
       </c>
       <c r="D2" s="27" t="s">
         <v>595</v>
@@ -5305,10 +5315,10 @@
         <v>597</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1156</v>
+        <v>1151</v>
       </c>
       <c r="D3" s="27" t="s">
         <v>598</v>
@@ -5322,10 +5332,10 @@
         <v>606</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1159</v>
+        <v>1154</v>
       </c>
       <c r="D4" s="27" t="s">
         <v>607</v>
@@ -5339,10 +5349,10 @@
         <v>615</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1157</v>
+        <v>1152</v>
       </c>
       <c r="D5" s="27" t="s">
         <v>616</v>
@@ -5356,10 +5366,10 @@
         <v>624</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1158</v>
+        <v>1153</v>
       </c>
       <c r="D6" s="27" t="s">
         <v>625</v>
@@ -5373,10 +5383,10 @@
         <v>633</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1160</v>
+        <v>1155</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>634</v>
@@ -5390,10 +5400,10 @@
         <v>642</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1161</v>
+        <v>1156</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>643</v>
@@ -5407,10 +5417,10 @@
         <v>651</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1162</v>
+        <v>1157</v>
       </c>
       <c r="D9" s="27" t="s">
         <v>652</v>
@@ -5424,10 +5434,10 @@
         <v>660</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>1163</v>
+        <v>1158</v>
       </c>
       <c r="D10" s="27" t="s">
         <v>661</v>
@@ -5441,10 +5451,10 @@
         <v>669</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>1164</v>
+        <v>1159</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>670</v>
@@ -5458,10 +5468,10 @@
         <v>678</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>1165</v>
+        <v>1160</v>
       </c>
       <c r="D12" s="27" t="s">
         <v>679</v>
@@ -5475,10 +5485,10 @@
         <v>687</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>1166</v>
+        <v>1161</v>
       </c>
       <c r="D13" s="27" t="s">
         <v>688</v>
@@ -5492,10 +5502,10 @@
         <v>708</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>1170</v>
+        <v>1165</v>
       </c>
       <c r="D14" s="27" t="s">
         <v>709</v>
@@ -5509,10 +5519,10 @@
         <v>99</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>100</v>
@@ -5526,10 +5536,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>100</v>
@@ -5543,10 +5553,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>100</v>
@@ -5560,10 +5570,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>105</v>
@@ -5577,10 +5587,10 @@
         <v>235</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>236</v>
@@ -5589,2333 +5599,2333 @@
         <v>237</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="15" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:5" s="34" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A20" s="33" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="E20" s="33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C22" s="33" t="s">
         <v>1081</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>1082</v>
-      </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="33" t="s">
         <v>248</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="33" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D23" s="3" t="s">
+      <c r="B23" s="35" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D23" s="36" t="s">
         <v>206</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="B24" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C24" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D24" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="37" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C25" s="37" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D25" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E25" s="37" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C26" s="37" t="s">
         <v>1067</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>300</v>
+      <c r="D26" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1068</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>329</v>
+      <c r="A29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>1118</v>
+        <v>1075</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>366</v>
+      <c r="A31" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>378</v>
+      <c r="A32" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>381</v>
+      <c r="A33" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="3" t="s">
-        <v>391</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="E34" s="12" t="s">
-        <v>378</v>
+      <c r="A34" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
-        <v>600</v>
+        <v>636</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>601</v>
+        <v>637</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>602</v>
+        <v>638</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
-        <v>609</v>
+        <v>645</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>610</v>
+        <v>646</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>611</v>
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
-        <v>618</v>
+        <v>654</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>1157</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>619</v>
+        <v>655</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>620</v>
+        <v>656</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
-        <v>627</v>
+        <v>663</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>1158</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>628</v>
+        <v>664</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>629</v>
+        <v>665</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
-        <v>636</v>
+        <v>672</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>637</v>
+        <v>673</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>638</v>
+        <v>674</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
-        <v>645</v>
+        <v>681</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>646</v>
+        <v>682</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>647</v>
+        <v>683</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
-        <v>654</v>
+        <v>690</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>655</v>
+        <v>691</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>656</v>
+        <v>692</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>663</v>
+        <v>696</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>664</v>
+        <v>697</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="5" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>1164</v>
+        <v>1166</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>683</v>
+      <c r="A44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D44" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>692</v>
+      <c r="A45" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>698</v>
+      <c r="A46" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D46" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>1151</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>713</v>
+      <c r="A47" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="14" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B48" s="14" t="s">
+      <c r="A48" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>1053</v>
       </c>
-      <c r="C48" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D48" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E48" s="14" t="s">
-        <v>12</v>
+      <c r="D48" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="17" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="B49" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C49" s="14" t="s">
         <v>1053</v>
       </c>
-      <c r="C49" s="14" t="s">
-        <v>1054</v>
-      </c>
       <c r="D49" s="14" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="E49" s="14" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="14" t="s">
-        <v>26</v>
+      <c r="A50" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>28</v>
+      <c r="A51" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D51" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E51" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1054</v>
+        <v>1057</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A53" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C53" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D53" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E53" s="14" t="s">
-        <v>31</v>
+      <c r="A53" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D53" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B54" s="16" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C54" s="16" t="s">
+      <c r="A54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="D54" s="17" t="s">
-        <v>49</v>
+      <c r="D54" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B55" s="16" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C55" s="16" t="s">
+      <c r="A55" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="D55" s="17" t="s">
-        <v>49</v>
+      <c r="D55" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>1058</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>49</v>
+      <c r="A56" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="16" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C57" s="16" t="s">
+      <c r="A57" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C57" s="14" t="s">
         <v>1056</v>
       </c>
-      <c r="D57" s="17" t="s">
-        <v>49</v>
+      <c r="D57" s="18" t="s">
+        <v>68</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A58" s="14" t="s">
-        <v>67</v>
+      <c r="A58" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>69</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A59" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E59" s="17" t="s">
-        <v>71</v>
+      <c r="A59" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A60" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>1060</v>
-      </c>
-      <c r="D60" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="17" t="s">
-        <v>73</v>
+      <c r="A60" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D61" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>75</v>
+      <c r="A61" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A62" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>91</v>
+      <c r="A62" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A63" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B63" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>159</v>
+      <c r="A63" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>171</v>
+      <c r="A64" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>1067</v>
+        <v>1075</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>1068</v>
+      <c r="A66" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1132</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>258</v>
+        <v>447</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>1069</v>
+      <c r="A67" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1133</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>261</v>
+        <v>450</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>264</v>
+      <c r="A68" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>1076</v>
+      <c r="A69" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>1135</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>267</v>
+        <v>1136</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
-        <v>446</v>
+        <v>493</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>447</v>
+        <v>1140</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>448</v>
+        <v>495</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>451</v>
+      <c r="A71" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>454</v>
+      <c r="A72" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="B73" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C73" s="8" t="s">
+      <c r="A73" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>1140</v>
       </c>
-      <c r="D73" s="2" t="s">
-        <v>1141</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A74" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B74" s="8" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>495</v>
+      <c r="D74" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>726</v>
+        <v>738</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>1172</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>727</v>
+        <v>739</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>728</v>
+        <v>740</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>729</v>
+        <v>741</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>1173</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>730</v>
+        <v>742</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>731</v>
+        <v>743</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>732</v>
+        <v>744</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>733</v>
+        <v>745</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>734</v>
+        <v>746</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>735</v>
+        <v>747</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1145</v>
+        <v>1175</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>736</v>
+        <v>748</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>737</v>
+        <v>749</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>741</v>
+        <v>753</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1181</v>
+        <v>1106</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>755</v>
+        <v>767</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>756</v>
+        <v>768</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1184</v>
+        <v>1181</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>762</v>
+        <v>774</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1107</v>
+        <v>1182</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>763</v>
+        <v>775</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>765</v>
+        <v>777</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1197</v>
+        <v>1183</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>767</v>
+        <v>779</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>1053</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>1185</v>
-      </c>
       <c r="D89" s="5" t="s">
-        <v>769</v>
+        <v>781</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>1186</v>
+        <v>1056</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>773</v>
+        <v>785</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1187</v>
+        <v>1184</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>775</v>
+        <v>787</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>776</v>
+        <v>788</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>777</v>
+        <v>789</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>1188</v>
+        <v>1055</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>778</v>
+        <v>790</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>779</v>
+        <v>791</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>780</v>
+        <v>792</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1054</v>
+        <v>1078</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>1057</v>
+        <v>1185</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>784</v>
+        <v>796</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>785</v>
+        <v>797</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1189</v>
+        <v>1186</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>788</v>
+        <v>800</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1056</v>
+        <v>1187</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>790</v>
+        <v>802</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>791</v>
+        <v>803</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>792</v>
+        <v>804</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>1079</v>
+        <v>1188</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>793</v>
+        <v>805</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>794</v>
+        <v>806</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>796</v>
+        <v>808</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>797</v>
+        <v>809</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>798</v>
+        <v>810</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>799</v>
+        <v>811</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>800</v>
+        <v>812</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>1192</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>803</v>
+      <c r="A100" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>804</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>805</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>806</v>
+      <c r="A101" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="5" t="s">
-        <v>807</v>
-      </c>
-      <c r="B102" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>808</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>809</v>
+      <c r="A102" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="5" t="s">
-        <v>810</v>
-      </c>
-      <c r="B103" s="5" t="s">
-        <v>1053</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>811</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>812</v>
+      <c r="A103" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="7" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1067</v>
+        <v>1070</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="7" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="7" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="7" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="7" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1072</v>
+        <v>1076</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B111" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C111" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>150</v>
+      <c r="A111" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="B112" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C112" s="7" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>153</v>
+      <c r="A112" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A113" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B113" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C113" s="7" t="s">
+      <c r="A113" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D115" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>1075</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B114" s="7" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C114" s="7" t="s">
+      <c r="D116" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A117" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>1077</v>
       </c>
-      <c r="D114" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>319</v>
+      <c r="C117" s="4" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E118" s="2" t="s">
-        <v>347</v>
+      <c r="A118" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B118" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C118" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E118" s="14" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>375</v>
+      <c r="A119" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B119" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C119" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E119" s="14" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A120" s="3" t="s">
-        <v>388</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>389</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>390</v>
+      <c r="A120" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B120" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E120" s="17" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A121" s="4" t="s">
-        <v>405</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>1107</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>407</v>
+      <c r="A121" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B121" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E121" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A122" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B122" s="14" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C122" s="14" t="s">
+      <c r="A122" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="16" t="s">
         <v>1054</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>1053</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E122" s="14" t="s">
-        <v>33</v>
+      <c r="E122" s="17" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A123" s="14" t="s">
-        <v>34</v>
+      <c r="A123" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E123" s="14" t="s">
-        <v>35</v>
+      <c r="E123" s="17" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E124" s="17" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D125" s="17" t="s">
+        <v>1053</v>
+      </c>
+      <c r="D125" s="14" t="s">
         <v>30</v>
       </c>
       <c r="E125" s="17" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="B126" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C126" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="C126" s="16" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D126" s="14" t="s">
-        <v>30</v>
+      <c r="D126" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E126" s="17" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B127" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C127" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="C127" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D127" s="14" t="s">
-        <v>30</v>
+      <c r="D127" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E127" s="17" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B128" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C128" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="C128" s="16" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D128" s="14" t="s">
-        <v>30</v>
+      <c r="D128" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E128" s="17" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B129" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C129" s="16" t="s">
         <v>1055</v>
       </c>
-      <c r="C129" s="14" t="s">
-        <v>1054</v>
-      </c>
-      <c r="D129" s="14" t="s">
-        <v>30</v>
+      <c r="D129" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="E129" s="17" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A130" s="16" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B130" s="16" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C130" s="16" t="s">
         <v>1055</v>
-      </c>
-      <c r="C130" s="16" t="s">
-        <v>1056</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>57</v>
       </c>
       <c r="E130" s="17" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="348" x14ac:dyDescent="0.35">
-      <c r="A131" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B131" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C131" s="16" t="s">
+      <c r="A131" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D131" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E131" s="17" t="s">
-        <v>60</v>
+      <c r="D131" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="348" x14ac:dyDescent="0.35">
-      <c r="A132" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B132" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C132" s="16" t="s">
+      <c r="A132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D132" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E132" s="17" t="s">
-        <v>62</v>
+      <c r="D132" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="348" x14ac:dyDescent="0.35">
-      <c r="A133" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C133" s="16" t="s">
+      <c r="A133" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D133" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E133" s="17" t="s">
-        <v>64</v>
+      <c r="D133" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="348" x14ac:dyDescent="0.35">
-      <c r="A134" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C134" s="16" t="s">
+      <c r="A134" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>1056</v>
       </c>
-      <c r="D134" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E134" s="17" t="s">
-        <v>66</v>
+      <c r="D134" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A135" s="1" t="s">
-        <v>76</v>
+      <c r="A135" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A136" s="1" t="s">
-        <v>79</v>
+      <c r="A136" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D136" s="5" t="s">
+        <v>1056</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>39</v>
+        <v>87</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A137" s="7" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>77</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A138" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>1057</v>
+      <c r="A138" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>1070</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>83</v>
+        <v>363</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A139" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>85</v>
+      <c r="A139" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B139" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D139" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>605</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A140" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E140" s="3" t="s">
-        <v>87</v>
+      <c r="A140" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B140" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D140" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A141" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E141" s="3" t="s">
-        <v>89</v>
+      <c r="A141" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>623</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A142" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="B142" s="3" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>363</v>
+      <c r="A142" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="B142" s="5" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E142" s="5" t="s">
+        <v>632</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>603</v>
+        <v>639</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>604</v>
+        <v>640</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>605</v>
+        <v>641</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>612</v>
+        <v>648</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>613</v>
+        <v>649</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>614</v>
+        <v>650</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>621</v>
+        <v>657</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>1157</v>
       </c>
-      <c r="D145" s="5" t="s">
-        <v>622</v>
+      <c r="D145" s="6" t="s">
+        <v>658</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>623</v>
+        <v>659</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C146" s="5" t="s">
         <v>1158</v>
       </c>
-      <c r="D146" s="5" t="s">
-        <v>631</v>
+      <c r="D146" s="6" t="s">
+        <v>667</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>632</v>
+        <v>668</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>639</v>
+        <v>675</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>640</v>
+        <v>676</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>641</v>
+        <v>677</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>648</v>
+        <v>684</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D148" s="6" t="s">
-        <v>649</v>
+        <v>1160</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>685</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>650</v>
+        <v>686</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>657</v>
+        <v>693</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1162</v>
-      </c>
-      <c r="D149" s="6" t="s">
-        <v>658</v>
+        <v>1161</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>694</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>659</v>
+        <v>695</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>666</v>
+        <v>699</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>667</v>
+        <v>700</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>668</v>
+        <v>701</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1164</v>
-      </c>
-      <c r="D151" s="6" t="s">
-        <v>676</v>
+        <v>1166</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>715</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>684</v>
+        <v>720</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>1165</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>685</v>
+        <v>1170</v>
+      </c>
+      <c r="D152" s="6" t="s">
+        <v>721</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>686</v>
+        <v>722</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A153" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="B153" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C153" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>694</v>
-      </c>
-      <c r="E153" s="5" t="s">
-        <v>695</v>
+      <c r="A153" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A154" s="5" t="s">
-        <v>699</v>
-      </c>
-      <c r="B154" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C154" s="5" t="s">
-        <v>1167</v>
-      </c>
-      <c r="D154" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="E154" s="5" t="s">
-        <v>701</v>
+      <c r="A154" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D154" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A155" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="B155" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C155" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="E155" s="5" t="s">
-        <v>716</v>
+      <c r="A155" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A156" s="5" t="s">
-        <v>720</v>
-      </c>
-      <c r="B156" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>1175</v>
-      </c>
-      <c r="D156" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="E156" s="5" t="s">
-        <v>722</v>
+      <c r="A156" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="E156" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -7923,10 +7933,10 @@
         <v>193</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>194</v>
@@ -7940,7 +7950,7 @@
         <v>214</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="5" t="s">
@@ -7955,10 +7965,10 @@
         <v>217</v>
       </c>
       <c r="B159" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C159" s="7" t="s">
         <v>1098</v>
-      </c>
-      <c r="C159" s="7" t="s">
-        <v>1099</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>218</v>
@@ -7972,10 +7982,10 @@
         <v>220</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>221</v>
@@ -7989,10 +7999,10 @@
         <v>223</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>224</v>
@@ -8006,10 +8016,10 @@
         <v>226</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>227</v>
@@ -8023,10 +8033,10 @@
         <v>229</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>230</v>
@@ -8040,10 +8050,10 @@
         <v>702</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1168</v>
+        <v>1163</v>
       </c>
       <c r="D164" s="6" t="s">
         <v>703</v>
@@ -8057,10 +8067,10 @@
         <v>705</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="D165" s="6" t="s">
         <v>706</v>
@@ -8074,10 +8084,10 @@
         <v>717</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1171</v>
+        <v>1166</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>718</v>
@@ -8091,10 +8101,10 @@
         <v>723</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1153</v>
+        <v>1148</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1174</v>
+        <v>1169</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>724</v>
@@ -8108,10 +8118,10 @@
         <v>184</v>
       </c>
       <c r="B168" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C168" s="7" t="s">
         <v>1083</v>
-      </c>
-      <c r="C168" s="7" t="s">
-        <v>1084</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>185</v>
@@ -8125,10 +8135,10 @@
         <v>163</v>
       </c>
       <c r="B169" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C169" s="7" t="s">
         <v>1083</v>
-      </c>
-      <c r="C169" s="7" t="s">
-        <v>1084</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>164</v>
@@ -8142,10 +8152,10 @@
         <v>178</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>179</v>
@@ -8159,10 +8169,10 @@
         <v>190</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>191</v>
@@ -8176,10 +8186,10 @@
         <v>196</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>197</v>
@@ -8193,10 +8203,10 @@
         <v>208</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>209</v>
@@ -8210,10 +8220,10 @@
         <v>475</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>476</v>
@@ -8227,10 +8237,10 @@
         <v>484</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>485</v>
@@ -8244,10 +8254,10 @@
         <v>166</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>167</v>
@@ -8261,10 +8271,10 @@
         <v>199</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>200</v>
@@ -8278,10 +8288,10 @@
         <v>416</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>417</v>
@@ -8295,10 +8305,10 @@
         <v>419</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>420</v>
@@ -8312,10 +8322,10 @@
         <v>187</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>188</v>
@@ -8325,122 +8335,122 @@
       </c>
     </row>
     <row r="181" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A181" s="7" t="s">
+      <c r="A181" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C181" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="D181" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A182" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="B181" s="7" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C181" s="7" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="B182" s="7" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D182" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="E181" s="3" t="s">
+      <c r="E182" s="3" t="s">
         <v>234</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A182" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C182" s="2" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
-        <v>307</v>
+        <v>289</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B184" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C184" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D184" s="2" t="s">
+      <c r="B185" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D185" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E184" s="2" t="s">
+      <c r="E185" s="2" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B185" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>368</v>
-      </c>
-      <c r="E185" s="3" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A186" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A187" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B186" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D186" s="3" t="s">
+      <c r="B187" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E186" s="3" t="s">
+      <c r="E187" s="3" t="s">
         <v>384</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A187" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="14" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C187" s="14" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D187" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E187" s="14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -8448,10 +8458,10 @@
         <v>94</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>95</v>
@@ -8465,10 +8475,10 @@
         <v>97</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>98</v>
@@ -8480,13 +8490,13 @@
         <v>408</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>409</v>
@@ -8497,10 +8507,10 @@
         <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>176</v>
@@ -8514,10 +8524,10 @@
         <v>172</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>173</v>
@@ -8531,10 +8541,10 @@
         <v>271</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>272</v>
@@ -8548,10 +8558,10 @@
         <v>402</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>403</v>
@@ -8565,10 +8575,10 @@
         <v>513</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>514</v>
@@ -8684,7 +8694,7 @@
         <v>211</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C202" s="20"/>
       <c r="D202" s="21" t="s">
@@ -8699,7 +8709,7 @@
         <v>274</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23" t="s">
@@ -8714,7 +8724,7 @@
         <v>351</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C204" s="21"/>
       <c r="D204" s="21" t="s">
@@ -8729,7 +8739,7 @@
         <v>410</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="23" t="s">
@@ -8744,7 +8754,7 @@
         <v>466</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="23" t="s">
@@ -8759,7 +8769,7 @@
         <v>469</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="23" t="s">
@@ -8774,7 +8784,7 @@
         <v>472</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="23" t="s">
@@ -8789,7 +8799,7 @@
         <v>478</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="23" t="s">
@@ -8804,7 +8814,7 @@
         <v>481</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="23" t="s">
@@ -8819,7 +8829,7 @@
         <v>487</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="25" t="s">
@@ -8834,7 +8844,7 @@
         <v>490</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="25" t="s">
@@ -8849,7 +8859,7 @@
         <v>499</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="23" t="s">
@@ -8864,7 +8874,7 @@
         <v>502</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="23" t="s">
@@ -8879,7 +8889,7 @@
         <v>505</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C215" s="24"/>
       <c r="D215" s="23" t="s">
@@ -8894,7 +8904,7 @@
         <v>507</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C216" s="26"/>
       <c r="D216" s="25" t="s">
@@ -8909,7 +8919,7 @@
         <v>510</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C217" s="26"/>
       <c r="D217" s="23" t="s">
@@ -8924,7 +8934,7 @@
         <v>516</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C218" s="24"/>
       <c r="D218" s="23" t="s">
@@ -8939,7 +8949,7 @@
         <v>519</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C219" s="26"/>
       <c r="D219" s="25" t="s">
@@ -8954,10 +8964,10 @@
         <v>181</v>
       </c>
       <c r="B220" s="7" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C220" s="7" t="s">
         <v>1090</v>
-      </c>
-      <c r="C220" s="7" t="s">
-        <v>1091</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>182</v>
@@ -8971,10 +8981,10 @@
         <v>125</v>
       </c>
       <c r="B221" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C221" s="7" t="s">
         <v>1065</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>1066</v>
       </c>
       <c r="D221" s="3" t="s">
         <v>126</v>
@@ -8986,10 +8996,10 @@
         <v>250</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>251</v>
@@ -9003,10 +9013,10 @@
         <v>413</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>414</v>
@@ -9020,10 +9030,10 @@
         <v>457</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>458</v>
@@ -9037,10 +9047,10 @@
         <v>460</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>461</v>
@@ -9054,10 +9064,10 @@
         <v>463</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>464</v>
@@ -9071,10 +9081,10 @@
         <v>496</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>497</v>
@@ -9088,10 +9098,10 @@
         <v>522</v>
       </c>
       <c r="B228" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>1196</v>
+        <v>1191</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>813</v>
@@ -9105,10 +9115,10 @@
         <v>524</v>
       </c>
       <c r="B229" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>813</v>
@@ -9122,10 +9132,10 @@
         <v>526</v>
       </c>
       <c r="B230" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D230" s="1" t="s">
         <v>813</v>
@@ -9139,10 +9149,10 @@
         <v>528</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>813</v>
@@ -9156,10 +9166,10 @@
         <v>814</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>813</v>
@@ -9173,10 +9183,10 @@
         <v>530</v>
       </c>
       <c r="B233" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>1202</v>
+        <v>1197</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>813</v>
@@ -9190,10 +9200,10 @@
         <v>532</v>
       </c>
       <c r="B234" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>1203</v>
+        <v>1198</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>813</v>
@@ -9207,10 +9217,10 @@
         <v>534</v>
       </c>
       <c r="B235" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>1204</v>
+        <v>1199</v>
       </c>
       <c r="D235" s="1" t="s">
         <v>813</v>
@@ -9224,10 +9234,10 @@
         <v>536</v>
       </c>
       <c r="B236" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>1205</v>
+        <v>1200</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>813</v>
@@ -9241,10 +9251,10 @@
         <v>538</v>
       </c>
       <c r="B237" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>813</v>
@@ -9258,10 +9268,10 @@
         <v>540</v>
       </c>
       <c r="B238" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>1310</v>
+        <v>1305</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>813</v>
@@ -9275,10 +9285,10 @@
         <v>542</v>
       </c>
       <c r="B239" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>1207</v>
+        <v>1202</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>813</v>
@@ -9292,10 +9302,10 @@
         <v>544</v>
       </c>
       <c r="B240" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>1208</v>
+        <v>1203</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>813</v>
@@ -9309,10 +9319,10 @@
         <v>546</v>
       </c>
       <c r="B241" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>813</v>
@@ -9326,10 +9336,10 @@
         <v>548</v>
       </c>
       <c r="B242" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>1210</v>
+        <v>1205</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>813</v>
@@ -9343,10 +9353,10 @@
         <v>550</v>
       </c>
       <c r="B243" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>1311</v>
+        <v>1306</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>813</v>
@@ -9360,10 +9370,10 @@
         <v>552</v>
       </c>
       <c r="B244" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>1211</v>
+        <v>1206</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>813</v>
@@ -9377,10 +9387,10 @@
         <v>554</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1212</v>
+        <v>1207</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>813</v>
@@ -9394,10 +9404,10 @@
         <v>815</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1312</v>
+        <v>1307</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>813</v>
@@ -9411,10 +9421,10 @@
         <v>556</v>
       </c>
       <c r="B247" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>1213</v>
+        <v>1208</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>813</v>
@@ -9428,10 +9438,10 @@
         <v>558</v>
       </c>
       <c r="B248" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>1214</v>
+        <v>1209</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>813</v>
@@ -9445,10 +9455,10 @@
         <v>560</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>1215</v>
+        <v>1210</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>813</v>
@@ -9462,10 +9472,10 @@
         <v>816</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1313</v>
+        <v>1308</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>813</v>
@@ -9479,10 +9489,10 @@
         <v>562</v>
       </c>
       <c r="B251" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>1216</v>
+        <v>1211</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>813</v>
@@ -9496,10 +9506,10 @@
         <v>564</v>
       </c>
       <c r="B252" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>1217</v>
+        <v>1212</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>813</v>
@@ -9513,10 +9523,10 @@
         <v>566</v>
       </c>
       <c r="B253" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>1218</v>
+        <v>1213</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>813</v>
@@ -9530,10 +9540,10 @@
         <v>568</v>
       </c>
       <c r="B254" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>1314</v>
+        <v>1309</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>813</v>
@@ -9547,10 +9557,10 @@
         <v>570</v>
       </c>
       <c r="B255" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>1315</v>
+        <v>1310</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>813</v>
@@ -9564,10 +9574,10 @@
         <v>572</v>
       </c>
       <c r="B256" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>1219</v>
+        <v>1214</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>813</v>
@@ -9581,10 +9591,10 @@
         <v>574</v>
       </c>
       <c r="B257" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>1220</v>
+        <v>1215</v>
       </c>
       <c r="D257" s="1" t="s">
         <v>813</v>
@@ -9598,10 +9608,10 @@
         <v>576</v>
       </c>
       <c r="B258" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>1221</v>
+        <v>1216</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>813</v>
@@ -9615,10 +9625,10 @@
         <v>578</v>
       </c>
       <c r="B259" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>1222</v>
+        <v>1217</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>813</v>
@@ -9632,10 +9642,10 @@
         <v>580</v>
       </c>
       <c r="B260" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>1223</v>
+        <v>1218</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>813</v>
@@ -9649,10 +9659,10 @@
         <v>582</v>
       </c>
       <c r="B261" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>1224</v>
+        <v>1219</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>813</v>
@@ -9666,10 +9676,10 @@
         <v>584</v>
       </c>
       <c r="B262" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>1316</v>
+        <v>1311</v>
       </c>
       <c r="D262" s="1" t="s">
         <v>813</v>
@@ -9683,10 +9693,10 @@
         <v>586</v>
       </c>
       <c r="B263" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>813</v>
@@ -9700,10 +9710,10 @@
         <v>588</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1317</v>
+        <v>1312</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>813</v>
@@ -9717,10 +9727,10 @@
         <v>817</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1318</v>
+        <v>1313</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>813</v>
@@ -9734,10 +9744,10 @@
         <v>590</v>
       </c>
       <c r="B266" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>1225</v>
+        <v>1220</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>813</v>
@@ -9751,10 +9761,10 @@
         <v>592</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1226</v>
+        <v>1221</v>
       </c>
       <c r="D267" s="1" t="s">
         <v>813</v>
@@ -9768,10 +9778,10 @@
         <v>818</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1319</v>
+        <v>1314</v>
       </c>
       <c r="D268" s="1" t="s">
         <v>813</v>
@@ -9785,10 +9795,10 @@
         <v>819</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1320</v>
+        <v>1315</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>813</v>
@@ -9802,10 +9812,10 @@
         <v>820</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>1227</v>
+        <v>1222</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>813</v>
@@ -9819,10 +9829,10 @@
         <v>821</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>1228</v>
+        <v>1223</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>813</v>
@@ -9836,10 +9846,10 @@
         <v>822</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>1229</v>
+        <v>1224</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>813</v>
@@ -9853,10 +9863,10 @@
         <v>823</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>1321</v>
+        <v>1316</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>813</v>
@@ -9870,10 +9880,10 @@
         <v>824</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>1230</v>
+        <v>1225</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>813</v>
@@ -9887,10 +9897,10 @@
         <v>825</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>1231</v>
+        <v>1226</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>813</v>
@@ -9904,10 +9914,10 @@
         <v>826</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>813</v>
@@ -9921,10 +9931,10 @@
         <v>827</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>1322</v>
+        <v>1317</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>813</v>
@@ -9938,10 +9948,10 @@
         <v>828</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1323</v>
+        <v>1318</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>813</v>
@@ -9955,10 +9965,10 @@
         <v>829</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>813</v>
@@ -9972,10 +9982,10 @@
         <v>830</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>813</v>
@@ -9989,10 +9999,10 @@
         <v>831</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>1324</v>
+        <v>1319</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>813</v>
@@ -10006,10 +10016,10 @@
         <v>832</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="D282" s="1" t="s">
         <v>813</v>
@@ -10023,10 +10033,10 @@
         <v>833</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>1236</v>
+        <v>1231</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>813</v>
@@ -10040,10 +10050,10 @@
         <v>834</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>1237</v>
+        <v>1232</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>813</v>
@@ -10057,10 +10067,10 @@
         <v>835</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1238</v>
+        <v>1233</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>813</v>
@@ -10074,10 +10084,10 @@
         <v>836</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>1325</v>
+        <v>1320</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>813</v>
@@ -10091,10 +10101,10 @@
         <v>837</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1239</v>
+        <v>1234</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>813</v>
@@ -10108,10 +10118,10 @@
         <v>838</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>1240</v>
+        <v>1235</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>813</v>
@@ -10125,10 +10135,10 @@
         <v>839</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>1241</v>
+        <v>1236</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>813</v>
@@ -10142,10 +10152,10 @@
         <v>840</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1326</v>
+        <v>1321</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>813</v>
@@ -10159,10 +10169,10 @@
         <v>841</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1327</v>
+        <v>1322</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>813</v>
@@ -10176,10 +10186,10 @@
         <v>842</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1242</v>
+        <v>1237</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>813</v>
@@ -10193,10 +10203,10 @@
         <v>843</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1328</v>
+        <v>1323</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>813</v>
@@ -10210,10 +10220,10 @@
         <v>844</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1329</v>
+        <v>1324</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>813</v>
@@ -10227,10 +10237,10 @@
         <v>845</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1244</v>
+        <v>1239</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>813</v>
@@ -10244,10 +10254,10 @@
         <v>846</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1245</v>
+        <v>1240</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>813</v>
@@ -10261,10 +10271,10 @@
         <v>847</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1246</v>
+        <v>1241</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>813</v>
@@ -10278,10 +10288,10 @@
         <v>848</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1330</v>
+        <v>1325</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>813</v>
@@ -10295,10 +10305,10 @@
         <v>849</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1247</v>
+        <v>1242</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>813</v>
@@ -10312,10 +10322,10 @@
         <v>850</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1248</v>
+        <v>1243</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>813</v>
@@ -10329,10 +10339,10 @@
         <v>851</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1249</v>
+        <v>1244</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>813</v>
@@ -10346,10 +10356,10 @@
         <v>852</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1250</v>
+        <v>1245</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>813</v>
@@ -10363,10 +10373,10 @@
         <v>853</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1251</v>
+        <v>1246</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>813</v>
@@ -10380,10 +10390,10 @@
         <v>854</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1252</v>
+        <v>1247</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>813</v>
@@ -10397,10 +10407,10 @@
         <v>855</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1253</v>
+        <v>1248</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>813</v>
@@ -10414,10 +10424,10 @@
         <v>856</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>1254</v>
+        <v>1249</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>813</v>
@@ -10431,10 +10441,10 @@
         <v>857</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1331</v>
+        <v>1326</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>813</v>
@@ -10448,10 +10458,10 @@
         <v>858</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1255</v>
+        <v>1250</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>813</v>
@@ -10465,10 +10475,10 @@
         <v>859</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1256</v>
+        <v>1251</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>813</v>
@@ -10482,10 +10492,10 @@
         <v>860</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1257</v>
+        <v>1252</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>813</v>
@@ -10499,10 +10509,10 @@
         <v>861</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1332</v>
+        <v>1327</v>
       </c>
       <c r="D311" s="1" t="s">
         <v>813</v>
@@ -10516,10 +10526,10 @@
         <v>862</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1258</v>
+        <v>1253</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>813</v>
@@ -10533,10 +10543,10 @@
         <v>863</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1259</v>
+        <v>1254</v>
       </c>
       <c r="D313" s="1" t="s">
         <v>813</v>
@@ -10550,10 +10560,10 @@
         <v>864</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1260</v>
+        <v>1255</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>813</v>
@@ -10567,10 +10577,10 @@
         <v>865</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1261</v>
+        <v>1256</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>813</v>
@@ -10584,10 +10594,10 @@
         <v>866</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1262</v>
+        <v>1257</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>813</v>
@@ -10601,10 +10611,10 @@
         <v>867</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1263</v>
+        <v>1258</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>813</v>
@@ -10618,10 +10628,10 @@
         <v>868</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1264</v>
+        <v>1259</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>813</v>
@@ -10635,10 +10645,10 @@
         <v>869</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1265</v>
+        <v>1260</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>813</v>
@@ -10652,10 +10662,10 @@
         <v>870</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1333</v>
+        <v>1328</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>813</v>
@@ -10669,10 +10679,10 @@
         <v>871</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1266</v>
+        <v>1261</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>813</v>
@@ -10686,10 +10696,10 @@
         <v>872</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1267</v>
+        <v>1262</v>
       </c>
       <c r="D322" s="1" t="s">
         <v>813</v>
@@ -10703,10 +10713,10 @@
         <v>873</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1268</v>
+        <v>1263</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>813</v>
@@ -10720,10 +10730,10 @@
         <v>874</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1269</v>
+        <v>1264</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>813</v>
@@ -10737,10 +10747,10 @@
         <v>875</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>1334</v>
+        <v>1329</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>813</v>
@@ -10754,10 +10764,10 @@
         <v>876</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1270</v>
+        <v>1265</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>813</v>
@@ -10771,10 +10781,10 @@
         <v>877</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1271</v>
+        <v>1266</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>813</v>
@@ -10788,10 +10798,10 @@
         <v>878</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>1272</v>
+        <v>1267</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>813</v>
@@ -10805,10 +10815,10 @@
         <v>879</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>1273</v>
+        <v>1268</v>
       </c>
       <c r="D329" s="1" t="s">
         <v>813</v>
@@ -10822,10 +10832,10 @@
         <v>880</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1274</v>
+        <v>1269</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>813</v>
@@ -10839,10 +10849,10 @@
         <v>881</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1275</v>
+        <v>1270</v>
       </c>
       <c r="D331" s="1" t="s">
         <v>813</v>
@@ -10856,10 +10866,10 @@
         <v>882</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1335</v>
+        <v>1330</v>
       </c>
       <c r="D332" s="1" t="s">
         <v>813</v>
@@ -10873,10 +10883,10 @@
         <v>883</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1276</v>
+        <v>1271</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>813</v>
@@ -10890,10 +10900,10 @@
         <v>884</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1336</v>
+        <v>1331</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>813</v>
@@ -10907,10 +10917,10 @@
         <v>885</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1277</v>
+        <v>1272</v>
       </c>
       <c r="D335" s="1" t="s">
         <v>813</v>
@@ -10924,10 +10934,10 @@
         <v>886</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1337</v>
+        <v>1332</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>813</v>
@@ -10941,10 +10951,10 @@
         <v>887</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1278</v>
+        <v>1273</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>813</v>
@@ -10958,10 +10968,10 @@
         <v>888</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1279</v>
+        <v>1274</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>813</v>
@@ -10975,10 +10985,10 @@
         <v>889</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="D339" s="1" t="s">
         <v>813</v>
@@ -10992,10 +11002,10 @@
         <v>890</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="D340" s="1" t="s">
         <v>813</v>
@@ -11009,10 +11019,10 @@
         <v>891</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>813</v>
@@ -11026,10 +11036,10 @@
         <v>892</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1338</v>
+        <v>1333</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>813</v>
@@ -11043,10 +11053,10 @@
         <v>893</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="D343" s="1" t="s">
         <v>813</v>
@@ -11060,10 +11070,10 @@
         <v>894</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1284</v>
+        <v>1279</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>813</v>
@@ -11077,10 +11087,10 @@
         <v>895</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1339</v>
+        <v>1334</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>813</v>
@@ -11094,10 +11104,10 @@
         <v>896</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1285</v>
+        <v>1280</v>
       </c>
       <c r="D346" s="1" t="s">
         <v>813</v>
@@ -11111,10 +11121,10 @@
         <v>897</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1340</v>
+        <v>1335</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>813</v>
@@ -11128,10 +11138,10 @@
         <v>898</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1286</v>
+        <v>1281</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>813</v>
@@ -11145,10 +11155,10 @@
         <v>899</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1287</v>
+        <v>1282</v>
       </c>
       <c r="D349" s="1" t="s">
         <v>813</v>
@@ -11162,10 +11172,10 @@
         <v>900</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1341</v>
+        <v>1336</v>
       </c>
       <c r="D350" s="1" t="s">
         <v>813</v>
@@ -11179,10 +11189,10 @@
         <v>901</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1288</v>
+        <v>1283</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>813</v>
@@ -11196,10 +11206,10 @@
         <v>902</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1289</v>
+        <v>1284</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>813</v>
@@ -11213,10 +11223,10 @@
         <v>903</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>1290</v>
+        <v>1285</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>813</v>
@@ -11230,10 +11240,10 @@
         <v>904</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>1291</v>
+        <v>1286</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>813</v>
@@ -11247,10 +11257,10 @@
         <v>905</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1342</v>
+        <v>1337</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>813</v>
@@ -11264,10 +11274,10 @@
         <v>906</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1292</v>
+        <v>1287</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>813</v>
@@ -11281,10 +11291,10 @@
         <v>907</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1293</v>
+        <v>1288</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>813</v>
@@ -11298,10 +11308,10 @@
         <v>908</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1243</v>
+        <v>1238</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>813</v>
@@ -11315,10 +11325,10 @@
         <v>909</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1294</v>
+        <v>1289</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>813</v>
@@ -11332,10 +11342,10 @@
         <v>910</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1295</v>
+        <v>1290</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>813</v>
@@ -11349,10 +11359,10 @@
         <v>911</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1343</v>
+        <v>1338</v>
       </c>
       <c r="D361" s="1" t="s">
         <v>813</v>
@@ -11366,10 +11376,10 @@
         <v>912</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1344</v>
+        <v>1339</v>
       </c>
       <c r="D362" s="1" t="s">
         <v>813</v>
@@ -11383,10 +11393,10 @@
         <v>913</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1296</v>
+        <v>1291</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>813</v>
@@ -11400,10 +11410,10 @@
         <v>914</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1297</v>
+        <v>1292</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>813</v>
@@ -11417,10 +11427,10 @@
         <v>915</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1345</v>
+        <v>1340</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>813</v>
@@ -11434,10 +11444,10 @@
         <v>916</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1298</v>
+        <v>1293</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>813</v>
@@ -11451,10 +11461,10 @@
         <v>917</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1346</v>
+        <v>1341</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>813</v>
@@ -11468,10 +11478,10 @@
         <v>918</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1299</v>
+        <v>1294</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>813</v>
@@ -11485,10 +11495,10 @@
         <v>919</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1300</v>
+        <v>1295</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>813</v>
@@ -11502,10 +11512,10 @@
         <v>920</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1301</v>
+        <v>1296</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>813</v>
@@ -11519,10 +11529,10 @@
         <v>921</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1302</v>
+        <v>1297</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>813</v>
@@ -11536,10 +11546,10 @@
         <v>922</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1303</v>
+        <v>1298</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>813</v>
@@ -11553,10 +11563,10 @@
         <v>923</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1304</v>
+        <v>1299</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>813</v>
@@ -11570,10 +11580,10 @@
         <v>924</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1305</v>
+        <v>1300</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>813</v>
@@ -11587,10 +11597,10 @@
         <v>925</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1306</v>
+        <v>1301</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>813</v>
@@ -11604,10 +11614,10 @@
         <v>926</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1307</v>
+        <v>1302</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>813</v>
@@ -11621,10 +11631,10 @@
         <v>927</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1308</v>
+        <v>1303</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>813</v>
@@ -11638,10 +11648,10 @@
         <v>928</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1154</v>
+        <v>1149</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1309</v>
+        <v>1304</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>813</v>
@@ -11655,10 +11665,10 @@
         <v>202</v>
       </c>
       <c r="B379" s="7" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C379" s="7" t="s">
         <v>1095</v>
-      </c>
-      <c r="C379" s="7" t="s">
-        <v>1096</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>203</v>
@@ -11672,10 +11682,10 @@
         <v>107</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C380" s="7" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D380" s="3" t="s">
         <v>108</v>
@@ -11689,10 +11699,10 @@
         <v>110</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D381" s="3" t="s">
         <v>111</v>
@@ -11706,10 +11716,10 @@
         <v>113</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>114</v>
@@ -11723,10 +11733,10 @@
         <v>116</v>
       </c>
       <c r="B383" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C383" s="7" t="s">
         <v>1063</v>
-      </c>
-      <c r="C383" s="7" t="s">
-        <v>1064</v>
       </c>
       <c r="D383" s="3" t="s">
         <v>117</v>
@@ -11740,10 +11750,10 @@
         <v>122</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>123</v>
@@ -11757,10 +11767,10 @@
         <v>119</v>
       </c>
       <c r="B385" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C385" s="7" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="D385" s="3" t="s">
         <v>120</v>
@@ -11774,10 +11784,10 @@
         <v>277</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="D386" s="2" t="s">
         <v>278</v>
@@ -11791,10 +11801,10 @@
         <v>280</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>278</v>
@@ -11808,10 +11818,10 @@
         <v>282</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>278</v>
@@ -11825,10 +11835,10 @@
         <v>284</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>278</v>
@@ -11842,10 +11852,10 @@
         <v>292</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>293</v>
@@ -11859,10 +11869,10 @@
         <v>301</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>302</v>
@@ -11876,10 +11886,10 @@
         <v>310</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>302</v>
@@ -11893,10 +11903,10 @@
         <v>312</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>302</v>
@@ -11910,10 +11920,10 @@
         <v>314</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>302</v>
@@ -11927,10 +11937,10 @@
         <v>316</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>302</v>
@@ -11944,10 +11954,10 @@
         <v>321</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>322</v>
@@ -11961,10 +11971,10 @@
         <v>333</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>334</v>
@@ -11978,10 +11988,10 @@
         <v>336</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>334</v>
@@ -11995,10 +12005,10 @@
         <v>338</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>334</v>
@@ -12012,10 +12022,10 @@
         <v>340</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>334</v>
@@ -12029,10 +12039,10 @@
         <v>342</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>343</v>
@@ -12046,10 +12056,10 @@
         <v>354</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D402" s="3" t="s">
         <v>355</v>
@@ -12063,10 +12073,10 @@
         <v>357</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="D403" s="3" t="s">
         <v>355</v>
@@ -12080,10 +12090,10 @@
         <v>359</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="D404" s="3" t="s">
         <v>355</v>
@@ -12097,10 +12107,10 @@
         <v>370</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="D405" s="3" t="s">
         <v>371</v>
@@ -12114,10 +12124,10 @@
         <v>385</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>386</v>
@@ -12131,10 +12141,10 @@
         <v>393</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>394</v>
@@ -12148,10 +12158,10 @@
         <v>396</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>397</v>
@@ -12165,10 +12175,10 @@
         <v>399</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="D409" s="3" t="s">
         <v>400</v>
@@ -12182,10 +12192,10 @@
         <v>422</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>423</v>
@@ -12199,10 +12209,10 @@
         <v>425</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>426</v>
@@ -12216,10 +12226,10 @@
         <v>428</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>429</v>
@@ -12233,10 +12243,10 @@
         <v>431</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>432</v>
@@ -12250,10 +12260,10 @@
         <v>434</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>435</v>
@@ -12267,10 +12277,10 @@
         <v>437</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>438</v>
@@ -12284,10 +12294,10 @@
         <v>440</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>441</v>
@@ -12301,10 +12311,10 @@
         <v>443</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="C417" s="8" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="D417" s="2" t="s">
         <v>444</v>
@@ -12314,21 +12324,26 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1">
+    <sortState ref="A2:E417">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="D188" r:id="rId1"/>
     <hyperlink ref="D168" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>
-    <hyperlink ref="D143" r:id="rId3"/>
-    <hyperlink ref="D144" r:id="rId4"/>
-    <hyperlink ref="D147" r:id="rId5"/>
-    <hyperlink ref="D148" r:id="rId6"/>
-    <hyperlink ref="D149" r:id="rId7"/>
-    <hyperlink ref="D150" r:id="rId8"/>
-    <hyperlink ref="D151" r:id="rId9"/>
-    <hyperlink ref="D154" r:id="rId10"/>
+    <hyperlink ref="D139" r:id="rId3"/>
+    <hyperlink ref="D140" r:id="rId4"/>
+    <hyperlink ref="D143" r:id="rId5"/>
+    <hyperlink ref="D144" r:id="rId6"/>
+    <hyperlink ref="D145" r:id="rId7"/>
+    <hyperlink ref="D146" r:id="rId8"/>
+    <hyperlink ref="D147" r:id="rId9"/>
+    <hyperlink ref="D150" r:id="rId10"/>
     <hyperlink ref="D164" r:id="rId11"/>
     <hyperlink ref="D165" r:id="rId12"/>
     <hyperlink ref="D166" r:id="rId13"/>
-    <hyperlink ref="D156" r:id="rId14"/>
+    <hyperlink ref="D152" r:id="rId14"/>
     <hyperlink ref="D167" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D397" authorId="0" shapeId="0">
+    <comment ref="D396" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E397" authorId="0" shapeId="0">
+    <comment ref="E396" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D402" authorId="0" shapeId="0">
+    <comment ref="D401" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D407" authorId="0" shapeId="0">
+    <comment ref="D406" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D408" authorId="0" shapeId="0">
+    <comment ref="D407" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2059" uniqueCount="1340">
   <si>
     <t>Input</t>
   </si>
@@ -1005,18 +1005,6 @@
     <t>process, apply, online visa</t>
   </si>
   <si>
-    <t>How do I identify visa type?</t>
-  </si>
-  <si>
-    <t>(To be done online)
-• Identify your purpose of travel and visa category.
-• Check pre conditions for visa.
-• Passport with at least 2 blank pages and 6 months validity.</t>
-  </si>
-  <si>
-    <t>identify, visa, type</t>
-  </si>
-  <si>
     <t>How to fill online application for key visa?</t>
   </si>
   <si>
@@ -3912,9 +3900,6 @@
   </si>
   <si>
     <t>interview</t>
-  </si>
-  <si>
-    <t>type identification</t>
   </si>
   <si>
     <t>visa</t>
@@ -4719,7 +4704,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4780,6 +4765,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4809,7 +4800,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4912,6 +4903,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5261,10 +5256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E417"/>
+  <dimension ref="A1:E416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:XFD26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5281,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>1</v>
@@ -5295,223 +5290,223 @@
     </row>
     <row r="2" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="27" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D4" s="27" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="27" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="27" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="27" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="27" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D11" s="27" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="28" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="27" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D12" s="27" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="28" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="27" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="28" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="27" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="D14" s="27" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="31" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5519,10 +5514,10 @@
         <v>99</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D15" s="30" t="s">
         <v>100</v>
@@ -5536,10 +5531,10 @@
         <v>102</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D16" s="30" t="s">
         <v>100</v>
@@ -5553,10 +5548,10 @@
         <v>103</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D17" s="30" t="s">
         <v>100</v>
@@ -5570,10 +5565,10 @@
         <v>104</v>
       </c>
       <c r="B18" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>105</v>
@@ -5584,427 +5579,427 @@
     </row>
     <row r="19" spans="1:5" s="31" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D19" s="32" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="34" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="33" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B20" s="33" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="33" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C21" s="33" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E21" s="33" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="33" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>1081</v>
+        <v>1078</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="35" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B23" s="35" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D23" s="36" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E23" s="36" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D24" s="37" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E24" s="37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="37" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D25" s="37" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E25" s="37" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="37" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>1080</v>
+        <v>1077</v>
       </c>
       <c r="C26" s="37" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D26" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="E26" s="37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C27" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="E27" s="37" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="34" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D28" s="37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="34" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A29" s="36" t="s">
+        <v>361</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>1067</v>
       </c>
-      <c r="D26" s="37" t="s">
-        <v>305</v>
-      </c>
-      <c r="E26" s="37" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>1080</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A31" s="5" t="s">
-        <v>600</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D29" s="36" t="s">
+        <v>362</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="34" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A30" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D30" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="38" t="s">
+        <v>597</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D31" s="38" t="s">
+        <v>598</v>
+      </c>
+      <c r="E31" s="38" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>1150</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>607</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A33" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>1148</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>616</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C34" s="38" t="s">
+        <v>1149</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="38" t="s">
+        <v>633</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C35" s="38" t="s">
         <v>1151</v>
       </c>
-      <c r="D31" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>609</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C32" s="5" t="s">
+      <c r="D35" s="38" t="s">
+        <v>634</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="38" t="s">
+        <v>642</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>1152</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>643</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A37" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="B37" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C37" s="38" t="s">
+        <v>1153</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="38" t="s">
+        <v>660</v>
+      </c>
+      <c r="B38" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C38" s="38" t="s">
         <v>1154</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>610</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A33" s="5" t="s">
-        <v>618</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>1152</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>619</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="15" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="5" t="s">
-        <v>627</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>1153</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>628</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A35" s="5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D38" s="38" t="s">
+        <v>661</v>
+      </c>
+      <c r="E38" s="38" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A39" s="38" t="s">
+        <v>669</v>
+      </c>
+      <c r="B39" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C39" s="38" t="s">
         <v>1155</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>637</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A36" s="5" t="s">
-        <v>645</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D39" s="38" t="s">
+        <v>670</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="38" t="s">
+        <v>678</v>
+      </c>
+      <c r="B40" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C40" s="38" t="s">
         <v>1156</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>646</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
-        <v>654</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D40" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="E40" s="38" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A41" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C41" s="38" t="s">
         <v>1157</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A38" s="5" t="s">
-        <v>663</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D41" s="38" t="s">
+        <v>688</v>
+      </c>
+      <c r="E41" s="38" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="39" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A42" s="38" t="s">
+        <v>693</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C42" s="38" t="s">
         <v>1158</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>664</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A39" s="5" t="s">
-        <v>672</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>1159</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>673</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="5" t="s">
-        <v>681</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>1160</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>682</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A41" s="5" t="s">
-        <v>690</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>1161</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>691</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>696</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C42" s="5" t="s">
+      <c r="D42" s="38" t="s">
+        <v>694</v>
+      </c>
+      <c r="E42" s="38" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="B43" s="38" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C43" s="38" t="s">
         <v>1162</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>1166</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>712</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>713</v>
+      <c r="D43" s="38" t="s">
+        <v>709</v>
+      </c>
+      <c r="E43" s="38" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -6012,10 +6007,10 @@
         <v>10</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>11</v>
@@ -6029,10 +6024,10 @@
         <v>22</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>23</v>
@@ -6046,10 +6041,10 @@
         <v>25</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>23</v>
@@ -6058,15 +6053,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>23</v>
@@ -6080,10 +6075,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="16" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D48" s="17" t="s">
         <v>23</v>
@@ -6092,15 +6087,15 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
         <v>29</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>30</v>
@@ -6109,15 +6104,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="16" t="s">
         <v>48</v>
       </c>
       <c r="B50" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>1055</v>
       </c>
       <c r="D50" s="17" t="s">
         <v>49</v>
@@ -6126,15 +6121,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="16" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C51" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>1055</v>
       </c>
       <c r="D51" s="17" t="s">
         <v>49</v>
@@ -6143,15 +6138,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A52" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>49</v>
@@ -6165,10 +6160,10 @@
         <v>54</v>
       </c>
       <c r="B53" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C53" s="16" t="s">
         <v>1052</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>1055</v>
       </c>
       <c r="D53" s="17" t="s">
         <v>49</v>
@@ -6177,15 +6172,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A54" s="14" t="s">
         <v>67</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C54" s="14" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D54" s="18" t="s">
         <v>68</v>
@@ -6194,15 +6189,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A55" s="14" t="s">
         <v>70</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C55" s="14" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D55" s="18" t="s">
         <v>68</v>
@@ -6211,15 +6206,15 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A56" s="14" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C56" s="14" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>68</v>
@@ -6228,15 +6223,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A57" s="14" t="s">
         <v>74</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C57" s="14" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D57" s="18" t="s">
         <v>68</v>
@@ -6250,10 +6245,10 @@
         <v>90</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C58" s="14" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D58" s="18" t="s">
         <v>68</v>
@@ -6267,10 +6262,10 @@
         <v>157</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>158</v>
@@ -6279,12 +6274,12 @@
         <v>159</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="7" t="s">
         <v>169</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>171</v>
@@ -6296,667 +6291,667 @@
         <v>171</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>1070</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="B65" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E65" s="2" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D65" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>1128</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A67" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="D66" s="2" t="s">
+      <c r="B67" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="E66" s="3" t="s">
+      <c r="E67" s="3" t="s">
         <v>448</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A67" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>1136</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="8" t="s">
-        <v>493</v>
-      </c>
-      <c r="B70" s="8" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>1140</v>
-      </c>
       <c r="D70" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>1163</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="B71" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="B72" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>1167</v>
       </c>
-      <c r="D71" s="5" t="s">
-        <v>727</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A72" s="5" t="s">
-        <v>729</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>1168</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="D73" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E72" s="5" t="s">
+      <c r="E73" s="5" t="s">
         <v>731</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A73" s="5" t="s">
-        <v>732</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>1171</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>733</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="5" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="5" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="5" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="5" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="5" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="5" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="5" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="5" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="5" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="5" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="5" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="5" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="5" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="5" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="5" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>1052</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>1055</v>
-      </c>
       <c r="D92" s="5" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="5" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="5" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="5" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="5" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="5" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="5" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="5" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -6964,10 +6959,10 @@
         <v>127</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>128</v>
@@ -6981,10 +6976,10 @@
         <v>130</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>131</v>
@@ -6998,10 +6993,10 @@
         <v>133</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>134</v>
@@ -7015,10 +7010,10 @@
         <v>136</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>137</v>
@@ -7032,10 +7027,10 @@
         <v>139</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>140</v>
@@ -7049,10 +7044,10 @@
         <v>142</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C105" s="7" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>143</v>
@@ -7066,10 +7061,10 @@
         <v>145</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C106" s="7" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>146</v>
@@ -7083,10 +7078,10 @@
         <v>148</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C107" s="7" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>149</v>
@@ -7100,10 +7095,10 @@
         <v>151</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C108" s="7" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>152</v>
@@ -7117,10 +7112,10 @@
         <v>154</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C109" s="7" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>155</v>
@@ -7129,15 +7124,15 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="7" t="s">
         <v>160</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C110" s="7" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>161</v>
@@ -7146,134 +7141,134 @@
         <v>162</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C113" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A114" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A115" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="D113" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A115" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>1070</v>
-      </c>
       <c r="D115" s="3" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A117" s="4" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
         <v>32</v>
       </c>
       <c r="B118" s="14" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C118" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>30</v>
@@ -7287,10 +7282,10 @@
         <v>34</v>
       </c>
       <c r="B119" s="14" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C119" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>30</v>
@@ -7299,15 +7294,15 @@
         <v>35</v>
       </c>
     </row>
-    <row r="120" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A120" s="16" t="s">
         <v>36</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>30</v>
@@ -7316,15 +7311,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A121" s="16" t="s">
         <v>92</v>
       </c>
       <c r="B121" s="14" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C121" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D121" s="17" t="s">
         <v>30</v>
@@ -7338,10 +7333,10 @@
         <v>38</v>
       </c>
       <c r="B122" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>30</v>
@@ -7355,10 +7350,10 @@
         <v>40</v>
       </c>
       <c r="B123" s="14" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>30</v>
@@ -7372,10 +7367,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C124" s="16" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D124" s="14" t="s">
         <v>30</v>
@@ -7389,10 +7384,10 @@
         <v>44</v>
       </c>
       <c r="B125" s="14" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="D125" s="14" t="s">
         <v>30</v>
@@ -7401,15 +7396,15 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B126" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C126" s="16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D126" s="18" t="s">
         <v>57</v>
@@ -7418,15 +7413,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A127" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C127" s="16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D127" s="18" t="s">
         <v>57</v>
@@ -7435,15 +7430,15 @@
         <v>60</v>
       </c>
     </row>
-    <row r="128" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A128" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C128" s="16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D128" s="18" t="s">
         <v>57</v>
@@ -7452,15 +7447,15 @@
         <v>62</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" ht="348" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
         <v>63</v>
       </c>
       <c r="B129" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C129" s="16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D129" s="18" t="s">
         <v>57</v>
@@ -7474,10 +7469,10 @@
         <v>65</v>
       </c>
       <c r="B130" s="16" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C130" s="16" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="D130" s="18" t="s">
         <v>57</v>
@@ -7486,15 +7481,15 @@
         <v>66</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>77</v>
@@ -7503,15 +7498,15 @@
         <v>78</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>77</v>
@@ -7520,15 +7515,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A133" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>77</v>
@@ -7537,15 +7532,15 @@
         <v>81</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="348" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A134" s="7" t="s">
         <v>82</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>77</v>
@@ -7559,10 +7554,10 @@
         <v>84</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>77</v>
@@ -7576,10 +7571,10 @@
         <v>86</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>77</v>
@@ -7593,10 +7588,10 @@
         <v>88</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>77</v>
@@ -7605,529 +7600,529 @@
         <v>89</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="5" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C139" s="5" t="s">
         <v>1147</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>1151</v>
-      </c>
       <c r="D139" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E139" s="5" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="E140" s="5" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A141" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="E141" s="5" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A142" s="5" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E142" s="5" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="5" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E143" s="5" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="5" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E144" s="5" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="5" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="D145" s="6" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="E145" s="5" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="5" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="E146" s="5" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="D147" s="6" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E147" s="5" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="5" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="E148" s="5" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="5" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="E149" s="5" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="5" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="E150" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="5" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="E151" s="5" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="5" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="E152" s="5" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E156" s="12" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="C157" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="203" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="5" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A159" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A160" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A161" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B162" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C162" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="C162" s="7" t="s">
-        <v>1101</v>
-      </c>
       <c r="D162" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A163" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B163" s="7" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="C163" s="7" t="s">
-        <v>1101</v>
-      </c>
       <c r="D163" s="5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="5" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="E164" s="5" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="5" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D165" s="6" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="E165" s="5" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="E166" s="5" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="5" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E167" s="5" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
@@ -8135,10 +8130,10 @@
         <v>163</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>164</v>
@@ -8152,10 +8147,10 @@
         <v>178</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>179</v>
@@ -8166,87 +8161,87 @@
     </row>
     <row r="171" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="8" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C174" s="8" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="8" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B175" s="8" t="s">
-        <v>1082</v>
+        <v>1079</v>
       </c>
       <c r="C175" s="8" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -8254,10 +8249,10 @@
         <v>166</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>167</v>
@@ -8268,81 +8263,81 @@
     </row>
     <row r="177" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="8" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C178" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="8" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="C179" s="8" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A181" s="14" t="s">
         <v>20</v>
       </c>
       <c r="B181" s="14" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C181" s="14" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D181" s="14" t="s">
         <v>11</v>
@@ -8351,106 +8346,106 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C182" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A183" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="D182" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E182" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A183" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>1079</v>
-      </c>
       <c r="C183" s="2" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C184" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A185" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A186" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>1067</v>
       </c>
-      <c r="D184" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E184" s="2" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A185" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C185" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="E185" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A186" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="B186" s="3" t="s">
-        <v>1079</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>1070</v>
-      </c>
       <c r="D186" s="3" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A187" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>1079</v>
+        <v>1076</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -8458,10 +8453,10 @@
         <v>94</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D188" s="3" t="s">
         <v>95</v>
@@ -8475,10 +8470,10 @@
         <v>97</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="D189" s="3" t="s">
         <v>98</v>
@@ -8487,19 +8482,19 @@
     </row>
     <row r="190" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A190" s="8" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="C190" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
@@ -8507,10 +8502,10 @@
         <v>175</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D191" s="3" t="s">
         <v>176</v>
@@ -8524,10 +8519,10 @@
         <v>172</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>1078</v>
+        <v>1075</v>
       </c>
       <c r="D192" s="3" t="s">
         <v>173</v>
@@ -8538,53 +8533,53 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A194" s="8" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C194" s="8" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A195" s="8" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C195" s="8" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -8592,10 +8587,10 @@
         <v>13</v>
       </c>
       <c r="B196" s="14" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C196" s="14" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D196" s="14" t="s">
         <v>14</v>
@@ -8609,10 +8604,10 @@
         <v>16</v>
       </c>
       <c r="B197" s="14" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="C197" s="14" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D197" s="14" t="s">
         <v>14</v>
@@ -8626,10 +8621,10 @@
         <v>3</v>
       </c>
       <c r="B198" s="14" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D198" s="14" t="s">
         <v>4</v>
@@ -8643,10 +8638,10 @@
         <v>6</v>
       </c>
       <c r="B199" s="14" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C199" s="14" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D199" s="14" t="s">
         <v>4</v>
@@ -8660,10 +8655,10 @@
         <v>8</v>
       </c>
       <c r="B200" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C200" s="14" t="s">
         <v>1046</v>
-      </c>
-      <c r="C200" s="14" t="s">
-        <v>1049</v>
       </c>
       <c r="D200" s="14" t="s">
         <v>4</v>
@@ -8677,10 +8672,10 @@
         <v>18</v>
       </c>
       <c r="B201" s="14" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="C201" s="14" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="D201" s="14" t="s">
         <v>4</v>
@@ -8691,338 +8686,338 @@
     </row>
     <row r="202" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A202" s="20" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B202" s="20" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C202" s="20"/>
       <c r="D202" s="21" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E202" s="21" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="22" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A203" s="23" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B203" s="23" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C203" s="23"/>
       <c r="D203" s="23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E203" s="23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="21" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B204" s="21" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C204" s="21"/>
       <c r="D204" s="21" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E204" s="21" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="24" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B205" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C205" s="24"/>
       <c r="D205" s="23" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E205" s="23" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="24" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B206" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C206" s="24"/>
       <c r="D206" s="23" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E206" s="21" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A207" s="24" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B207" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C207" s="24"/>
       <c r="D207" s="23" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E207" s="21" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="24" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B208" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C208" s="24"/>
       <c r="D208" s="23" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E208" s="21" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="24" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B209" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C209" s="24"/>
       <c r="D209" s="23" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E209" s="21" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="24" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B210" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C210" s="24"/>
       <c r="D210" s="23" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E210" s="21" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="24" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B211" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C211" s="24"/>
       <c r="D211" s="25" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E211" s="23" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A212" s="24" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B212" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C212" s="24"/>
       <c r="D212" s="25" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E212" s="23" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="24" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B213" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C213" s="24"/>
       <c r="D213" s="23" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E213" s="23" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A214" s="24" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B214" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C214" s="24"/>
       <c r="D214" s="23" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E214" s="23" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A215" s="24" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B215" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C215" s="24"/>
       <c r="D215" s="23" t="s">
+        <v>500</v>
+      </c>
+      <c r="E215" s="23" t="s">
         <v>503</v>
-      </c>
-      <c r="E215" s="23" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A216" s="26" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B216" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C216" s="26"/>
       <c r="D216" s="25" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E216" s="25" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="22" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="26" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B217" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C217" s="26"/>
       <c r="D217" s="23" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E217" s="25" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="24" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B218" s="24" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C218" s="24"/>
       <c r="D218" s="23" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E218" s="23" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="22" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A219" s="26" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B219" s="26" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="C219" s="26"/>
       <c r="D219" s="25" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E219" s="25" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="7" t="s">
-        <v>181</v>
+        <v>125</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>1089</v>
+        <v>1061</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>1090</v>
-      </c>
-      <c r="D220" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="E220" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A221" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B221" s="7" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C221" s="7" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D221" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D220" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E221" s="3"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>1090</v>
+      <c r="E220" s="3"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B221" s="2" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A222" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B222" s="8" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C222" s="8" t="s">
+        <v>1102</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>251</v>
+        <v>411</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>252</v>
+        <v>412</v>
       </c>
     </row>
     <row r="223" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="8" t="s">
-        <v>413</v>
+        <v>454</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C223" s="8" t="s">
-        <v>1106</v>
+        <v>1133</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E223" s="2" t="s">
-        <v>415</v>
+        <v>455</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -9030,27 +9025,27 @@
         <v>457</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C224" s="8" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="E224" s="3" t="s">
+      <c r="E224" s="2" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="8" t="s">
         <v>460</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C225" s="8" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>461</v>
@@ -9059,2724 +9054,2724 @@
         <v>462</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A226" s="8" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C226" s="8" t="s">
         <v>1139</v>
       </c>
-      <c r="D226" s="2" t="s">
-        <v>464</v>
+      <c r="D226" s="1" t="s">
+        <v>494</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A227" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="B227" s="8" t="s">
-        <v>1064</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>1143</v>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="B227" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C227" s="5" t="s">
+        <v>1187</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E227" s="2" t="s">
-        <v>498</v>
+        <v>810</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="B228" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C228" s="5" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E228" s="7" t="s">
         <v>522</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C228" s="5" t="s">
-        <v>1191</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E228" s="7" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="B229" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C229" s="5" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E229" s="7" t="s">
         <v>524</v>
-      </c>
-      <c r="B229" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C229" s="5" t="s">
-        <v>1193</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E229" s="7" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B230" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C230" s="5" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E230" s="7" t="s">
         <v>526</v>
-      </c>
-      <c r="B230" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C230" s="5" t="s">
-        <v>1194</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E230" s="7" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
-        <v>528</v>
+        <v>811</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>1195</v>
+        <v>1192</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E231" s="7" t="s">
-        <v>529</v>
+        <v>926</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
-        <v>814</v>
+        <v>527</v>
       </c>
       <c r="B232" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>1196</v>
+        <v>1193</v>
       </c>
       <c r="D232" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E232" s="7" t="s">
-        <v>929</v>
+        <v>528</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="B233" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E233" s="7" t="s">
         <v>530</v>
-      </c>
-      <c r="B233" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C233" s="5" t="s">
-        <v>1197</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E233" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="B234" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C234" s="5" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E234" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="B234" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C234" s="5" t="s">
-        <v>1198</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E234" s="7" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B235" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C235" s="5" t="s">
+        <v>1196</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E235" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="B235" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C235" s="5" t="s">
-        <v>1199</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E235" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="B236" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C236" s="5" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E236" s="7" t="s">
         <v>536</v>
-      </c>
-      <c r="B236" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C236" s="5" t="s">
-        <v>1200</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E236" s="7" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="B237" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C237" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E237" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="B237" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C237" s="5" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E237" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="B238" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C238" s="5" t="s">
+        <v>1198</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E238" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="B238" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C238" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E238" s="7" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="B239" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C239" s="5" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E239" s="7" t="s">
         <v>542</v>
-      </c>
-      <c r="B239" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C239" s="5" t="s">
-        <v>1202</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E239" s="7" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
+        <v>543</v>
+      </c>
+      <c r="B240" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C240" s="5" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E240" s="7" t="s">
         <v>544</v>
-      </c>
-      <c r="B240" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C240" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E240" s="7" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B241" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C241" s="5" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E241" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="B241" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C241" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E241" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="B242" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C242" s="5" t="s">
+        <v>1302</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E242" s="7" t="s">
         <v>548</v>
-      </c>
-      <c r="B242" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C242" s="5" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E242" s="7" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="7" t="s">
+        <v>549</v>
+      </c>
+      <c r="B243" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C243" s="5" t="s">
+        <v>1202</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E243" s="7" t="s">
         <v>550</v>
-      </c>
-      <c r="B243" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C243" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E243" s="7" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B244" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C244" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E244" s="7" t="s">
         <v>552</v>
-      </c>
-      <c r="B244" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C244" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E244" s="7" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="7" t="s">
-        <v>554</v>
+        <v>812</v>
       </c>
       <c r="B245" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>1207</v>
+        <v>1303</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E245" s="7" t="s">
-        <v>555</v>
+        <v>927</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="7" t="s">
-        <v>815</v>
+        <v>553</v>
       </c>
       <c r="B246" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>1307</v>
+        <v>1204</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>930</v>
+        <v>554</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
+        <v>555</v>
+      </c>
+      <c r="B247" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C247" s="5" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D247" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E247" s="7" t="s">
         <v>556</v>
-      </c>
-      <c r="B247" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C247" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E247" s="7" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="B248" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C248" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="D248" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E248" s="7" t="s">
         <v>558</v>
-      </c>
-      <c r="B248" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C248" s="5" t="s">
-        <v>1209</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E248" s="7" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>560</v>
+        <v>813</v>
       </c>
       <c r="B249" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>1210</v>
+        <v>1304</v>
       </c>
       <c r="D249" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E249" s="7" t="s">
-        <v>561</v>
+        <v>928</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
-        <v>816</v>
+        <v>559</v>
       </c>
       <c r="B250" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>1308</v>
+        <v>1207</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E250" s="7" t="s">
-        <v>931</v>
+        <v>560</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="B251" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C251" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E251" s="7" t="s">
         <v>562</v>
-      </c>
-      <c r="B251" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C251" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="D251" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E251" s="7" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="7" t="s">
+        <v>563</v>
+      </c>
+      <c r="B252" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C252" s="5" t="s">
+        <v>1209</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E252" s="7" t="s">
         <v>564</v>
-      </c>
-      <c r="B252" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C252" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="D252" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E252" s="7" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="B253" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C253" s="5" t="s">
+        <v>1305</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E253" s="7" t="s">
         <v>566</v>
-      </c>
-      <c r="B253" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C253" s="5" t="s">
-        <v>1213</v>
-      </c>
-      <c r="D253" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E253" s="7" t="s">
-        <v>567</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="B254" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C254" s="5" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E254" s="7" t="s">
         <v>568</v>
-      </c>
-      <c r="B254" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C254" s="5" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E254" s="7" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B255" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C255" s="5" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E255" s="7" t="s">
         <v>570</v>
-      </c>
-      <c r="B255" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C255" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D255" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E255" s="7" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
+        <v>571</v>
+      </c>
+      <c r="B256" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C256" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E256" s="7" t="s">
         <v>572</v>
-      </c>
-      <c r="B256" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C256" s="5" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D256" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E256" s="7" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="7" t="s">
+        <v>573</v>
+      </c>
+      <c r="B257" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C257" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E257" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="B257" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C257" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E257" s="7" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="B258" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C258" s="5" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D258" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E258" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="B258" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C258" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="D258" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E258" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="B259" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C259" s="5" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D259" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E259" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="B259" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C259" s="5" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D259" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E259" s="7" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="B260" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C260" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E260" s="7" t="s">
         <v>580</v>
-      </c>
-      <c r="B260" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C260" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="D260" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E260" s="7" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="B261" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C261" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="D261" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E261" s="7" t="s">
         <v>582</v>
-      </c>
-      <c r="B261" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C261" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="D261" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E261" s="7" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="7" t="s">
+        <v>583</v>
+      </c>
+      <c r="B262" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C262" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D262" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E262" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="B262" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C262" s="5" t="s">
-        <v>1311</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E262" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="B263" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C263" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="D263" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E263" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="B263" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C263" s="5" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D263" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E263" s="7" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="7" t="s">
-        <v>588</v>
+        <v>814</v>
       </c>
       <c r="B264" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>1312</v>
+        <v>1309</v>
       </c>
       <c r="D264" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E264" s="7" t="s">
-        <v>589</v>
+        <v>929</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="7" t="s">
-        <v>817</v>
+        <v>587</v>
       </c>
       <c r="B265" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>1313</v>
+        <v>1216</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E265" s="7" t="s">
-        <v>932</v>
+        <v>588</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="7" t="s">
+        <v>589</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D266" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="E266" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C266" s="5" t="s">
-        <v>1220</v>
-      </c>
-      <c r="D266" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E266" s="7" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="7" t="s">
-        <v>592</v>
+        <v>815</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>1221</v>
+        <v>1310</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E267" s="7" t="s">
-        <v>593</v>
+        <v>930</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="7" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>1314</v>
+        <v>1311</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E268" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>1315</v>
+        <v>1218</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E269" s="7" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="7" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>1222</v>
+        <v>1219</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E270" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>1223</v>
+        <v>1220</v>
       </c>
       <c r="D271" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E271" s="7" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="7" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>1224</v>
+        <v>1312</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E272" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>1316</v>
+        <v>1221</v>
       </c>
       <c r="D273" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E273" s="7" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="7" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="B274" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>1225</v>
+        <v>1222</v>
       </c>
       <c r="D274" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E274" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B275" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>1226</v>
+        <v>1223</v>
       </c>
       <c r="D275" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E275" s="7" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="7" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="B276" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>1227</v>
+        <v>1313</v>
       </c>
       <c r="D276" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E276" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B277" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>1317</v>
+        <v>1314</v>
       </c>
       <c r="D277" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E277" s="7" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B278" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>1318</v>
+        <v>1224</v>
       </c>
       <c r="D278" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E278" s="7" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B279" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>1228</v>
+        <v>1225</v>
       </c>
       <c r="D279" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E279" s="7" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="7" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B280" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>1229</v>
+        <v>1315</v>
       </c>
       <c r="D280" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E280" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B281" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>1319</v>
+        <v>1226</v>
       </c>
       <c r="D281" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E281" s="7" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="7" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="B282" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>1230</v>
+        <v>1227</v>
       </c>
       <c r="D282" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E282" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B283" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>1231</v>
+        <v>1228</v>
       </c>
       <c r="D283" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E283" s="7" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="7" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="B284" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>1232</v>
+        <v>1229</v>
       </c>
       <c r="D284" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E284" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B285" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>1233</v>
+        <v>1316</v>
       </c>
       <c r="D285" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E285" s="7" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="7" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B286" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>1320</v>
+        <v>1230</v>
       </c>
       <c r="D286" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E286" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B287" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>1234</v>
+        <v>1231</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E287" s="7" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="7" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="B288" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>1235</v>
+        <v>1232</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E288" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B289" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>1236</v>
+        <v>1317</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E289" s="7" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="7" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B290" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>1321</v>
+        <v>1318</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E290" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B291" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>1322</v>
+        <v>1233</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E291" s="7" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="7" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="B292" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>1237</v>
+        <v>1319</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E292" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B293" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>1323</v>
+        <v>1320</v>
       </c>
       <c r="D293" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E293" s="7" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="B294" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>1324</v>
+        <v>1235</v>
       </c>
       <c r="D294" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E294" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B295" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E295" s="7" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B296" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>1240</v>
+        <v>1237</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E296" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B297" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>1241</v>
+        <v>1321</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E297" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B298" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>1325</v>
+        <v>1238</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E298" s="7" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B299" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>1242</v>
+        <v>1239</v>
       </c>
       <c r="D299" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E299" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="B300" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>1243</v>
+        <v>1240</v>
       </c>
       <c r="D300" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E300" s="7" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B301" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>1244</v>
+        <v>1241</v>
       </c>
       <c r="D301" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E301" s="7" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B302" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>1245</v>
+        <v>1242</v>
       </c>
       <c r="D302" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E302" s="7" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B303" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>1246</v>
+        <v>1243</v>
       </c>
       <c r="D303" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E303" s="7" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="B304" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>1247</v>
+        <v>1244</v>
       </c>
       <c r="D304" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E304" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B305" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>1248</v>
+        <v>1245</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E305" s="7" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="7" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B306" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>1249</v>
+        <v>1322</v>
       </c>
       <c r="D306" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E306" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B307" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>1326</v>
+        <v>1246</v>
       </c>
       <c r="D307" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E307" s="7" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="7" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B308" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>1250</v>
+        <v>1247</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E308" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B309" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>1251</v>
+        <v>1248</v>
       </c>
       <c r="D309" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E309" s="7" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="7" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B310" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>1252</v>
+        <v>1323</v>
       </c>
       <c r="D310" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E310" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B311" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>1327</v>
+        <v>1249</v>
       </c>
       <c r="D311" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E311" s="7" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B312" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>1253</v>
+        <v>1250</v>
       </c>
       <c r="D312" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E312" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B313" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>1254</v>
+        <v>1251</v>
       </c>
       <c r="D313" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E313" s="7" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="7" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="B314" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>1255</v>
+        <v>1252</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E314" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B315" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>1256</v>
+        <v>1253</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E315" s="7" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B316" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>1257</v>
+        <v>1254</v>
       </c>
       <c r="D316" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E316" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B317" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>1258</v>
+        <v>1255</v>
       </c>
       <c r="D317" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E317" s="7" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B318" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>1259</v>
+        <v>1256</v>
       </c>
       <c r="D318" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E318" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B319" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>1260</v>
+        <v>1324</v>
       </c>
       <c r="D319" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E319" s="7" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="7" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="B320" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>1328</v>
+        <v>1257</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E320" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B321" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>1261</v>
+        <v>1258</v>
       </c>
       <c r="D321" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E321" s="7" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="7" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B322" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>1262</v>
+        <v>1259</v>
       </c>
       <c r="D322" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E322" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B323" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>1263</v>
+        <v>1260</v>
       </c>
       <c r="D323" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E323" s="7" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="B324" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>1264</v>
+        <v>1325</v>
       </c>
       <c r="D324" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E324" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B325" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>1329</v>
+        <v>1261</v>
       </c>
       <c r="D325" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E325" s="7" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="7" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B326" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>1265</v>
+        <v>1262</v>
       </c>
       <c r="D326" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E326" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B327" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>1266</v>
+        <v>1263</v>
       </c>
       <c r="D327" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E327" s="7" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="7" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B328" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>1267</v>
+        <v>1264</v>
       </c>
       <c r="D328" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E328" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B329" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>1268</v>
+        <v>1265</v>
       </c>
       <c r="D329" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E329" s="7" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="B330" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>1269</v>
+        <v>1266</v>
       </c>
       <c r="D330" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E330" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B331" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>1270</v>
+        <v>1326</v>
       </c>
       <c r="D331" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E331" s="7" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="7" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B332" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>1330</v>
+        <v>1267</v>
       </c>
       <c r="D332" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E332" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B333" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>1271</v>
+        <v>1327</v>
       </c>
       <c r="D333" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E333" s="7" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="7" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B334" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>1331</v>
+        <v>1268</v>
       </c>
       <c r="D334" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E334" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B335" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>1272</v>
+        <v>1328</v>
       </c>
       <c r="D335" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E335" s="7" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="7" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B336" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>1332</v>
+        <v>1269</v>
       </c>
       <c r="D336" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E336" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B337" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>1273</v>
+        <v>1270</v>
       </c>
       <c r="D337" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E337" s="7" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B338" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>1274</v>
+        <v>1271</v>
       </c>
       <c r="D338" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E338" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B339" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>1275</v>
+        <v>1272</v>
       </c>
       <c r="D339" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E339" s="7" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="7" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B340" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>1276</v>
+        <v>1273</v>
       </c>
       <c r="D340" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E340" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B341" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>1277</v>
+        <v>1329</v>
       </c>
       <c r="D341" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E341" s="7" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B342" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>1333</v>
+        <v>1274</v>
       </c>
       <c r="D342" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E342" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B343" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>1278</v>
+        <v>1275</v>
       </c>
       <c r="D343" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E343" s="7" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="7" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B344" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>1279</v>
+        <v>1330</v>
       </c>
       <c r="D344" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E344" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B345" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>1334</v>
+        <v>1276</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E345" s="7" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="7" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B346" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>1280</v>
+        <v>1331</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E346" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B347" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>1335</v>
+        <v>1277</v>
       </c>
       <c r="D347" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E347" s="7" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="7" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="B348" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>1281</v>
+        <v>1278</v>
       </c>
       <c r="D348" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E348" s="7" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B349" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>1282</v>
+        <v>1332</v>
       </c>
       <c r="D349" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E349" s="7" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="7" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>1336</v>
+        <v>1279</v>
       </c>
       <c r="D350" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E350" s="7" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>1283</v>
+        <v>1280</v>
       </c>
       <c r="D351" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E351" s="7" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>1284</v>
+        <v>1281</v>
       </c>
       <c r="D352" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E352" s="7" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>1285</v>
+        <v>1282</v>
       </c>
       <c r="D353" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E353" s="7" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>1286</v>
+        <v>1333</v>
       </c>
       <c r="D354" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E354" s="7" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>1337</v>
+        <v>1283</v>
       </c>
       <c r="D355" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E355" s="7" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="B356" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>1287</v>
+        <v>1284</v>
       </c>
       <c r="D356" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E356" s="7" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B357" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>1288</v>
+        <v>1234</v>
       </c>
       <c r="D357" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E357" s="7" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="7" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="B358" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>1238</v>
+        <v>1285</v>
       </c>
       <c r="D358" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E358" s="7" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1289</v>
+        <v>1286</v>
       </c>
       <c r="D359" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E359" s="7" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1290</v>
+        <v>1334</v>
       </c>
       <c r="D360" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E360" s="7" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1338</v>
+        <v>1335</v>
       </c>
       <c r="D361" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E361" s="7" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="7" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1339</v>
+        <v>1287</v>
       </c>
       <c r="D362" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E362" s="7" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1291</v>
+        <v>1288</v>
       </c>
       <c r="D363" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E363" s="7" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="7" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1292</v>
+        <v>1336</v>
       </c>
       <c r="D364" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E364" s="7" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1340</v>
+        <v>1289</v>
       </c>
       <c r="D365" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E365" s="7" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="7" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1293</v>
+        <v>1337</v>
       </c>
       <c r="D366" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E366" s="7" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1341</v>
+        <v>1290</v>
       </c>
       <c r="D367" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E367" s="7" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="7" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1294</v>
+        <v>1291</v>
       </c>
       <c r="D368" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E368" s="7" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1295</v>
+        <v>1292</v>
       </c>
       <c r="D369" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E369" s="7" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="7" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1296</v>
+        <v>1293</v>
       </c>
       <c r="D370" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E370" s="7" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1297</v>
+        <v>1294</v>
       </c>
       <c r="D371" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E371" s="7" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="7" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1298</v>
+        <v>1295</v>
       </c>
       <c r="D372" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E372" s="7" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1299</v>
+        <v>1296</v>
       </c>
       <c r="D373" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E373" s="7" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="7" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1300</v>
+        <v>1297</v>
       </c>
       <c r="D374" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E374" s="7" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1301</v>
+        <v>1298</v>
       </c>
       <c r="D375" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E375" s="7" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="7" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1302</v>
+        <v>1299</v>
       </c>
       <c r="D376" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E376" s="7" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1303</v>
+        <v>1300</v>
       </c>
       <c r="D377" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="E377" s="7" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A378" s="7" t="s">
-        <v>928</v>
-      </c>
-      <c r="B378" s="5" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C378" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="D378" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="E378" s="7" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="379" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>199</v>
+      </c>
+      <c r="B378" s="7" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C378" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D378" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="B379" s="7" t="s">
-        <v>1094</v>
+        <v>1059</v>
       </c>
       <c r="C379" s="7" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D379" s="5" t="s">
-        <v>203</v>
+        <v>1050</v>
+      </c>
+      <c r="D379" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E379" s="3" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B380" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C380" s="7" t="s">
         <v>1053</v>
       </c>
       <c r="D380" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E380" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B381" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C381" s="7" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D381" s="3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E381" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B382" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C382" s="7" t="s">
-        <v>1055</v>
+        <v>1060</v>
       </c>
       <c r="D382" s="3" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E382" s="3" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A383" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B383" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C383" s="7" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="D383" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E383" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="384" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B384" s="7" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C384" s="7" t="s">
-        <v>1076</v>
+        <v>1089</v>
       </c>
       <c r="D384" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E384" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A385" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="B385" s="7" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C385" s="7" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D385" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E385" s="3" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A385" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B385" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C385" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D385" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E385" s="2" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="386" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -11784,186 +11779,186 @@
         <v>277</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="D386" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E386" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C387" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E387" s="2" t="s">
         <v>280</v>
-      </c>
-      <c r="B387" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C387" s="2" t="s">
-        <v>1105</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="388" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B388" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C388" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D388" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E388" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B388" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C388" s="2" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="389" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="389" spans="1:5" ht="87" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C389" s="2" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D389" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E389" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C390" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D390" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E390" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A391" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B391" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C391" s="2" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D391" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E391" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B392" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C392" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D392" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E392" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A393" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B393" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C393" s="2" t="s">
+        <v>1106</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E393" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A394" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B394" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C394" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="D389" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E389" s="2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="390" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A390" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B390" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C390" s="2" t="s">
-        <v>1066</v>
-      </c>
-      <c r="D390" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="E390" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A391" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B391" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C391" s="2" t="s">
+      <c r="D394" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E394" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A395" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B395" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C395" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="D395" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E395" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A396" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="D391" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E391" s="2" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="392" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A392" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B392" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C392" s="2" t="s">
-        <v>1108</v>
-      </c>
-      <c r="D392" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E392" s="2" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A393" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B393" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C393" s="2" t="s">
-        <v>1109</v>
-      </c>
-      <c r="D393" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E393" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="394" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A394" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>1110</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E394" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="395" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A395" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E395" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="396" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A396" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B396" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C396" s="2" t="s">
-        <v>1067</v>
-      </c>
       <c r="D396" s="2" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
     </row>
     <row r="397" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
@@ -11971,84 +11966,84 @@
         <v>333</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="D397" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E397" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="E397" s="2" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="398" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C398" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E398" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B398" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C398" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D398" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E398" s="2" t="s">
+    </row>
+    <row r="399" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A399" s="2" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="399" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A399" s="2" t="s">
+      <c r="B399" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C399" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="E399" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B399" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C399" s="2" t="s">
-        <v>1114</v>
-      </c>
-      <c r="D399" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="E399" s="2" t="s">
+    </row>
+    <row r="400" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A400" s="2" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="400" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A400" s="2" t="s">
+      <c r="B400" s="2" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C400" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D400" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B400" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C400" s="2" t="s">
-        <v>1115</v>
-      </c>
-      <c r="D400" s="2" t="s">
-        <v>334</v>
       </c>
       <c r="E400" s="2" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A401" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B401" s="2" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C401" s="2" t="s">
-        <v>1068</v>
-      </c>
-      <c r="D401" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E401" s="2" t="s">
-        <v>344</v>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D401" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -12056,84 +12051,84 @@
         <v>354</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="D402" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E402" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E402" s="3" t="s">
+    </row>
+    <row r="403" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A403" s="3" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A403" s="3" t="s">
-        <v>357</v>
-      </c>
       <c r="B403" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>1117</v>
       </c>
       <c r="D403" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E403" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="404" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A404" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>1121</v>
+        <v>1067</v>
       </c>
       <c r="D404" s="3" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="E404" s="3" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="405" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A405" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="D405" s="3" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="E405" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="406" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A406" s="3" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>1075</v>
+        <v>1114</v>
       </c>
       <c r="D406" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="E406" s="3" t="s">
-        <v>387</v>
+        <v>391</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="407" spans="1:5" ht="29" x14ac:dyDescent="0.35">
@@ -12141,27 +12136,27 @@
         <v>393</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="D407" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E407" s="12" t="s">
+      <c r="E407" s="3" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A408" s="3" t="s">
         <v>396</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="D408" s="3" t="s">
         <v>397</v>
@@ -12170,49 +12165,49 @@
         <v>398</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A409" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="B409" s="3" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C409" s="3" t="s">
+    <row r="409" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A409" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B409" s="8" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C409" s="8" t="s">
         <v>1120</v>
       </c>
-      <c r="D409" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="E409" s="3" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="410" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="D409" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E409" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="8" t="s">
         <v>422</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C410" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="D410" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>423</v>
       </c>
       <c r="E410" s="2" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A411" s="8" t="s">
         <v>425</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C411" s="8" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>426</v>
@@ -12226,10 +12221,10 @@
         <v>428</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C412" s="8" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>429</v>
@@ -12238,15 +12233,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="8" t="s">
         <v>431</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C413" s="8" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>432</v>
@@ -12260,10 +12255,10 @@
         <v>434</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C414" s="8" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>435</v>
@@ -12272,15 +12267,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A415" s="8" t="s">
         <v>437</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C415" s="8" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="D415" s="2" t="s">
         <v>438</v>
@@ -12294,33 +12289,16 @@
         <v>440</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C416" s="8" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>441</v>
       </c>
       <c r="E416" s="2" t="s">
         <v>442</v>
-      </c>
-    </row>
-    <row r="417" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A417" s="8" t="s">
-        <v>443</v>
-      </c>
-      <c r="B417" s="8" t="s">
-        <v>1062</v>
-      </c>
-      <c r="C417" s="8" t="s">
-        <v>1130</v>
-      </c>
-      <c r="D417" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="E417" s="2" t="s">
-        <v>445</v>
       </c>
     </row>
   </sheetData>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -5245,7 +5245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A112" sqref="A112:XFD112"/>
     </sheetView>
   </sheetViews>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -4650,7 +4650,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4729,6 +4729,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4758,7 +4764,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4894,6 +4900,16 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5245,8 +5261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A112" sqref="A112:XFD112"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8956,2570 +8972,2570 @@
         <v>480</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A221" s="6" t="s">
+    <row r="221" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A221" s="51" t="s">
         <v>504</v>
       </c>
-      <c r="B221" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C221" s="4" t="s">
+      <c r="B221" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C221" s="52" t="s">
         <v>1165</v>
       </c>
-      <c r="D221" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E221" s="6" t="s">
+      <c r="D221" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E221" s="51" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A222" s="6" t="s">
+    <row r="222" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="51" t="s">
         <v>506</v>
       </c>
-      <c r="B222" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C222" s="4" t="s">
+      <c r="B222" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C222" s="52" t="s">
         <v>1167</v>
       </c>
-      <c r="D222" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E222" s="6" t="s">
+      <c r="D222" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E222" s="51" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A223" s="6" t="s">
+    <row r="223" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A223" s="51" t="s">
         <v>508</v>
       </c>
-      <c r="B223" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C223" s="4" t="s">
+      <c r="B223" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C223" s="52" t="s">
         <v>1168</v>
       </c>
-      <c r="D223" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E223" s="6" t="s">
+      <c r="D223" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E223" s="51" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A224" s="6" t="s">
+    <row r="224" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A224" s="51" t="s">
         <v>510</v>
       </c>
-      <c r="B224" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C224" s="4" t="s">
+      <c r="B224" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C224" s="52" t="s">
         <v>1169</v>
       </c>
-      <c r="D224" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E224" s="6" t="s">
+      <c r="D224" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E224" s="51" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A225" s="6" t="s">
+    <row r="225" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A225" s="51" t="s">
         <v>793</v>
       </c>
-      <c r="B225" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C225" s="4" t="s">
+      <c r="B225" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C225" s="52" t="s">
         <v>1170</v>
       </c>
-      <c r="D225" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E225" s="6" t="s">
+      <c r="D225" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E225" s="51" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A226" s="6" t="s">
+    <row r="226" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A226" s="51" t="s">
         <v>512</v>
       </c>
-      <c r="B226" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C226" s="4" t="s">
+      <c r="B226" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C226" s="52" t="s">
         <v>1171</v>
       </c>
-      <c r="D226" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E226" s="6" t="s">
+      <c r="D226" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E226" s="51" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A227" s="6" t="s">
+    <row r="227" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="51" t="s">
         <v>514</v>
       </c>
-      <c r="B227" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C227" s="4" t="s">
+      <c r="B227" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C227" s="52" t="s">
         <v>1172</v>
       </c>
-      <c r="D227" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E227" s="6" t="s">
+      <c r="D227" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E227" s="51" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A228" s="6" t="s">
+    <row r="228" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A228" s="51" t="s">
         <v>516</v>
       </c>
-      <c r="B228" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C228" s="4" t="s">
+      <c r="B228" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C228" s="52" t="s">
         <v>1173</v>
       </c>
-      <c r="D228" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E228" s="6" t="s">
+      <c r="D228" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E228" s="51" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A229" s="6" t="s">
+    <row r="229" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A229" s="51" t="s">
         <v>518</v>
       </c>
-      <c r="B229" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C229" s="4" t="s">
+      <c r="B229" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C229" s="52" t="s">
         <v>1174</v>
       </c>
-      <c r="D229" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E229" s="6" t="s">
+      <c r="D229" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E229" s="51" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A230" s="6" t="s">
+    <row r="230" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A230" s="51" t="s">
         <v>520</v>
       </c>
-      <c r="B230" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C230" s="4" t="s">
+      <c r="B230" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C230" s="52" t="s">
         <v>1175</v>
       </c>
-      <c r="D230" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E230" s="6" t="s">
+      <c r="D230" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E230" s="51" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A231" s="6" t="s">
+    <row r="231" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A231" s="51" t="s">
         <v>522</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C231" s="4" t="s">
+      <c r="B231" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C231" s="52" t="s">
         <v>1279</v>
       </c>
-      <c r="D231" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E231" s="6" t="s">
+      <c r="D231" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E231" s="51" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A232" s="6" t="s">
+    <row r="232" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A232" s="51" t="s">
         <v>524</v>
       </c>
-      <c r="B232" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C232" s="4" t="s">
+      <c r="B232" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C232" s="52" t="s">
         <v>1176</v>
       </c>
-      <c r="D232" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E232" s="6" t="s">
+      <c r="D232" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E232" s="51" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A233" s="6" t="s">
+    <row r="233" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A233" s="51" t="s">
         <v>526</v>
       </c>
-      <c r="B233" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C233" s="4" t="s">
+      <c r="B233" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C233" s="52" t="s">
         <v>1177</v>
       </c>
-      <c r="D233" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E233" s="6" t="s">
+      <c r="D233" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E233" s="51" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A234" s="6" t="s">
+    <row r="234" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A234" s="51" t="s">
         <v>528</v>
       </c>
-      <c r="B234" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C234" s="4" t="s">
+      <c r="B234" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C234" s="52" t="s">
         <v>1178</v>
       </c>
-      <c r="D234" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E234" s="6" t="s">
+      <c r="D234" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E234" s="51" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A235" s="6" t="s">
+    <row r="235" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A235" s="51" t="s">
         <v>530</v>
       </c>
-      <c r="B235" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C235" s="4" t="s">
+      <c r="B235" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C235" s="52" t="s">
         <v>1179</v>
       </c>
-      <c r="D235" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E235" s="6" t="s">
+      <c r="D235" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E235" s="51" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A236" s="6" t="s">
+    <row r="236" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A236" s="51" t="s">
         <v>532</v>
       </c>
-      <c r="B236" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C236" s="4" t="s">
+      <c r="B236" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C236" s="52" t="s">
         <v>1280</v>
       </c>
-      <c r="D236" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E236" s="6" t="s">
+      <c r="D236" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E236" s="51" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A237" s="6" t="s">
+    <row r="237" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A237" s="51" t="s">
         <v>534</v>
       </c>
-      <c r="B237" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C237" s="4" t="s">
+      <c r="B237" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C237" s="52" t="s">
         <v>1180</v>
       </c>
-      <c r="D237" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E237" s="6" t="s">
+      <c r="D237" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E237" s="51" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A238" s="6" t="s">
+    <row r="238" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A238" s="51" t="s">
         <v>536</v>
       </c>
-      <c r="B238" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C238" s="4" t="s">
+      <c r="B238" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C238" s="52" t="s">
         <v>1181</v>
       </c>
-      <c r="D238" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E238" s="6" t="s">
+      <c r="D238" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E238" s="51" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A239" s="6" t="s">
+    <row r="239" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A239" s="51" t="s">
         <v>794</v>
       </c>
-      <c r="B239" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C239" s="4" t="s">
+      <c r="B239" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C239" s="52" t="s">
         <v>1281</v>
       </c>
-      <c r="D239" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E239" s="6" t="s">
+      <c r="D239" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E239" s="51" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A240" s="6" t="s">
+    <row r="240" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A240" s="51" t="s">
         <v>538</v>
       </c>
-      <c r="B240" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C240" s="4" t="s">
+      <c r="B240" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C240" s="52" t="s">
         <v>1182</v>
       </c>
-      <c r="D240" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E240" s="6" t="s">
+      <c r="D240" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E240" s="51" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A241" s="6" t="s">
+    <row r="241" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="51" t="s">
         <v>540</v>
       </c>
-      <c r="B241" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C241" s="4" t="s">
+      <c r="B241" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C241" s="52" t="s">
         <v>1183</v>
       </c>
-      <c r="D241" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E241" s="6" t="s">
+      <c r="D241" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E241" s="51" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A242" s="6" t="s">
+    <row r="242" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A242" s="51" t="s">
         <v>542</v>
       </c>
-      <c r="B242" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C242" s="4" t="s">
+      <c r="B242" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C242" s="52" t="s">
         <v>1184</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E242" s="6" t="s">
+      <c r="D242" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E242" s="51" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A243" s="6" t="s">
+    <row r="243" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A243" s="51" t="s">
         <v>795</v>
       </c>
-      <c r="B243" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C243" s="4" t="s">
+      <c r="B243" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C243" s="52" t="s">
         <v>1282</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E243" s="6" t="s">
+      <c r="D243" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E243" s="51" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A244" s="6" t="s">
+    <row r="244" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A244" s="51" t="s">
         <v>544</v>
       </c>
-      <c r="B244" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C244" s="4" t="s">
+      <c r="B244" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C244" s="52" t="s">
         <v>1185</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E244" s="6" t="s">
+      <c r="D244" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E244" s="51" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A245" s="6" t="s">
+    <row r="245" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A245" s="51" t="s">
         <v>546</v>
       </c>
-      <c r="B245" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C245" s="4" t="s">
+      <c r="B245" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C245" s="52" t="s">
         <v>1186</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E245" s="6" t="s">
+      <c r="D245" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E245" s="51" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A246" s="6" t="s">
+    <row r="246" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A246" s="51" t="s">
         <v>548</v>
       </c>
-      <c r="B246" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C246" s="4" t="s">
+      <c r="B246" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C246" s="52" t="s">
         <v>1187</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E246" s="6" t="s">
+      <c r="D246" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E246" s="51" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A247" s="6" t="s">
+    <row r="247" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A247" s="51" t="s">
         <v>550</v>
       </c>
-      <c r="B247" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C247" s="4" t="s">
+      <c r="B247" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C247" s="52" t="s">
         <v>1283</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E247" s="6" t="s">
+      <c r="D247" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E247" s="51" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A248" s="6" t="s">
+    <row r="248" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A248" s="51" t="s">
         <v>552</v>
       </c>
-      <c r="B248" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C248" s="4" t="s">
+      <c r="B248" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C248" s="52" t="s">
         <v>1284</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E248" s="6" t="s">
+      <c r="D248" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E248" s="51" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A249" s="6" t="s">
+    <row r="249" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A249" s="51" t="s">
         <v>554</v>
       </c>
-      <c r="B249" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C249" s="4" t="s">
+      <c r="B249" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C249" s="52" t="s">
         <v>1188</v>
       </c>
-      <c r="D249" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E249" s="6" t="s">
+      <c r="D249" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E249" s="51" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A250" s="6" t="s">
+    <row r="250" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A250" s="51" t="s">
         <v>556</v>
       </c>
-      <c r="B250" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C250" s="4" t="s">
+      <c r="B250" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C250" s="52" t="s">
         <v>1189</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E250" s="6" t="s">
+      <c r="D250" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E250" s="51" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A251" s="6" t="s">
+    <row r="251" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A251" s="51" t="s">
         <v>558</v>
       </c>
-      <c r="B251" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C251" s="4" t="s">
+      <c r="B251" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C251" s="52" t="s">
         <v>1190</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E251" s="6" t="s">
+      <c r="D251" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E251" s="51" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A252" s="6" t="s">
+    <row r="252" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A252" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="B252" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C252" s="4" t="s">
+      <c r="B252" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C252" s="52" t="s">
         <v>1191</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E252" s="6" t="s">
+      <c r="D252" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E252" s="51" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A253" s="6" t="s">
+    <row r="253" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A253" s="51" t="s">
         <v>562</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C253" s="4" t="s">
+      <c r="B253" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C253" s="52" t="s">
         <v>1192</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E253" s="6" t="s">
+      <c r="D253" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E253" s="51" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A254" s="6" t="s">
+    <row r="254" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A254" s="51" t="s">
         <v>564</v>
       </c>
-      <c r="B254" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C254" s="4" t="s">
+      <c r="B254" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C254" s="52" t="s">
         <v>1193</v>
       </c>
-      <c r="D254" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E254" s="6" t="s">
+      <c r="D254" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E254" s="51" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A255" s="6" t="s">
+    <row r="255" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A255" s="51" t="s">
         <v>566</v>
       </c>
-      <c r="B255" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C255" s="4" t="s">
+      <c r="B255" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C255" s="52" t="s">
         <v>1285</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E255" s="6" t="s">
+      <c r="D255" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E255" s="51" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A256" s="6" t="s">
+    <row r="256" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A256" s="51" t="s">
         <v>568</v>
       </c>
-      <c r="B256" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C256" s="4" t="s">
+      <c r="B256" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C256" s="52" t="s">
         <v>1069</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E256" s="6" t="s">
+      <c r="D256" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E256" s="51" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A257" s="6" t="s">
+    <row r="257" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="51" t="s">
         <v>570</v>
       </c>
-      <c r="B257" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C257" s="4" t="s">
+      <c r="B257" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C257" s="52" t="s">
         <v>1286</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E257" s="6" t="s">
+      <c r="D257" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E257" s="51" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A258" s="6" t="s">
+    <row r="258" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A258" s="51" t="s">
         <v>796</v>
       </c>
-      <c r="B258" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C258" s="4" t="s">
+      <c r="B258" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C258" s="52" t="s">
         <v>1287</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E258" s="6" t="s">
+      <c r="D258" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E258" s="51" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A259" s="6" t="s">
+    <row r="259" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="51" t="s">
         <v>572</v>
       </c>
-      <c r="B259" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C259" s="4" t="s">
+      <c r="B259" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C259" s="52" t="s">
         <v>1194</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E259" s="6" t="s">
+      <c r="D259" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E259" s="51" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A260" s="6" t="s">
+    <row r="260" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A260" s="51" t="s">
         <v>574</v>
       </c>
-      <c r="B260" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C260" s="4" t="s">
+      <c r="B260" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C260" s="52" t="s">
         <v>1195</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E260" s="6" t="s">
+      <c r="D260" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E260" s="51" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A261" s="6" t="s">
+    <row r="261" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A261" s="51" t="s">
         <v>797</v>
       </c>
-      <c r="B261" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C261" s="4" t="s">
+      <c r="B261" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C261" s="52" t="s">
         <v>1288</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E261" s="6" t="s">
+      <c r="D261" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E261" s="51" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A262" s="6" t="s">
+    <row r="262" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A262" s="51" t="s">
         <v>798</v>
       </c>
-      <c r="B262" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C262" s="4" t="s">
+      <c r="B262" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C262" s="52" t="s">
         <v>1289</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E262" s="6" t="s">
+      <c r="D262" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E262" s="51" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A263" s="6" t="s">
+    <row r="263" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A263" s="51" t="s">
         <v>799</v>
       </c>
-      <c r="B263" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C263" s="4" t="s">
+      <c r="B263" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C263" s="52" t="s">
         <v>1196</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E263" s="6" t="s">
+      <c r="D263" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E263" s="51" t="s">
         <v>914</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A264" s="6" t="s">
+    <row r="264" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="51" t="s">
         <v>800</v>
       </c>
-      <c r="B264" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C264" s="4" t="s">
+      <c r="B264" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C264" s="52" t="s">
         <v>1197</v>
       </c>
-      <c r="D264" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E264" s="6" t="s">
+      <c r="D264" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E264" s="51" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A265" s="6" t="s">
+    <row r="265" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A265" s="51" t="s">
         <v>801</v>
       </c>
-      <c r="B265" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C265" s="4" t="s">
+      <c r="B265" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C265" s="52" t="s">
         <v>1198</v>
       </c>
-      <c r="D265" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E265" s="6" t="s">
+      <c r="D265" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E265" s="51" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A266" s="6" t="s">
+    <row r="266" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A266" s="51" t="s">
         <v>802</v>
       </c>
-      <c r="B266" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C266" s="4" t="s">
+      <c r="B266" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C266" s="52" t="s">
         <v>1290</v>
       </c>
-      <c r="D266" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E266" s="6" t="s">
+      <c r="D266" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E266" s="51" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A267" s="6" t="s">
+    <row r="267" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A267" s="51" t="s">
         <v>803</v>
       </c>
-      <c r="B267" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C267" s="4" t="s">
+      <c r="B267" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C267" s="52" t="s">
         <v>1199</v>
       </c>
-      <c r="D267" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E267" s="6" t="s">
+      <c r="D267" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E267" s="51" t="s">
         <v>918</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A268" s="6" t="s">
+    <row r="268" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A268" s="51" t="s">
         <v>804</v>
       </c>
-      <c r="B268" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C268" s="4" t="s">
+      <c r="B268" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C268" s="52" t="s">
         <v>1200</v>
       </c>
-      <c r="D268" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E268" s="6" t="s">
+      <c r="D268" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E268" s="51" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A269" s="6" t="s">
+    <row r="269" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A269" s="51" t="s">
         <v>805</v>
       </c>
-      <c r="B269" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C269" s="4" t="s">
+      <c r="B269" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C269" s="52" t="s">
         <v>1201</v>
       </c>
-      <c r="D269" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E269" s="6" t="s">
+      <c r="D269" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E269" s="51" t="s">
         <v>920</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A270" s="6" t="s">
+    <row r="270" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A270" s="51" t="s">
         <v>806</v>
       </c>
-      <c r="B270" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C270" s="4" t="s">
+      <c r="B270" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C270" s="52" t="s">
         <v>1291</v>
       </c>
-      <c r="D270" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E270" s="6" t="s">
+      <c r="D270" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E270" s="51" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A271" s="6" t="s">
+    <row r="271" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A271" s="51" t="s">
         <v>807</v>
       </c>
-      <c r="B271" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C271" s="4" t="s">
+      <c r="B271" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C271" s="52" t="s">
         <v>1292</v>
       </c>
-      <c r="D271" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E271" s="6" t="s">
+      <c r="D271" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E271" s="51" t="s">
         <v>922</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A272" s="6" t="s">
+    <row r="272" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="51" t="s">
         <v>808</v>
       </c>
-      <c r="B272" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C272" s="4" t="s">
+      <c r="B272" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C272" s="52" t="s">
         <v>1202</v>
       </c>
-      <c r="D272" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E272" s="6" t="s">
+      <c r="D272" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E272" s="51" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A273" s="6" t="s">
+    <row r="273" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A273" s="51" t="s">
         <v>809</v>
       </c>
-      <c r="B273" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C273" s="4" t="s">
+      <c r="B273" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C273" s="52" t="s">
         <v>1203</v>
       </c>
-      <c r="D273" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E273" s="6" t="s">
+      <c r="D273" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E273" s="51" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A274" s="6" t="s">
+    <row r="274" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A274" s="51" t="s">
         <v>810</v>
       </c>
-      <c r="B274" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C274" s="4" t="s">
+      <c r="B274" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C274" s="52" t="s">
         <v>1293</v>
       </c>
-      <c r="D274" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E274" s="6" t="s">
+      <c r="D274" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E274" s="51" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A275" s="6" t="s">
+    <row r="275" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A275" s="51" t="s">
         <v>811</v>
       </c>
-      <c r="B275" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C275" s="4" t="s">
+      <c r="B275" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C275" s="52" t="s">
         <v>1204</v>
       </c>
-      <c r="D275" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E275" s="6" t="s">
+      <c r="D275" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E275" s="51" t="s">
         <v>926</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A276" s="6" t="s">
+    <row r="276" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A276" s="51" t="s">
         <v>812</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C276" s="4" t="s">
+      <c r="B276" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C276" s="52" t="s">
         <v>1205</v>
       </c>
-      <c r="D276" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E276" s="6" t="s">
+      <c r="D276" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E276" s="51" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A277" s="6" t="s">
+    <row r="277" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A277" s="51" t="s">
         <v>813</v>
       </c>
-      <c r="B277" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C277" s="4" t="s">
+      <c r="B277" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C277" s="52" t="s">
         <v>1206</v>
       </c>
-      <c r="D277" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E277" s="6" t="s">
+      <c r="D277" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E277" s="51" t="s">
         <v>928</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A278" s="6" t="s">
+    <row r="278" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A278" s="51" t="s">
         <v>814</v>
       </c>
-      <c r="B278" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C278" s="4" t="s">
+      <c r="B278" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C278" s="52" t="s">
         <v>1207</v>
       </c>
-      <c r="D278" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E278" s="6" t="s">
+      <c r="D278" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E278" s="51" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A279" s="6" t="s">
+    <row r="279" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A279" s="51" t="s">
         <v>815</v>
       </c>
-      <c r="B279" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C279" s="4" t="s">
+      <c r="B279" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C279" s="52" t="s">
         <v>1294</v>
       </c>
-      <c r="D279" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E279" s="6" t="s">
+      <c r="D279" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E279" s="51" t="s">
         <v>930</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A280" s="6" t="s">
+    <row r="280" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A280" s="51" t="s">
         <v>816</v>
       </c>
-      <c r="B280" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C280" s="4" t="s">
+      <c r="B280" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C280" s="52" t="s">
         <v>1208</v>
       </c>
-      <c r="D280" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E280" s="6" t="s">
+      <c r="D280" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E280" s="51" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A281" s="6" t="s">
+    <row r="281" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A281" s="51" t="s">
         <v>817</v>
       </c>
-      <c r="B281" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C281" s="4" t="s">
+      <c r="B281" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C281" s="52" t="s">
         <v>1209</v>
       </c>
-      <c r="D281" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E281" s="6" t="s">
+      <c r="D281" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E281" s="51" t="s">
         <v>932</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A282" s="6" t="s">
+    <row r="282" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A282" s="51" t="s">
         <v>818</v>
       </c>
-      <c r="B282" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C282" s="4" t="s">
+      <c r="B282" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C282" s="52" t="s">
         <v>1210</v>
       </c>
-      <c r="D282" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E282" s="6" t="s">
+      <c r="D282" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E282" s="51" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A283" s="6" t="s">
+    <row r="283" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A283" s="51" t="s">
         <v>819</v>
       </c>
-      <c r="B283" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C283" s="4" t="s">
+      <c r="B283" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C283" s="52" t="s">
         <v>1295</v>
       </c>
-      <c r="D283" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E283" s="6" t="s">
+      <c r="D283" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E283" s="51" t="s">
         <v>934</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A284" s="6" t="s">
+    <row r="284" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A284" s="51" t="s">
         <v>820</v>
       </c>
-      <c r="B284" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C284" s="4" t="s">
+      <c r="B284" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C284" s="52" t="s">
         <v>1296</v>
       </c>
-      <c r="D284" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E284" s="6" t="s">
+      <c r="D284" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E284" s="51" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A285" s="6" t="s">
+    <row r="285" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A285" s="51" t="s">
         <v>821</v>
       </c>
-      <c r="B285" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C285" s="4" t="s">
+      <c r="B285" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C285" s="52" t="s">
         <v>1211</v>
       </c>
-      <c r="D285" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E285" s="6" t="s">
+      <c r="D285" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E285" s="51" t="s">
         <v>936</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A286" s="6" t="s">
+    <row r="286" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="51" t="s">
         <v>822</v>
       </c>
-      <c r="B286" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C286" s="4" t="s">
+      <c r="B286" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C286" s="52" t="s">
         <v>1297</v>
       </c>
-      <c r="D286" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E286" s="6" t="s">
+      <c r="D286" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E286" s="51" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A287" s="6" t="s">
+    <row r="287" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A287" s="51" t="s">
         <v>823</v>
       </c>
-      <c r="B287" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C287" s="4" t="s">
+      <c r="B287" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C287" s="52" t="s">
         <v>1298</v>
       </c>
-      <c r="D287" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E287" s="6" t="s">
+      <c r="D287" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E287" s="51" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A288" s="6" t="s">
+    <row r="288" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A288" s="51" t="s">
         <v>824</v>
       </c>
-      <c r="B288" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C288" s="4" t="s">
+      <c r="B288" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C288" s="52" t="s">
         <v>1213</v>
       </c>
-      <c r="D288" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E288" s="6" t="s">
+      <c r="D288" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E288" s="51" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A289" s="6" t="s">
+    <row r="289" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="51" t="s">
         <v>825</v>
       </c>
-      <c r="B289" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C289" s="4" t="s">
+      <c r="B289" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C289" s="52" t="s">
         <v>1214</v>
       </c>
-      <c r="D289" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E289" s="6" t="s">
+      <c r="D289" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E289" s="51" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A290" s="6" t="s">
+    <row r="290" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A290" s="51" t="s">
         <v>826</v>
       </c>
-      <c r="B290" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C290" s="4" t="s">
+      <c r="B290" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C290" s="52" t="s">
         <v>1215</v>
       </c>
-      <c r="D290" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E290" s="6" t="s">
+      <c r="D290" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E290" s="51" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A291" s="6" t="s">
+    <row r="291" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A291" s="51" t="s">
         <v>827</v>
       </c>
-      <c r="B291" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C291" s="4" t="s">
+      <c r="B291" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C291" s="52" t="s">
         <v>1299</v>
       </c>
-      <c r="D291" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E291" s="6" t="s">
+      <c r="D291" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E291" s="51" t="s">
         <v>942</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A292" s="6" t="s">
+    <row r="292" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A292" s="51" t="s">
         <v>828</v>
       </c>
-      <c r="B292" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C292" s="4" t="s">
+      <c r="B292" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C292" s="52" t="s">
         <v>1216</v>
       </c>
-      <c r="D292" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E292" s="6" t="s">
+      <c r="D292" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E292" s="51" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A293" s="6" t="s">
+    <row r="293" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A293" s="51" t="s">
         <v>829</v>
       </c>
-      <c r="B293" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C293" s="4" t="s">
+      <c r="B293" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C293" s="52" t="s">
         <v>1217</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E293" s="6" t="s">
+      <c r="D293" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E293" s="51" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A294" s="6" t="s">
+    <row r="294" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A294" s="51" t="s">
         <v>830</v>
       </c>
-      <c r="B294" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C294" s="4" t="s">
+      <c r="B294" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C294" s="52" t="s">
         <v>1218</v>
       </c>
-      <c r="D294" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E294" s="6" t="s">
+      <c r="D294" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E294" s="51" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A295" s="6" t="s">
+    <row r="295" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A295" s="51" t="s">
         <v>831</v>
       </c>
-      <c r="B295" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C295" s="4" t="s">
+      <c r="B295" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C295" s="52" t="s">
         <v>1219</v>
       </c>
-      <c r="D295" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E295" s="6" t="s">
+      <c r="D295" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E295" s="51" t="s">
         <v>946</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A296" s="6" t="s">
+    <row r="296" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A296" s="51" t="s">
         <v>832</v>
       </c>
-      <c r="B296" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C296" s="4" t="s">
+      <c r="B296" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C296" s="52" t="s">
         <v>1220</v>
       </c>
-      <c r="D296" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E296" s="6" t="s">
+      <c r="D296" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E296" s="51" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A297" s="6" t="s">
+    <row r="297" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A297" s="51" t="s">
         <v>833</v>
       </c>
-      <c r="B297" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C297" s="4" t="s">
+      <c r="B297" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C297" s="52" t="s">
         <v>1221</v>
       </c>
-      <c r="D297" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E297" s="6" t="s">
+      <c r="D297" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E297" s="51" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A298" s="6" t="s">
+    <row r="298" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A298" s="51" t="s">
         <v>834</v>
       </c>
-      <c r="B298" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C298" s="4" t="s">
+      <c r="B298" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C298" s="52" t="s">
         <v>1222</v>
       </c>
-      <c r="D298" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E298" s="6" t="s">
+      <c r="D298" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E298" s="51" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A299" s="6" t="s">
+    <row r="299" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A299" s="51" t="s">
         <v>835</v>
       </c>
-      <c r="B299" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C299" s="4" t="s">
+      <c r="B299" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C299" s="52" t="s">
         <v>1223</v>
       </c>
-      <c r="D299" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E299" s="6" t="s">
+      <c r="D299" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E299" s="51" t="s">
         <v>950</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A300" s="6" t="s">
+    <row r="300" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A300" s="51" t="s">
         <v>836</v>
       </c>
-      <c r="B300" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C300" s="4" t="s">
+      <c r="B300" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C300" s="52" t="s">
         <v>1300</v>
       </c>
-      <c r="D300" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E300" s="6" t="s">
+      <c r="D300" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E300" s="51" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A301" s="6" t="s">
+    <row r="301" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A301" s="51" t="s">
         <v>837</v>
       </c>
-      <c r="B301" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C301" s="4" t="s">
+      <c r="B301" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C301" s="52" t="s">
         <v>1224</v>
       </c>
-      <c r="D301" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E301" s="6" t="s">
+      <c r="D301" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E301" s="51" t="s">
         <v>952</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A302" s="6" t="s">
+    <row r="302" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A302" s="51" t="s">
         <v>838</v>
       </c>
-      <c r="B302" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C302" s="4" t="s">
+      <c r="B302" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C302" s="52" t="s">
         <v>1225</v>
       </c>
-      <c r="D302" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E302" s="6" t="s">
+      <c r="D302" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E302" s="51" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A303" s="6" t="s">
+    <row r="303" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A303" s="51" t="s">
         <v>839</v>
       </c>
-      <c r="B303" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C303" s="4" t="s">
+      <c r="B303" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C303" s="52" t="s">
         <v>1226</v>
       </c>
-      <c r="D303" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E303" s="6" t="s">
+      <c r="D303" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E303" s="51" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A304" s="6" t="s">
+    <row r="304" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="51" t="s">
         <v>840</v>
       </c>
-      <c r="B304" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C304" s="4" t="s">
+      <c r="B304" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C304" s="52" t="s">
         <v>1301</v>
       </c>
-      <c r="D304" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E304" s="6" t="s">
+      <c r="D304" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E304" s="51" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A305" s="6" t="s">
+    <row r="305" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A305" s="51" t="s">
         <v>841</v>
       </c>
-      <c r="B305" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C305" s="4" t="s">
+      <c r="B305" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C305" s="52" t="s">
         <v>1227</v>
       </c>
-      <c r="D305" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E305" s="6" t="s">
+      <c r="D305" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E305" s="51" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A306" s="6" t="s">
+    <row r="306" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A306" s="51" t="s">
         <v>842</v>
       </c>
-      <c r="B306" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C306" s="4" t="s">
+      <c r="B306" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C306" s="52" t="s">
         <v>1228</v>
       </c>
-      <c r="D306" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E306" s="6" t="s">
+      <c r="D306" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E306" s="51" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A307" s="6" t="s">
+    <row r="307" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A307" s="51" t="s">
         <v>843</v>
       </c>
-      <c r="B307" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C307" s="4" t="s">
+      <c r="B307" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C307" s="52" t="s">
         <v>1229</v>
       </c>
-      <c r="D307" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E307" s="6" t="s">
+      <c r="D307" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E307" s="51" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A308" s="6" t="s">
+    <row r="308" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A308" s="51" t="s">
         <v>844</v>
       </c>
-      <c r="B308" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C308" s="4" t="s">
+      <c r="B308" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C308" s="52" t="s">
         <v>1230</v>
       </c>
-      <c r="D308" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E308" s="6" t="s">
+      <c r="D308" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E308" s="51" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A309" s="6" t="s">
+    <row r="309" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A309" s="51" t="s">
         <v>845</v>
       </c>
-      <c r="B309" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C309" s="4" t="s">
+      <c r="B309" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C309" s="52" t="s">
         <v>1231</v>
       </c>
-      <c r="D309" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E309" s="6" t="s">
+      <c r="D309" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E309" s="51" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A310" s="6" t="s">
+    <row r="310" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A310" s="51" t="s">
         <v>846</v>
       </c>
-      <c r="B310" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C310" s="4" t="s">
+      <c r="B310" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C310" s="52" t="s">
         <v>1232</v>
       </c>
-      <c r="D310" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E310" s="6" t="s">
+      <c r="D310" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E310" s="51" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A311" s="6" t="s">
+    <row r="311" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A311" s="51" t="s">
         <v>847</v>
       </c>
-      <c r="B311" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C311" s="4" t="s">
+      <c r="B311" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C311" s="52" t="s">
         <v>1233</v>
       </c>
-      <c r="D311" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E311" s="6" t="s">
+      <c r="D311" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E311" s="51" t="s">
         <v>962</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A312" s="6" t="s">
+    <row r="312" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A312" s="51" t="s">
         <v>848</v>
       </c>
-      <c r="B312" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C312" s="4" t="s">
+      <c r="B312" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C312" s="52" t="s">
         <v>1234</v>
       </c>
-      <c r="D312" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E312" s="6" t="s">
+      <c r="D312" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E312" s="51" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A313" s="6" t="s">
+    <row r="313" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A313" s="51" t="s">
         <v>849</v>
       </c>
-      <c r="B313" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C313" s="4" t="s">
+      <c r="B313" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C313" s="52" t="s">
         <v>1302</v>
       </c>
-      <c r="D313" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E313" s="6" t="s">
+      <c r="D313" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E313" s="51" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A314" s="6" t="s">
+    <row r="314" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A314" s="51" t="s">
         <v>850</v>
       </c>
-      <c r="B314" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C314" s="4" t="s">
+      <c r="B314" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C314" s="52" t="s">
         <v>1235</v>
       </c>
-      <c r="D314" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E314" s="6" t="s">
+      <c r="D314" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E314" s="51" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A315" s="6" t="s">
+    <row r="315" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="51" t="s">
         <v>851</v>
       </c>
-      <c r="B315" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C315" s="4" t="s">
+      <c r="B315" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C315" s="52" t="s">
         <v>1236</v>
       </c>
-      <c r="D315" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E315" s="6" t="s">
+      <c r="D315" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E315" s="51" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A316" s="6" t="s">
+    <row r="316" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A316" s="51" t="s">
         <v>852</v>
       </c>
-      <c r="B316" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C316" s="4" t="s">
+      <c r="B316" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C316" s="52" t="s">
         <v>1237</v>
       </c>
-      <c r="D316" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E316" s="6" t="s">
+      <c r="D316" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E316" s="51" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A317" s="6" t="s">
+    <row r="317" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A317" s="51" t="s">
         <v>853</v>
       </c>
-      <c r="B317" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C317" s="4" t="s">
+      <c r="B317" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C317" s="52" t="s">
         <v>1238</v>
       </c>
-      <c r="D317" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E317" s="6" t="s">
+      <c r="D317" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E317" s="51" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A318" s="6" t="s">
+    <row r="318" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A318" s="51" t="s">
         <v>854</v>
       </c>
-      <c r="B318" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C318" s="4" t="s">
+      <c r="B318" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C318" s="52" t="s">
         <v>1303</v>
       </c>
-      <c r="D318" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E318" s="6" t="s">
+      <c r="D318" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E318" s="51" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A319" s="6" t="s">
+    <row r="319" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A319" s="51" t="s">
         <v>855</v>
       </c>
-      <c r="B319" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C319" s="4" t="s">
+      <c r="B319" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C319" s="52" t="s">
         <v>1239</v>
       </c>
-      <c r="D319" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E319" s="6" t="s">
+      <c r="D319" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E319" s="51" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A320" s="6" t="s">
+    <row r="320" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A320" s="51" t="s">
         <v>856</v>
       </c>
-      <c r="B320" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C320" s="4" t="s">
+      <c r="B320" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C320" s="52" t="s">
         <v>1240</v>
       </c>
-      <c r="D320" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E320" s="6" t="s">
+      <c r="D320" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E320" s="51" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A321" s="6" t="s">
+    <row r="321" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A321" s="51" t="s">
         <v>857</v>
       </c>
-      <c r="B321" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C321" s="4" t="s">
+      <c r="B321" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C321" s="52" t="s">
         <v>1241</v>
       </c>
-      <c r="D321" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E321" s="6" t="s">
+      <c r="D321" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E321" s="51" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A322" s="6" t="s">
+    <row r="322" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A322" s="51" t="s">
         <v>858</v>
       </c>
-      <c r="B322" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C322" s="4" t="s">
+      <c r="B322" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C322" s="52" t="s">
         <v>1242</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E322" s="6" t="s">
+      <c r="D322" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E322" s="51" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A323" s="6" t="s">
+    <row r="323" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="51" t="s">
         <v>859</v>
       </c>
-      <c r="B323" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C323" s="4" t="s">
+      <c r="B323" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C323" s="52" t="s">
         <v>1243</v>
       </c>
-      <c r="D323" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E323" s="6" t="s">
+      <c r="D323" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E323" s="51" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A324" s="6" t="s">
+    <row r="324" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A324" s="51" t="s">
         <v>860</v>
       </c>
-      <c r="B324" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C324" s="4" t="s">
+      <c r="B324" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C324" s="52" t="s">
         <v>1244</v>
       </c>
-      <c r="D324" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E324" s="6" t="s">
+      <c r="D324" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E324" s="51" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A325" s="6" t="s">
+    <row r="325" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A325" s="51" t="s">
         <v>861</v>
       </c>
-      <c r="B325" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C325" s="4" t="s">
+      <c r="B325" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C325" s="52" t="s">
         <v>1304</v>
       </c>
-      <c r="D325" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E325" s="6" t="s">
+      <c r="D325" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E325" s="51" t="s">
         <v>976</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A326" s="6" t="s">
+    <row r="326" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A326" s="51" t="s">
         <v>862</v>
       </c>
-      <c r="B326" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C326" s="4" t="s">
+      <c r="B326" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C326" s="52" t="s">
         <v>1245</v>
       </c>
-      <c r="D326" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E326" s="6" t="s">
+      <c r="D326" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E326" s="51" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A327" s="6" t="s">
+    <row r="327" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A327" s="51" t="s">
         <v>863</v>
       </c>
-      <c r="B327" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C327" s="4" t="s">
+      <c r="B327" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C327" s="52" t="s">
         <v>1305</v>
       </c>
-      <c r="D327" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E327" s="6" t="s">
+      <c r="D327" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E327" s="51" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A328" s="6" t="s">
+    <row r="328" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A328" s="51" t="s">
         <v>864</v>
       </c>
-      <c r="B328" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C328" s="4" t="s">
+      <c r="B328" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C328" s="52" t="s">
         <v>1246</v>
       </c>
-      <c r="D328" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E328" s="6" t="s">
+      <c r="D328" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E328" s="51" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A329" s="6" t="s">
+    <row r="329" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A329" s="51" t="s">
         <v>865</v>
       </c>
-      <c r="B329" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C329" s="4" t="s">
+      <c r="B329" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C329" s="52" t="s">
         <v>1306</v>
       </c>
-      <c r="D329" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E329" s="6" t="s">
+      <c r="D329" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E329" s="51" t="s">
         <v>980</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A330" s="6" t="s">
+    <row r="330" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A330" s="51" t="s">
         <v>866</v>
       </c>
-      <c r="B330" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C330" s="4" t="s">
+      <c r="B330" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C330" s="52" t="s">
         <v>1247</v>
       </c>
-      <c r="D330" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E330" s="6" t="s">
+      <c r="D330" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E330" s="51" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A331" s="6" t="s">
+    <row r="331" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A331" s="51" t="s">
         <v>867</v>
       </c>
-      <c r="B331" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C331" s="4" t="s">
+      <c r="B331" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C331" s="52" t="s">
         <v>1248</v>
       </c>
-      <c r="D331" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E331" s="6" t="s">
+      <c r="D331" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E331" s="51" t="s">
         <v>982</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A332" s="6" t="s">
+    <row r="332" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A332" s="51" t="s">
         <v>868</v>
       </c>
-      <c r="B332" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C332" s="4" t="s">
+      <c r="B332" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C332" s="52" t="s">
         <v>1249</v>
       </c>
-      <c r="D332" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E332" s="6" t="s">
+      <c r="D332" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E332" s="51" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A333" s="6" t="s">
+    <row r="333" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A333" s="51" t="s">
         <v>869</v>
       </c>
-      <c r="B333" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C333" s="4" t="s">
+      <c r="B333" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C333" s="52" t="s">
         <v>1250</v>
       </c>
-      <c r="D333" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E333" s="6" t="s">
+      <c r="D333" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E333" s="51" t="s">
         <v>984</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A334" s="6" t="s">
+    <row r="334" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A334" s="51" t="s">
         <v>870</v>
       </c>
-      <c r="B334" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C334" s="4" t="s">
+      <c r="B334" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C334" s="52" t="s">
         <v>1251</v>
       </c>
-      <c r="D334" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E334" s="6" t="s">
+      <c r="D334" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E334" s="51" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A335" s="6" t="s">
+    <row r="335" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A335" s="51" t="s">
         <v>871</v>
       </c>
-      <c r="B335" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C335" s="4" t="s">
+      <c r="B335" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C335" s="52" t="s">
         <v>1307</v>
       </c>
-      <c r="D335" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E335" s="6" t="s">
+      <c r="D335" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E335" s="51" t="s">
         <v>986</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A336" s="6" t="s">
+    <row r="336" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A336" s="51" t="s">
         <v>872</v>
       </c>
-      <c r="B336" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C336" s="4" t="s">
+      <c r="B336" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C336" s="52" t="s">
         <v>1252</v>
       </c>
-      <c r="D336" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E336" s="6" t="s">
+      <c r="D336" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E336" s="51" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A337" s="6" t="s">
+    <row r="337" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A337" s="51" t="s">
         <v>873</v>
       </c>
-      <c r="B337" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C337" s="4" t="s">
+      <c r="B337" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C337" s="52" t="s">
         <v>1253</v>
       </c>
-      <c r="D337" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E337" s="6" t="s">
+      <c r="D337" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E337" s="51" t="s">
         <v>988</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A338" s="6" t="s">
+    <row r="338" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A338" s="51" t="s">
         <v>874</v>
       </c>
-      <c r="B338" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C338" s="4" t="s">
+      <c r="B338" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C338" s="52" t="s">
         <v>1308</v>
       </c>
-      <c r="D338" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E338" s="6" t="s">
+      <c r="D338" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E338" s="51" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A339" s="6" t="s">
+    <row r="339" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A339" s="51" t="s">
         <v>875</v>
       </c>
-      <c r="B339" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C339" s="4" t="s">
+      <c r="B339" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C339" s="52" t="s">
         <v>1254</v>
       </c>
-      <c r="D339" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E339" s="6" t="s">
+      <c r="D339" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E339" s="51" t="s">
         <v>990</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A340" s="6" t="s">
+    <row r="340" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A340" s="51" t="s">
         <v>876</v>
       </c>
-      <c r="B340" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C340" s="4" t="s">
+      <c r="B340" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C340" s="52" t="s">
         <v>1309</v>
       </c>
-      <c r="D340" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E340" s="6" t="s">
+      <c r="D340" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E340" s="51" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A341" s="6" t="s">
+    <row r="341" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A341" s="51" t="s">
         <v>877</v>
       </c>
-      <c r="B341" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C341" s="4" t="s">
+      <c r="B341" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C341" s="52" t="s">
         <v>1255</v>
       </c>
-      <c r="D341" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E341" s="6" t="s">
+      <c r="D341" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E341" s="51" t="s">
         <v>992</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A342" s="6" t="s">
+    <row r="342" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="51" t="s">
         <v>878</v>
       </c>
-      <c r="B342" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C342" s="4" t="s">
+      <c r="B342" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C342" s="52" t="s">
         <v>1256</v>
       </c>
-      <c r="D342" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E342" s="6" t="s">
+      <c r="D342" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E342" s="51" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A343" s="6" t="s">
+    <row r="343" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A343" s="51" t="s">
         <v>879</v>
       </c>
-      <c r="B343" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C343" s="4" t="s">
+      <c r="B343" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C343" s="52" t="s">
         <v>1310</v>
       </c>
-      <c r="D343" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E343" s="6" t="s">
+      <c r="D343" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E343" s="51" t="s">
         <v>994</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A344" s="6" t="s">
+    <row r="344" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A344" s="51" t="s">
         <v>880</v>
       </c>
-      <c r="B344" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C344" s="4" t="s">
+      <c r="B344" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C344" s="52" t="s">
         <v>1257</v>
       </c>
-      <c r="D344" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E344" s="6" t="s">
+      <c r="D344" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E344" s="51" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A345" s="6" t="s">
+    <row r="345" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="51" t="s">
         <v>881</v>
       </c>
-      <c r="B345" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C345" s="4" t="s">
+      <c r="B345" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C345" s="52" t="s">
         <v>1258</v>
       </c>
-      <c r="D345" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E345" s="6" t="s">
+      <c r="D345" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E345" s="51" t="s">
         <v>996</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A346" s="6" t="s">
+    <row r="346" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A346" s="51" t="s">
         <v>882</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C346" s="4" t="s">
+      <c r="B346" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C346" s="52" t="s">
         <v>1259</v>
       </c>
-      <c r="D346" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E346" s="6" t="s">
+      <c r="D346" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E346" s="51" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A347" s="6" t="s">
+    <row r="347" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A347" s="51" t="s">
         <v>883</v>
       </c>
-      <c r="B347" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C347" s="4" t="s">
+      <c r="B347" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C347" s="52" t="s">
         <v>1260</v>
       </c>
-      <c r="D347" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E347" s="6" t="s">
+      <c r="D347" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E347" s="51" t="s">
         <v>998</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A348" s="6" t="s">
+    <row r="348" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A348" s="51" t="s">
         <v>884</v>
       </c>
-      <c r="B348" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C348" s="4" t="s">
+      <c r="B348" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C348" s="52" t="s">
         <v>1311</v>
       </c>
-      <c r="D348" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E348" s="6" t="s">
+      <c r="D348" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E348" s="51" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A349" s="6" t="s">
+    <row r="349" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A349" s="51" t="s">
         <v>885</v>
       </c>
-      <c r="B349" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C349" s="4" t="s">
+      <c r="B349" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C349" s="52" t="s">
         <v>1261</v>
       </c>
-      <c r="D349" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E349" s="6" t="s">
+      <c r="D349" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E349" s="51" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A350" s="6" t="s">
+    <row r="350" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A350" s="51" t="s">
         <v>886</v>
       </c>
-      <c r="B350" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C350" s="4" t="s">
+      <c r="B350" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C350" s="52" t="s">
         <v>1262</v>
       </c>
-      <c r="D350" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E350" s="6" t="s">
+      <c r="D350" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E350" s="51" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A351" s="6" t="s">
+    <row r="351" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A351" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="B351" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C351" s="4" t="s">
+      <c r="B351" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C351" s="52" t="s">
         <v>1212</v>
       </c>
-      <c r="D351" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E351" s="6" t="s">
+      <c r="D351" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E351" s="51" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A352" s="6" t="s">
+    <row r="352" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A352" s="51" t="s">
         <v>888</v>
       </c>
-      <c r="B352" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C352" s="4" t="s">
+      <c r="B352" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C352" s="52" t="s">
         <v>1263</v>
       </c>
-      <c r="D352" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E352" s="6" t="s">
+      <c r="D352" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E352" s="51" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A353" s="6" t="s">
+    <row r="353" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A353" s="51" t="s">
         <v>889</v>
       </c>
-      <c r="B353" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C353" s="4" t="s">
+      <c r="B353" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C353" s="52" t="s">
         <v>1264</v>
       </c>
-      <c r="D353" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E353" s="6" t="s">
+      <c r="D353" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E353" s="51" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A354" s="6" t="s">
+    <row r="354" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A354" s="51" t="s">
         <v>890</v>
       </c>
-      <c r="B354" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C354" s="4" t="s">
+      <c r="B354" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C354" s="52" t="s">
         <v>1312</v>
       </c>
-      <c r="D354" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E354" s="6" t="s">
+      <c r="D354" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E354" s="51" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A355" s="6" t="s">
+    <row r="355" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="51" t="s">
         <v>891</v>
       </c>
-      <c r="B355" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C355" s="4" t="s">
+      <c r="B355" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C355" s="52" t="s">
         <v>1313</v>
       </c>
-      <c r="D355" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E355" s="6" t="s">
+      <c r="D355" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E355" s="51" t="s">
         <v>1006</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A356" s="6" t="s">
+    <row r="356" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A356" s="51" t="s">
         <v>892</v>
       </c>
-      <c r="B356" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C356" s="4" t="s">
+      <c r="B356" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C356" s="52" t="s">
         <v>1265</v>
       </c>
-      <c r="D356" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E356" s="6" t="s">
+      <c r="D356" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E356" s="51" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A357" s="6" t="s">
+    <row r="357" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A357" s="51" t="s">
         <v>893</v>
       </c>
-      <c r="B357" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C357" s="4" t="s">
+      <c r="B357" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C357" s="52" t="s">
         <v>1266</v>
       </c>
-      <c r="D357" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E357" s="6" t="s">
+      <c r="D357" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E357" s="51" t="s">
         <v>1008</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A358" s="6" t="s">
+    <row r="358" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A358" s="51" t="s">
         <v>894</v>
       </c>
-      <c r="B358" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C358" s="4" t="s">
+      <c r="B358" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C358" s="52" t="s">
         <v>1314</v>
       </c>
-      <c r="D358" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E358" s="6" t="s">
+      <c r="D358" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E358" s="51" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A359" s="6" t="s">
+    <row r="359" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A359" s="51" t="s">
         <v>895</v>
       </c>
-      <c r="B359" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C359" s="4" t="s">
+      <c r="B359" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C359" s="52" t="s">
         <v>1267</v>
       </c>
-      <c r="D359" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E359" s="6" t="s">
+      <c r="D359" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E359" s="51" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A360" s="6" t="s">
+    <row r="360" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A360" s="51" t="s">
         <v>896</v>
       </c>
-      <c r="B360" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C360" s="4" t="s">
+      <c r="B360" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C360" s="52" t="s">
         <v>1315</v>
       </c>
-      <c r="D360" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E360" s="6" t="s">
+      <c r="D360" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E360" s="51" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A361" s="6" t="s">
+    <row r="361" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="51" t="s">
         <v>897</v>
       </c>
-      <c r="B361" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C361" s="4" t="s">
+      <c r="B361" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C361" s="52" t="s">
         <v>1268</v>
       </c>
-      <c r="D361" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E361" s="6" t="s">
+      <c r="D361" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E361" s="51" t="s">
         <v>1012</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A362" s="6" t="s">
+    <row r="362" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A362" s="51" t="s">
         <v>898</v>
       </c>
-      <c r="B362" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C362" s="4" t="s">
+      <c r="B362" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C362" s="52" t="s">
         <v>1269</v>
       </c>
-      <c r="D362" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E362" s="6" t="s">
+      <c r="D362" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E362" s="51" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A363" s="6" t="s">
+    <row r="363" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A363" s="51" t="s">
         <v>899</v>
       </c>
-      <c r="B363" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C363" s="4" t="s">
+      <c r="B363" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C363" s="52" t="s">
         <v>1270</v>
       </c>
-      <c r="D363" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E363" s="6" t="s">
+      <c r="D363" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E363" s="51" t="s">
         <v>1014</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A364" s="6" t="s">
+    <row r="364" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A364" s="51" t="s">
         <v>900</v>
       </c>
-      <c r="B364" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C364" s="4" t="s">
+      <c r="B364" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C364" s="52" t="s">
         <v>1271</v>
       </c>
-      <c r="D364" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E364" s="6" t="s">
+      <c r="D364" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E364" s="51" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A365" s="6" t="s">
+    <row r="365" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A365" s="51" t="s">
         <v>901</v>
       </c>
-      <c r="B365" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C365" s="4" t="s">
+      <c r="B365" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C365" s="52" t="s">
         <v>1272</v>
       </c>
-      <c r="D365" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E365" s="6" t="s">
+      <c r="D365" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E365" s="51" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A366" s="6" t="s">
+    <row r="366" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A366" s="51" t="s">
         <v>902</v>
       </c>
-      <c r="B366" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C366" s="4" t="s">
+      <c r="B366" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C366" s="52" t="s">
         <v>1273</v>
       </c>
-      <c r="D366" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E366" s="6" t="s">
+      <c r="D366" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E366" s="51" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A367" s="6" t="s">
+    <row r="367" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A367" s="51" t="s">
         <v>903</v>
       </c>
-      <c r="B367" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C367" s="4" t="s">
+      <c r="B367" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C367" s="52" t="s">
         <v>1274</v>
       </c>
-      <c r="D367" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E367" s="6" t="s">
+      <c r="D367" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E367" s="51" t="s">
         <v>1018</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A368" s="6" t="s">
+    <row r="368" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="51" t="s">
         <v>904</v>
       </c>
-      <c r="B368" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C368" s="4" t="s">
+      <c r="B368" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C368" s="52" t="s">
         <v>1275</v>
       </c>
-      <c r="D368" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E368" s="6" t="s">
+      <c r="D368" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E368" s="51" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A369" s="6" t="s">
+    <row r="369" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A369" s="51" t="s">
         <v>905</v>
       </c>
-      <c r="B369" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C369" s="4" t="s">
+      <c r="B369" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C369" s="52" t="s">
         <v>1276</v>
       </c>
-      <c r="D369" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E369" s="6" t="s">
+      <c r="D369" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E369" s="51" t="s">
         <v>1020</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A370" s="6" t="s">
+    <row r="370" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A370" s="51" t="s">
         <v>906</v>
       </c>
-      <c r="B370" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C370" s="4" t="s">
+      <c r="B370" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C370" s="52" t="s">
         <v>1277</v>
       </c>
-      <c r="D370" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E370" s="6" t="s">
+      <c r="D370" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E370" s="51" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A371" s="6" t="s">
+    <row r="371" spans="1:5" s="54" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A371" s="51" t="s">
         <v>907</v>
       </c>
-      <c r="B371" s="4" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C371" s="4" t="s">
+      <c r="B371" s="52" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C371" s="52" t="s">
         <v>1278</v>
       </c>
-      <c r="D371" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="E371" s="6" t="s">
+      <c r="D371" s="53" t="s">
+        <v>792</v>
+      </c>
+      <c r="E371" s="51" t="s">
         <v>1022</v>
       </c>
     </row>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -4535,7 +4535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4708,6 +4708,18 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5059,8 +5071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7724,109 +7736,109 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="5" t="s">
+    <row r="157" spans="1:5" s="65" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A157" s="66" t="s">
         <v>202</v>
       </c>
-      <c r="B157" s="5" t="s">
+      <c r="B157" s="66" t="s">
         <v>989</v>
       </c>
-      <c r="C157" s="5" t="s">
+      <c r="C157" s="66" t="s">
         <v>986</v>
       </c>
-      <c r="D157" s="4" t="s">
+      <c r="D157" s="67" t="s">
         <v>203</v>
       </c>
-      <c r="E157" s="3" t="s">
+      <c r="E157" s="68" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+    <row r="158" spans="1:5" s="65" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A158" s="69" t="s">
         <v>256</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" s="69" t="s">
         <v>989</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="69" t="s">
         <v>976</v>
       </c>
-      <c r="D158" s="2" t="s">
+      <c r="D158" s="69" t="s">
         <v>257</v>
       </c>
-      <c r="E158" s="2" t="s">
+      <c r="E158" s="69" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="116" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
+    <row r="159" spans="1:5" s="65" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="69" t="s">
         <v>271</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" s="69" t="s">
         <v>989</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="69" t="s">
         <v>977</v>
       </c>
-      <c r="D159" s="2" t="s">
+      <c r="D159" s="69" t="s">
         <v>272</v>
       </c>
-      <c r="E159" s="2" t="s">
+      <c r="E159" s="69" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
+    <row r="160" spans="1:5" s="65" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="69" t="s">
         <v>294</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" s="69" t="s">
         <v>989</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="69" t="s">
         <v>978</v>
       </c>
-      <c r="D160" s="2" t="s">
+      <c r="D160" s="69" t="s">
         <v>295</v>
       </c>
-      <c r="E160" s="2" t="s">
+      <c r="E160" s="69" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="161" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="3" t="s">
+    <row r="161" spans="1:5" s="65" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A161" s="68" t="s">
         <v>325</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="68" t="s">
         <v>989</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="68" t="s">
         <v>980</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="E161" s="3" t="s">
+      <c r="E161" s="68" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="162" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="3" t="s">
+    <row r="162" spans="1:5" s="65" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="68" t="s">
         <v>337</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B162" s="68" t="s">
         <v>989</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="68" t="s">
         <v>985</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="68" t="s">
         <v>338</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E162" s="68" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="163" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A163" s="5" t="s">
         <v>89</v>
       </c>
@@ -7858,7 +7870,7 @@
       </c>
       <c r="E164" s="3"/>
     </row>
-    <row r="165" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>355</v>
       </c>
@@ -7909,7 +7921,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A168" s="12" t="s">
         <v>3</v>
       </c>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D155" authorId="0" shapeId="0">
+    <comment ref="D159" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E159" authorId="0" shapeId="0">
+    <comment ref="E163" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E164" authorId="0" shapeId="0">
+    <comment ref="E168" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -287,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D368" authorId="0" shapeId="0">
+    <comment ref="D367" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -311,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E368" authorId="0" shapeId="0">
+    <comment ref="E367" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D373" authorId="0" shapeId="0">
+    <comment ref="D372" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -360,7 +360,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D378" authorId="0" shapeId="0">
+    <comment ref="D377" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D379" authorId="0" shapeId="0">
+    <comment ref="D378" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -413,7 +413,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1920" uniqueCount="1241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1915" uniqueCount="1237">
   <si>
     <t>Input</t>
   </si>
@@ -808,9 +808,6 @@
     <t>What are the types of Indian visas?</t>
   </si>
   <si>
-    <t>Following are the key visa types for investors : Employment visa, Business visa, Project visa, “X”/Entry visa, Tourist visa. Other types are: Research visa, Transit visa, Conference visa, Medical visa.</t>
-  </si>
-  <si>
     <t>What is the duration of employment visa?</t>
   </si>
   <si>
@@ -1169,15 +1166,6 @@
     <t>employment, prs, investment</t>
   </si>
   <si>
-    <t>What are the different types of visa?</t>
-  </si>
-  <si>
-    <t>Employment,Business,Project,Entry and Tourist</t>
-  </si>
-  <si>
-    <t>What,types,visa</t>
-  </si>
-  <si>
     <t>What is an Employment Visa?</t>
   </si>
   <si>
@@ -1787,25 +1775,16 @@
     <t>ROR,Resident &amp; ordinarily Resident</t>
   </si>
   <si>
-    <t>What are the types of taxable income for a Resident and ordinarily resident(ROR) ?</t>
-  </si>
-  <si>
     <t>Indian income and foreign income.</t>
   </si>
   <si>
     <t>types,taxable income, Resident and ordinarily resident,ROR</t>
   </si>
   <si>
-    <t>What are the types of taxable income for a Resident but not ordinarily resident(RNOR)?</t>
-  </si>
-  <si>
     <t>Indian income and foreign income from business controlled in India.                                                        Foreign income from business controlled outside India are not taxable.</t>
   </si>
   <si>
     <t>types,taxable income, Resident but not ordinarily resident,RNOR</t>
-  </si>
-  <si>
-    <t>What are the types of taxable income for a Non resident(NR) ?</t>
   </si>
   <si>
     <t>Indian income is taxable. Foreign income is not taxable.</t>
@@ -3607,9 +3586,6 @@
     <t>online visa</t>
   </si>
   <si>
-    <t>visa</t>
-  </si>
-  <si>
     <t>passport</t>
   </si>
   <si>
@@ -3736,15 +3712,6 @@
     <t>A Resident but ordinarily Resident is a Resident who has been a resident in India in at least 9 out of 10 previous financial years AND has been in India for a period of at least 730 days during the preceding 7 years.</t>
   </si>
   <si>
-    <t>taxable income, income taxable, ror</t>
-  </si>
-  <si>
-    <t>taxable income, income taxable, rnor</t>
-  </si>
-  <si>
-    <t>taxable income, income taxable, nr</t>
-  </si>
-  <si>
     <t>dtaa</t>
   </si>
   <si>
@@ -3754,9 +3721,6 @@
     <t>tds, deduction</t>
   </si>
   <si>
-    <t>taxable income, income taxable</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
@@ -4352,6 +4316,30 @@
   </si>
   <si>
     <t>extent</t>
+  </si>
+  <si>
+    <t>Following are the key visa types: Employment visa, Business visa, Project visa, “X”/Entry visa, Tourist visa. Other types are: Research visa, Transit visa, Conference visa, Medical visa.</t>
+  </si>
+  <si>
+    <t>What are the types of taxable income for a ROR</t>
+  </si>
+  <si>
+    <t>What are the types of taxable income for a RNOR</t>
+  </si>
+  <si>
+    <t>What are the types of taxable income for a NR</t>
+  </si>
+  <si>
+    <t>income</t>
+  </si>
+  <si>
+    <t>income, nr</t>
+  </si>
+  <si>
+    <t>income, rnor</t>
+  </si>
+  <si>
+    <t>income, ror</t>
   </si>
 </sst>
 </file>
@@ -4538,7 +4526,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -4719,11 +4707,17 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5075,10 +5069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E388"/>
+  <dimension ref="A1:E387"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A186" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B195" sqref="B195"/>
+    <sheetView tabSelected="1" topLeftCell="A179" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5095,10 +5089,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -5109,223 +5103,223 @@
     </row>
     <row r="2" spans="1:5" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="20" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>1046</v>
+        <v>1034</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="20" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>1042</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>1054</v>
-      </c>
       <c r="D10" s="20" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="21" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="20" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="21" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="21" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1042</v>
+        <v>1030</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>1059</v>
+        <v>1047</v>
       </c>
       <c r="D14" s="20" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5333,10 +5327,10 @@
         <v>93</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>94</v>
@@ -5350,10 +5344,10 @@
         <v>96</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>94</v>
@@ -5367,10 +5361,10 @@
         <v>97</v>
       </c>
       <c r="B17" s="22" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>94</v>
@@ -5384,10 +5378,10 @@
         <v>98</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D18" s="25" t="s">
         <v>99</v>
@@ -5398,206 +5392,206 @@
     </row>
     <row r="19" spans="1:5" s="24" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A19" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>961</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>976</v>
+      </c>
+      <c r="D19" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="B19" s="22" t="s">
-        <v>968</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>983</v>
-      </c>
-      <c r="D19" s="25" t="s">
+      <c r="E19" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="27" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A20" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="D20" s="26" t="s">
         <v>207</v>
       </c>
-      <c r="B20" s="26" t="s">
-        <v>987</v>
-      </c>
-      <c r="C20" s="26" t="s">
-        <v>983</v>
-      </c>
-      <c r="D20" s="26" t="s">
+      <c r="E20" s="26" t="s">
         <v>208</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>976</v>
+      </c>
+      <c r="D21" s="26" t="s">
         <v>210</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>987</v>
-      </c>
-      <c r="C21" s="26" t="s">
-        <v>983</v>
-      </c>
-      <c r="D21" s="26" t="s">
+      <c r="E21" s="26" t="s">
         <v>211</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>980</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>981</v>
+      </c>
+      <c r="D22" s="26" t="s">
         <v>216</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>987</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>988</v>
-      </c>
-      <c r="D22" s="26" t="s">
+      <c r="E22" s="26" t="s">
         <v>217</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="28" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>980</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>987</v>
+      </c>
+      <c r="D23" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="B23" s="28" t="s">
-        <v>987</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>995</v>
-      </c>
-      <c r="D23" s="29" t="s">
+      <c r="E23" s="29" t="s">
         <v>178</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D24" s="30" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E24" s="30" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="30" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D25" s="30" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E25" s="30" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="30" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D26" s="30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="30" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D27" s="30" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" s="30" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D28" s="30" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="29" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D29" s="29" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E29" s="29" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="27" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A30" s="29" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E30" s="29" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="27" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
@@ -5605,10 +5599,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D31" s="26" t="s">
         <v>27</v>
@@ -5622,10 +5616,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D32" s="26" t="s">
         <v>27</v>
@@ -5639,10 +5633,10 @@
         <v>33</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D33" s="26" t="s">
         <v>27</v>
@@ -5656,10 +5650,10 @@
         <v>86</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D34" s="29" t="s">
         <v>27</v>
@@ -5673,10 +5667,10 @@
         <v>35</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D35" s="26" t="s">
         <v>27</v>
@@ -5690,10 +5684,10 @@
         <v>37</v>
       </c>
       <c r="B36" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C36" s="26" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D36" s="26" t="s">
         <v>27</v>
@@ -5707,10 +5701,10 @@
         <v>39</v>
       </c>
       <c r="B37" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D37" s="26" t="s">
         <v>27</v>
@@ -5724,10 +5718,10 @@
         <v>41</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C38" s="26" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D38" s="26" t="s">
         <v>27</v>
@@ -5741,10 +5735,10 @@
         <v>52</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D39" s="50" t="s">
         <v>53</v>
@@ -5758,10 +5752,10 @@
         <v>55</v>
       </c>
       <c r="B40" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C40" s="28" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D40" s="50" t="s">
         <v>53</v>
@@ -5775,10 +5769,10 @@
         <v>57</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C41" s="28" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D41" s="50" t="s">
         <v>53</v>
@@ -5792,10 +5786,10 @@
         <v>59</v>
       </c>
       <c r="B42" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C42" s="28" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D42" s="50" t="s">
         <v>53</v>
@@ -5809,10 +5803,10 @@
         <v>61</v>
       </c>
       <c r="B43" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D43" s="50" t="s">
         <v>53</v>
@@ -5826,10 +5820,10 @@
         <v>70</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C44" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D44" s="29" t="s">
         <v>71</v>
@@ -5843,10 +5837,10 @@
         <v>73</v>
       </c>
       <c r="B45" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C45" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D45" s="50" t="s">
         <v>71</v>
@@ -5860,10 +5854,10 @@
         <v>74</v>
       </c>
       <c r="B46" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C46" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>71</v>
@@ -5877,10 +5871,10 @@
         <v>76</v>
       </c>
       <c r="B47" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>71</v>
@@ -5894,10 +5888,10 @@
         <v>78</v>
       </c>
       <c r="B48" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D48" s="29" t="s">
         <v>71</v>
@@ -5911,10 +5905,10 @@
         <v>80</v>
       </c>
       <c r="B49" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>71</v>
@@ -5928,10 +5922,10 @@
         <v>82</v>
       </c>
       <c r="B50" s="26" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D50" s="29" t="s">
         <v>71</v>
@@ -5942,206 +5936,206 @@
     </row>
     <row r="51" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="31" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C51" s="31" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D51" s="31" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="E51" s="31" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="31" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="B52" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C52" s="31" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="D52" s="31" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="31" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D53" s="31" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="E53" s="31" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="31" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B54" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C54" s="31" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="D54" s="31" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E54" s="31" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="31" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C55" s="31" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="D55" s="31" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="E55" s="31" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="31" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C56" s="31" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="D56" s="31" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A57" s="31" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="B57" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C57" s="31" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="D57" s="31" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="31" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="B58" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C58" s="31" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="D58" s="31" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="31" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="B59" s="31" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>1043</v>
       </c>
-      <c r="C59" s="31" t="s">
-        <v>1055</v>
-      </c>
       <c r="D59" s="31" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="E59" s="31" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="31" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="B60" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C60" s="31" t="s">
-        <v>1056</v>
+        <v>1044</v>
       </c>
       <c r="D60" s="31" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="E60" s="31" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="31" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B61" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C61" s="31" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="D61" s="31" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" s="31" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="B62" s="31" t="s">
-        <v>1043</v>
+        <v>1031</v>
       </c>
       <c r="C62" s="31" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="D62" s="31" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E62" s="31" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -6149,10 +6143,10 @@
         <v>9</v>
       </c>
       <c r="B63" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C63" s="32" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="D63" s="32" t="s">
         <v>10</v>
@@ -6166,10 +6160,10 @@
         <v>21</v>
       </c>
       <c r="B64" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C64" s="32" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>22</v>
@@ -6183,10 +6177,10 @@
         <v>24</v>
       </c>
       <c r="B65" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C65" s="32" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D65" s="32" t="s">
         <v>22</v>
@@ -6200,10 +6194,10 @@
         <v>43</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C66" s="34" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D66" s="35" t="s">
         <v>22</v>
@@ -6217,10 +6211,10 @@
         <v>26</v>
       </c>
       <c r="B67" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C67" s="32" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D67" s="32" t="s">
         <v>27</v>
@@ -6234,10 +6228,10 @@
         <v>45</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C68" s="34" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D68" s="35" t="s">
         <v>46</v>
@@ -6251,10 +6245,10 @@
         <v>48</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C69" s="34" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D69" s="35" t="s">
         <v>46</v>
@@ -6268,10 +6262,10 @@
         <v>50</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D70" s="35" t="s">
         <v>46</v>
@@ -6285,10 +6279,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C71" s="32" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D71" s="36" t="s">
         <v>64</v>
@@ -6302,10 +6296,10 @@
         <v>66</v>
       </c>
       <c r="B72" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C72" s="32" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D72" s="36" t="s">
         <v>64</v>
@@ -6319,10 +6313,10 @@
         <v>68</v>
       </c>
       <c r="B73" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C73" s="32" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D73" s="36" t="s">
         <v>64</v>
@@ -6336,10 +6330,10 @@
         <v>84</v>
       </c>
       <c r="B74" s="32" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C74" s="32" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D74" s="36" t="s">
         <v>64</v>
@@ -6350,5311 +6344,5294 @@
     </row>
     <row r="75" spans="1:5" s="33" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A75" s="34" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C75" s="34" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D75" s="35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E75" s="35" t="s">
         <v>151</v>
-      </c>
-      <c r="E75" s="35" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>957</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="D76" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B76" s="34" t="s">
-        <v>964</v>
-      </c>
-      <c r="C76" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="D76" s="36" t="s">
+      <c r="E76" s="35" t="s">
         <v>157</v>
-      </c>
-      <c r="E76" s="35" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A77" s="37" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="E77" s="37" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="33" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A78" s="37" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="33" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A79" s="37" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="37" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D80" s="37" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="33" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A81" s="37" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="33" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A82" s="38" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C82" s="38" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E82" s="35" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="33" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="38" t="s">
-        <v>1234</v>
+        <v>1222</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C83" s="38" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E83" s="35" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="38" t="s">
-        <v>1235</v>
+        <v>1223</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C84" s="38" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="D84" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E84" s="35" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="33" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A85" s="38" t="s">
-        <v>1236</v>
+        <v>1224</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C85" s="38" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="E85" s="35" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="38" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C86" s="38" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="D86" s="32" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E86" s="35" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="36" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B87" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C87" s="36" t="s">
-        <v>1060</v>
+        <v>1048</v>
       </c>
       <c r="D87" s="36" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E87" s="36" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="36" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="B88" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C88" s="36" t="s">
-        <v>1061</v>
+        <v>1049</v>
       </c>
       <c r="D88" s="36" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="E88" s="36" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="36" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="B89" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C89" s="36" t="s">
-        <v>1062</v>
+        <v>1050</v>
       </c>
       <c r="D89" s="36" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E89" s="36" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="36" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="B90" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C90" s="36" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="D90" s="36" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E90" s="36" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="36" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="B91" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C91" s="36" t="s">
-        <v>1063</v>
+        <v>1051</v>
       </c>
       <c r="D91" s="36" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="E91" s="36" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="36" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="B92" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C92" s="36" t="s">
-        <v>1064</v>
+        <v>1052</v>
       </c>
       <c r="D92" s="36" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E92" s="36" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="93" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="36" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="B93" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C93" s="36" t="s">
-        <v>1065</v>
+        <v>1053</v>
       </c>
       <c r="D93" s="36" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="E93" s="36" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="94" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="36" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="B94" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C94" s="36" t="s">
-        <v>1066</v>
+        <v>1054</v>
       </c>
       <c r="D94" s="36" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="E94" s="36" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="36" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="B95" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C95" s="36" t="s">
-        <v>1067</v>
+        <v>1055</v>
       </c>
       <c r="D95" s="36" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="E95" s="36" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="36" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="B96" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C96" s="36" t="s">
-        <v>1068</v>
+        <v>1056</v>
       </c>
       <c r="D96" s="36" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="E96" s="36" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="36" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="B97" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C97" s="36" t="s">
-        <v>1069</v>
+        <v>1057</v>
       </c>
       <c r="D97" s="36" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="E97" s="36" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="36" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B98" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C98" s="36" t="s">
-        <v>1070</v>
+        <v>1058</v>
       </c>
       <c r="D98" s="36" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E98" s="36" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="36" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B99" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C99" s="36" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="D99" s="36" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="E99" s="36" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="36" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="B100" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C100" s="36" t="s">
-        <v>1083</v>
+        <v>1071</v>
       </c>
       <c r="D100" s="36" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="E100" s="36" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="36" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B101" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C101" s="36" t="s">
-        <v>1071</v>
+        <v>1059</v>
       </c>
       <c r="D101" s="36" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="E101" s="36" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="36" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B102" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C102" s="36" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="D102" s="36" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="E102" s="36" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="36" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="B103" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C103" s="36" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="D103" s="36" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="E103" s="36" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="36" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="B104" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C104" s="36" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="D104" s="36" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="E104" s="36" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="36" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="B105" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C105" s="36" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="D105" s="36" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="E105" s="36" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="36" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="B106" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C106" s="36" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="D106" s="36" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="E106" s="36" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="36" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="B107" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C107" s="36" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="D107" s="36" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="E107" s="36" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="36" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="B108" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C108" s="36" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="D108" s="36" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="E108" s="36" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
     </row>
     <row r="109" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="36" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="B109" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C109" s="36" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D109" s="36" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E109" s="36" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
     </row>
     <row r="110" spans="1:5" s="41" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="36" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B110" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C110" s="36" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="D110" s="36" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E110" s="36" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="36" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="B111" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C111" s="36" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="D111" s="36" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="E111" s="36" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="36" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B112" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C112" s="36" t="s">
-        <v>1078</v>
+        <v>1066</v>
       </c>
       <c r="D112" s="36" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="E112" s="36" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="36" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="B113" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C113" s="36" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="D113" s="36" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="E113" s="36" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
     </row>
     <row r="114" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="36" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="B114" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C114" s="36" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="D114" s="36" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="E114" s="36" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="36" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B115" s="36" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="C115" s="36" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="D115" s="36" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="E115" s="36" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="B116" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C116" s="39" t="s">
+        <v>966</v>
+      </c>
+      <c r="D116" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="B116" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C116" s="39" t="s">
-        <v>973</v>
-      </c>
-      <c r="D116" s="40" t="s">
+      <c r="E116" s="40" t="s">
         <v>122</v>
-      </c>
-      <c r="E116" s="40" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="B117" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C117" s="39" t="s">
+        <v>967</v>
+      </c>
+      <c r="D117" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="B117" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C117" s="39" t="s">
-        <v>974</v>
-      </c>
-      <c r="D117" s="40" t="s">
+      <c r="E117" s="40" t="s">
         <v>125</v>
-      </c>
-      <c r="E117" s="40" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B118" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>968</v>
+      </c>
+      <c r="D118" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="B118" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C118" s="39" t="s">
-        <v>975</v>
-      </c>
-      <c r="D118" s="40" t="s">
+      <c r="E118" s="40" t="s">
         <v>128</v>
-      </c>
-      <c r="E118" s="40" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="B119" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C119" s="39" t="s">
+        <v>969</v>
+      </c>
+      <c r="D119" s="40" t="s">
         <v>130</v>
       </c>
-      <c r="B119" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C119" s="39" t="s">
-        <v>976</v>
-      </c>
-      <c r="D119" s="40" t="s">
+      <c r="E119" s="40" t="s">
         <v>131</v>
-      </c>
-      <c r="E119" s="40" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="B120" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C120" s="39" t="s">
+        <v>970</v>
+      </c>
+      <c r="D120" s="40" t="s">
         <v>133</v>
       </c>
-      <c r="B120" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C120" s="39" t="s">
-        <v>977</v>
-      </c>
-      <c r="D120" s="40" t="s">
+      <c r="E120" s="40" t="s">
         <v>134</v>
-      </c>
-      <c r="E120" s="40" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B121" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C121" s="39" t="s">
+        <v>975</v>
+      </c>
+      <c r="D121" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="B121" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C121" s="39" t="s">
-        <v>982</v>
-      </c>
-      <c r="D121" s="40" t="s">
+      <c r="E121" s="40" t="s">
         <v>137</v>
-      </c>
-      <c r="E121" s="40" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C122" s="39" t="s">
+        <v>971</v>
+      </c>
+      <c r="D122" s="40" t="s">
         <v>139</v>
       </c>
-      <c r="B122" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C122" s="39" t="s">
-        <v>978</v>
-      </c>
-      <c r="D122" s="40" t="s">
+      <c r="E122" s="40" t="s">
         <v>140</v>
-      </c>
-      <c r="E122" s="40" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="B123" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C123" s="39" t="s">
+        <v>972</v>
+      </c>
+      <c r="D123" s="40" t="s">
         <v>142</v>
       </c>
-      <c r="B123" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C123" s="39" t="s">
-        <v>979</v>
-      </c>
-      <c r="D123" s="40" t="s">
+      <c r="E123" s="40" t="s">
         <v>143</v>
-      </c>
-      <c r="E123" s="40" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B124" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C124" s="39" t="s">
+        <v>973</v>
+      </c>
+      <c r="D124" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="B124" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C124" s="39" t="s">
-        <v>980</v>
-      </c>
-      <c r="D124" s="40" t="s">
+      <c r="E124" s="40" t="s">
         <v>146</v>
-      </c>
-      <c r="E124" s="40" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B125" s="39" t="s">
+        <v>977</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>974</v>
+      </c>
+      <c r="D125" s="40" t="s">
         <v>148</v>
       </c>
-      <c r="B125" s="39" t="s">
-        <v>984</v>
-      </c>
-      <c r="C125" s="39" t="s">
-        <v>981</v>
-      </c>
-      <c r="D125" s="40" t="s">
+      <c r="E125" s="40" t="s">
         <v>149</v>
-      </c>
-      <c r="E125" s="40" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A126" s="43" t="s">
+        <v>212</v>
+      </c>
+      <c r="B126" s="43" t="s">
+        <v>977</v>
+      </c>
+      <c r="C126" s="43" t="s">
+        <v>976</v>
+      </c>
+      <c r="D126" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="B126" s="43" t="s">
-        <v>984</v>
-      </c>
-      <c r="C126" s="43" t="s">
-        <v>983</v>
-      </c>
-      <c r="D126" s="43" t="s">
+      <c r="E126" s="43" t="s">
         <v>214</v>
-      </c>
-      <c r="E126" s="43" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="42" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B127" s="42" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C127" s="42" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="D127" s="42" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E127" s="42" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A128" s="42" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B128" s="42" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C128" s="42" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="D128" s="42" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E128" s="42" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A129" s="42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C129" s="42" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="D129" s="42" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E129" s="42" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A130" s="40" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C130" s="40" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="D130" s="40" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E130" s="40" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A131" s="40" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B131" s="40" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="C131" s="40" t="s">
-        <v>982</v>
+        <v>975</v>
       </c>
       <c r="D131" s="40" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E131" s="40" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="132" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A132" s="49" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B132" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C132" s="49" t="s">
-        <v>1047</v>
+        <v>1035</v>
       </c>
       <c r="D132" s="51" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E132" s="49" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="133" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A133" s="49" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B133" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C133" s="49" t="s">
-        <v>1050</v>
+        <v>1038</v>
       </c>
       <c r="D133" s="51" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E133" s="49" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="134" spans="1:5" s="48" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A134" s="49" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="B134" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C134" s="49" t="s">
-        <v>1048</v>
+        <v>1036</v>
       </c>
       <c r="D134" s="49" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="E134" s="49" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
     </row>
     <row r="135" spans="1:5" s="48" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A135" s="49" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B135" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C135" s="49" t="s">
-        <v>1049</v>
+        <v>1037</v>
       </c>
       <c r="D135" s="49" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="E135" s="49" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="49" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="B136" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C136" s="49" t="s">
-        <v>1051</v>
+        <v>1039</v>
       </c>
       <c r="D136" s="51" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E136" s="49" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="49" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B137" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C137" s="49" t="s">
-        <v>1052</v>
+        <v>1040</v>
       </c>
       <c r="D137" s="51" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E137" s="49" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="49" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="B138" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C138" s="49" t="s">
-        <v>1053</v>
+        <v>1041</v>
       </c>
       <c r="D138" s="51" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="E138" s="49" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="49" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B139" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C139" s="49" t="s">
-        <v>1054</v>
+        <v>1042</v>
       </c>
       <c r="D139" s="51" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E139" s="49" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="49" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="B140" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C140" s="49" t="s">
-        <v>1055</v>
+        <v>1043</v>
       </c>
       <c r="D140" s="51" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E140" s="49" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="49" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B141" s="49" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C141" s="49" t="s">
         <v>1044</v>
       </c>
-      <c r="C141" s="49" t="s">
-        <v>1056</v>
-      </c>
       <c r="D141" s="49" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="E141" s="49" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="142" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="49" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="B142" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C142" s="49" t="s">
-        <v>1057</v>
+        <v>1045</v>
       </c>
       <c r="D142" s="49" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E142" s="49" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
     </row>
     <row r="143" spans="1:5" s="48" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="49" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>1044</v>
+        <v>1032</v>
       </c>
       <c r="C143" s="49" t="s">
-        <v>1058</v>
+        <v>1046</v>
       </c>
       <c r="D143" s="51" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="E143" s="49" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" s="52" customFormat="1" ht="203" x14ac:dyDescent="0.35">
-      <c r="A144" s="54" t="s">
-        <v>183</v>
-      </c>
-      <c r="B144" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C144" s="54" t="s">
-        <v>1237</v>
-      </c>
-      <c r="D144" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="E144" s="53" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="52" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A145" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="B145" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C145" s="54" t="s">
-        <v>998</v>
-      </c>
-      <c r="D145" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="E145" s="53" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="52" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A146" s="54" t="s">
-        <v>189</v>
-      </c>
-      <c r="B146" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C146" s="54" t="s">
-        <v>999</v>
-      </c>
-      <c r="D146" s="55" t="s">
-        <v>190</v>
-      </c>
-      <c r="E146" s="53" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="52" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A147" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="B147" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C147" s="54" t="s">
-        <v>1000</v>
-      </c>
-      <c r="D147" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="E147" s="53" t="s">
-        <v>194</v>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A144" s="72" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B144" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C144" s="72" t="s">
+        <v>952</v>
+      </c>
+      <c r="D144" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E144" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A145" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C145" s="72" t="s">
+        <v>953</v>
+      </c>
+      <c r="D145" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E145" s="72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A146" s="72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C146" s="72" t="s">
+        <v>954</v>
+      </c>
+      <c r="D146" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E146" s="72" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A147" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B147" s="72" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C147" s="72" t="s">
+        <v>952</v>
+      </c>
+      <c r="D147" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E147" s="72" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="148" spans="1:5" s="52" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A148" s="54" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B148" s="54" t="s">
-        <v>1238</v>
+        <v>1226</v>
       </c>
       <c r="C148" s="54" t="s">
-        <v>1001</v>
+        <v>1225</v>
       </c>
       <c r="D148" s="55" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="E148" s="53" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="149" spans="1:5" s="52" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A149" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="B149" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C149" s="54" t="s">
+        <v>990</v>
+      </c>
+      <c r="D149" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E149" s="53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="59" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A150" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="B150" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C150" s="54" t="s">
+        <v>991</v>
+      </c>
+      <c r="D150" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E150" s="53" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="59" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A151" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B151" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C151" s="54" t="s">
+        <v>992</v>
+      </c>
+      <c r="D151" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="E151" s="53" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="59" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="B152" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C152" s="54" t="s">
+        <v>993</v>
+      </c>
+      <c r="D152" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="E152" s="53" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="59" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A153" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="B153" s="54" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C153" s="54" t="s">
+        <v>993</v>
+      </c>
+      <c r="D153" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B149" s="54" t="s">
-        <v>1238</v>
-      </c>
-      <c r="C149" s="54" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D149" s="55" t="s">
+      <c r="E153" s="53" t="s">
         <v>199</v>
-      </c>
-      <c r="E149" s="53" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="59" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A150" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="B150" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C150" s="56" t="s">
-        <v>990</v>
-      </c>
-      <c r="D150" s="57" t="s">
-        <v>166</v>
-      </c>
-      <c r="E150" s="58" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="59" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="56" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C151" s="56" t="s">
-        <v>990</v>
-      </c>
-      <c r="D151" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="E151" s="58" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="59" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A152" s="56" t="s">
-        <v>162</v>
-      </c>
-      <c r="B152" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C152" s="56" t="s">
-        <v>991</v>
-      </c>
-      <c r="D152" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="E152" s="58" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="59" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A153" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="B153" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C153" s="56" t="s">
-        <v>993</v>
-      </c>
-      <c r="D153" s="57" t="s">
-        <v>169</v>
-      </c>
-      <c r="E153" s="58" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="154" spans="1:5" s="59" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A154" s="56" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B154" s="56" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="C154" s="56" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="D154" s="57" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E154" s="58" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:5" s="59" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="60" t="s">
-        <v>412</v>
-      </c>
-      <c r="B155" s="60" t="s">
-        <v>989</v>
-      </c>
-      <c r="C155" s="60" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D155" s="61" t="s">
-        <v>413</v>
+      <c r="A155" s="56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B155" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C155" s="56" t="s">
+        <v>983</v>
+      </c>
+      <c r="D155" s="57" t="s">
+        <v>153</v>
       </c>
       <c r="E155" s="58" t="s">
-        <v>414</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A156" s="56" t="s">
+        <v>161</v>
+      </c>
+      <c r="B156" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C156" s="56" t="s">
+        <v>984</v>
+      </c>
+      <c r="D156" s="57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E156" s="58" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="59" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="56" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C157" s="56" t="s">
+        <v>985</v>
+      </c>
+      <c r="D157" s="57" t="s">
+        <v>168</v>
+      </c>
+      <c r="E157" s="58" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="56" t="s">
+        <v>170</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C158" s="56" t="s">
+        <v>986</v>
+      </c>
+      <c r="D158" s="57" t="s">
+        <v>171</v>
+      </c>
+      <c r="E158" s="58" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A159" s="60" t="s">
+        <v>405</v>
+      </c>
+      <c r="B159" s="60" t="s">
+        <v>982</v>
+      </c>
+      <c r="C159" s="60" t="s">
+        <v>1028</v>
+      </c>
+      <c r="D159" s="61" t="s">
+        <v>406</v>
+      </c>
+      <c r="E159" s="58" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="63" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A160" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="B156" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C156" s="56" t="s">
+      <c r="B160" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C160" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="D160" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="E160" s="58" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="63" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A161" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B161" s="56" t="s">
+        <v>982</v>
+      </c>
+      <c r="C161" s="56" t="s">
+        <v>960</v>
+      </c>
+      <c r="D161" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="E161" s="58"/>
+    </row>
+    <row r="162" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="62" t="s">
+        <v>19</v>
+      </c>
+      <c r="B162" s="62" t="s">
+        <v>979</v>
+      </c>
+      <c r="C162" s="62" t="s">
+        <v>955</v>
+      </c>
+      <c r="D162" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="E162" s="62" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A163" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="B163" s="64" t="s">
+        <v>979</v>
+      </c>
+      <c r="C163" s="64" t="s">
+        <v>976</v>
+      </c>
+      <c r="D163" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="E163" s="66" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A164" s="67" t="s">
+        <v>251</v>
+      </c>
+      <c r="B164" s="67" t="s">
+        <v>979</v>
+      </c>
+      <c r="C164" s="67" t="s">
+        <v>966</v>
+      </c>
+      <c r="D164" s="67" t="s">
+        <v>252</v>
+      </c>
+      <c r="E164" s="67" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="67" t="s">
+        <v>266</v>
+      </c>
+      <c r="B165" s="67" t="s">
+        <v>979</v>
+      </c>
+      <c r="C165" s="67" t="s">
         <v>967</v>
       </c>
-      <c r="D156" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="E156" s="58" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="59" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A157" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="B157" s="56" t="s">
-        <v>989</v>
-      </c>
-      <c r="C157" s="56" t="s">
-        <v>967</v>
-      </c>
-      <c r="D157" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="E157" s="58"/>
-    </row>
-    <row r="158" spans="1:5" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A158" s="62" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="62" t="s">
-        <v>986</v>
-      </c>
-      <c r="C158" s="62" t="s">
-        <v>962</v>
-      </c>
-      <c r="D158" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="E158" s="62" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A159" s="64" t="s">
-        <v>201</v>
-      </c>
-      <c r="B159" s="64" t="s">
-        <v>986</v>
-      </c>
-      <c r="C159" s="64" t="s">
-        <v>983</v>
-      </c>
-      <c r="D159" s="65" t="s">
-        <v>202</v>
-      </c>
-      <c r="E159" s="66" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="63" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A160" s="67" t="s">
-        <v>255</v>
-      </c>
-      <c r="B160" s="67" t="s">
-        <v>986</v>
-      </c>
-      <c r="C160" s="67" t="s">
-        <v>973</v>
-      </c>
-      <c r="D160" s="67" t="s">
-        <v>256</v>
-      </c>
-      <c r="E160" s="67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="63" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A161" s="67" t="s">
-        <v>270</v>
-      </c>
-      <c r="B161" s="67" t="s">
-        <v>986</v>
-      </c>
-      <c r="C161" s="67" t="s">
-        <v>974</v>
-      </c>
-      <c r="D161" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E161" s="67" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A162" s="67" t="s">
-        <v>293</v>
-      </c>
-      <c r="B162" s="67" t="s">
-        <v>986</v>
-      </c>
-      <c r="C162" s="67" t="s">
+      <c r="D165" s="67" t="s">
+        <v>267</v>
+      </c>
+      <c r="E165" s="67" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A166" s="67" t="s">
+        <v>289</v>
+      </c>
+      <c r="B166" s="67" t="s">
+        <v>979</v>
+      </c>
+      <c r="C166" s="67" t="s">
+        <v>968</v>
+      </c>
+      <c r="D166" s="67" t="s">
+        <v>290</v>
+      </c>
+      <c r="E166" s="67" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="68" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A167" s="66" t="s">
+        <v>320</v>
+      </c>
+      <c r="B167" s="66" t="s">
+        <v>979</v>
+      </c>
+      <c r="C167" s="66" t="s">
+        <v>970</v>
+      </c>
+      <c r="D167" s="66" t="s">
+        <v>321</v>
+      </c>
+      <c r="E167" s="66" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="68" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A168" s="66" t="s">
+        <v>332</v>
+      </c>
+      <c r="B168" s="66" t="s">
+        <v>979</v>
+      </c>
+      <c r="C168" s="66" t="s">
         <v>975</v>
       </c>
-      <c r="D162" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="E162" s="67" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="63" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A163" s="66" t="s">
-        <v>324</v>
-      </c>
-      <c r="B163" s="66" t="s">
-        <v>986</v>
-      </c>
-      <c r="C163" s="66" t="s">
-        <v>977</v>
-      </c>
-      <c r="D163" s="66" t="s">
-        <v>325</v>
-      </c>
-      <c r="E163" s="66" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="63" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A164" s="66" t="s">
-        <v>336</v>
-      </c>
-      <c r="B164" s="66" t="s">
-        <v>986</v>
-      </c>
-      <c r="C164" s="66" t="s">
-        <v>982</v>
-      </c>
-      <c r="D164" s="66" t="s">
-        <v>337</v>
-      </c>
-      <c r="E164" s="66" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="70" t="s">
+      <c r="D168" s="66" t="s">
+        <v>333</v>
+      </c>
+      <c r="E168" s="66" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="68" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B165" s="70" t="s">
-        <v>963</v>
-      </c>
-      <c r="C165" s="70" t="s">
-        <v>959</v>
-      </c>
-      <c r="D165" s="70" t="s">
+      <c r="B169" s="69" t="s">
+        <v>956</v>
+      </c>
+      <c r="C169" s="69" t="s">
+        <v>952</v>
+      </c>
+      <c r="D169" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E165" s="70" t="s">
+      <c r="E169" s="69" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="166" spans="1:5" s="24" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="70" t="s">
+    <row r="170" spans="1:5" s="68" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A170" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="B166" s="70" t="s">
-        <v>963</v>
-      </c>
-      <c r="C166" s="70" t="s">
-        <v>961</v>
-      </c>
-      <c r="D166" s="70" t="s">
+      <c r="B170" s="69" t="s">
+        <v>956</v>
+      </c>
+      <c r="C170" s="69" t="s">
+        <v>954</v>
+      </c>
+      <c r="D170" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="E166" s="70" t="s">
+      <c r="E170" s="69" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="68" t="s">
-        <v>1239</v>
-      </c>
-      <c r="B167" s="68" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C167" s="68" t="s">
-        <v>959</v>
-      </c>
-      <c r="D167" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E167" s="68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A168" s="68" t="s">
-        <v>5</v>
-      </c>
-      <c r="B168" s="68" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C168" s="68" t="s">
-        <v>960</v>
-      </c>
-      <c r="D168" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A169" s="68" t="s">
-        <v>7</v>
-      </c>
-      <c r="B169" s="68" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C169" s="68" t="s">
-        <v>961</v>
-      </c>
-      <c r="D169" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="68" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" s="69" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A170" s="68" t="s">
-        <v>17</v>
-      </c>
-      <c r="B170" s="68" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C170" s="68" t="s">
-        <v>959</v>
-      </c>
-      <c r="D170" s="68" t="s">
-        <v>3</v>
-      </c>
-      <c r="E170" s="68" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="171" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A171" s="17" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B171" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C171" s="17" t="s">
         <v>997</v>
       </c>
-      <c r="C171" s="17" t="s">
-        <v>1005</v>
-      </c>
       <c r="D171" s="16" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
       <c r="E171" s="16" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="172" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A172" s="17" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="B172" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="D172" s="18" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E172" s="16" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="173" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B173" s="13" t="s">
+        <v>989</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>978</v>
+      </c>
+      <c r="D173" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="B173" s="13" t="s">
-        <v>997</v>
-      </c>
-      <c r="C173" s="13" t="s">
-        <v>985</v>
-      </c>
-      <c r="D173" s="14" t="s">
+      <c r="E173" s="14" t="s">
         <v>160</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C174" s="13"/>
       <c r="D174" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E174" s="14" t="s">
         <v>181</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="175" spans="1:5" s="15" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A175" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B175" s="16" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C175" s="16"/>
       <c r="D175" s="16" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="E175" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="176" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="14" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B176" s="14" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C176" s="14"/>
       <c r="D176" s="14" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E176" s="14" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="177" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="17" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C177" s="17"/>
       <c r="D177" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E177" s="16" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="178" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A178" s="17" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C178" s="17"/>
       <c r="D178" s="16" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E178" s="14" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="17" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="B179" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C179" s="17"/>
       <c r="D179" s="16" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E179" s="14" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="180" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A180" s="17" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B180" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C180" s="17"/>
       <c r="D180" s="16" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E180" s="14" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="17" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="B181" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C181" s="17"/>
       <c r="D181" s="16" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E181" s="14" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="17" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B182" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C182" s="17"/>
       <c r="D182" s="16" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E182" s="14" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A183" s="17" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B183" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C183" s="17"/>
       <c r="D183" s="18" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E183" s="16" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A184" s="17" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="B184" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C184" s="17"/>
       <c r="D184" s="18" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E184" s="16" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A185" s="17" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="B185" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C185" s="17"/>
       <c r="D185" s="16" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E185" s="16" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A186" s="17" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B186" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C186" s="17"/>
       <c r="D186" s="16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E186" s="16" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A187" s="17" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B187" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C187" s="17"/>
       <c r="D187" s="16" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E187" s="16" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A188" s="19" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="B188" s="19" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C188" s="19"/>
       <c r="D188" s="18" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E188" s="18" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="19" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="B189" s="19" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C189" s="19"/>
       <c r="D189" s="16" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E189" s="18" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="17" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C190" s="17"/>
       <c r="D190" s="16" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E190" s="16" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="15" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A191" s="19" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="B191" s="19" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
       <c r="C191" s="19"/>
       <c r="D191" s="18" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E191" s="18" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A192" s="22" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" s="15" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A192" s="17" t="s">
+        <v>355</v>
+      </c>
+      <c r="B192" s="17" t="s">
+        <v>989</v>
+      </c>
+      <c r="C192" s="17" t="s">
+        <v>997</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A193" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="B192" s="22" t="s">
-        <v>971</v>
-      </c>
-      <c r="C192" s="22" t="s">
-        <v>972</v>
-      </c>
-      <c r="D192" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="E192" s="23"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A193" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E193" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A194" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D194" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E194" s="2" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A195" s="6" t="s">
+      <c r="B193" s="22" t="s">
+        <v>964</v>
+      </c>
+      <c r="C193" s="22" t="s">
+        <v>965</v>
+      </c>
+      <c r="D193" s="23" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E193" s="23"/>
+    </row>
+    <row r="194" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A194" s="70" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B194" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="C194" s="70" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D194" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="E194" s="23" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" s="24" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A195" s="70" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B195" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="C195" s="70" t="s">
+        <v>1235</v>
+      </c>
+      <c r="D195" s="71" t="s">
+        <v>392</v>
+      </c>
+      <c r="E195" s="71" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A196" s="70" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B196" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="C196" s="70" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D196" s="71" t="s">
         <v>394</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D195" s="2" t="s">
+      <c r="E196" s="71" t="s">
         <v>395</v>
       </c>
-      <c r="E195" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A196" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C196" s="6" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D196" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E196" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A197" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C197" s="6" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D197" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="E197" s="2" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A198" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>971</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="E198" s="2" t="s">
-        <v>435</v>
+    </row>
+    <row r="197" spans="1:5" s="24" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A197" s="70" t="s">
+        <v>426</v>
+      </c>
+      <c r="B197" s="70" t="s">
+        <v>964</v>
+      </c>
+      <c r="C197" s="70" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D197" s="69" t="s">
+        <v>427</v>
+      </c>
+      <c r="E197" s="71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A198" s="44" t="s">
+        <v>449</v>
+      </c>
+      <c r="B198" s="45" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C198" s="45" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D198" s="46" t="s">
+        <v>719</v>
+      </c>
+      <c r="E198" s="44" t="s">
+        <v>450</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="44" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B199" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C199" s="45" t="s">
-        <v>1082</v>
+        <v>1072</v>
       </c>
       <c r="D199" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E199" s="44" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="44" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B200" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C200" s="45" t="s">
-        <v>1084</v>
+        <v>1073</v>
       </c>
       <c r="D200" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E200" s="44" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="44" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B201" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C201" s="45" t="s">
-        <v>1085</v>
+        <v>1074</v>
       </c>
       <c r="D201" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E201" s="44" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="44" t="s">
-        <v>462</v>
+        <v>720</v>
       </c>
       <c r="B202" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C202" s="45" t="s">
-        <v>1086</v>
+        <v>1075</v>
       </c>
       <c r="D202" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E202" s="44" t="s">
-        <v>463</v>
+        <v>835</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="44" t="s">
-        <v>727</v>
+        <v>457</v>
       </c>
       <c r="B203" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C203" s="45" t="s">
-        <v>1087</v>
+        <v>1076</v>
       </c>
       <c r="D203" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E203" s="44" t="s">
-        <v>842</v>
+        <v>458</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="44" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B204" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C204" s="45" t="s">
-        <v>1088</v>
+        <v>1077</v>
       </c>
       <c r="D204" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E204" s="44" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="44" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B205" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C205" s="45" t="s">
-        <v>1089</v>
+        <v>1078</v>
       </c>
       <c r="D205" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E205" s="44" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="44" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B206" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C206" s="45" t="s">
-        <v>1090</v>
+        <v>1079</v>
       </c>
       <c r="D206" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E206" s="44" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="44" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B207" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C207" s="45" t="s">
-        <v>1091</v>
+        <v>1080</v>
       </c>
       <c r="D207" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E207" s="44" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="44" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B208" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C208" s="45" t="s">
-        <v>1092</v>
+        <v>1184</v>
       </c>
       <c r="D208" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E208" s="44" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="44" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="B209" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C209" s="45" t="s">
-        <v>1196</v>
+        <v>1081</v>
       </c>
       <c r="D209" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E209" s="44" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="44" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B210" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C210" s="45" t="s">
-        <v>1093</v>
+        <v>1082</v>
       </c>
       <c r="D210" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E210" s="44" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="44" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="B211" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C211" s="45" t="s">
-        <v>1094</v>
+        <v>1083</v>
       </c>
       <c r="D211" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E211" s="44" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="44" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="B212" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C212" s="45" t="s">
-        <v>1095</v>
+        <v>1084</v>
       </c>
       <c r="D212" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E212" s="44" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="44" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B213" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C213" s="45" t="s">
-        <v>1096</v>
+        <v>1185</v>
       </c>
       <c r="D213" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E213" s="44" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="44" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B214" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C214" s="45" t="s">
-        <v>1197</v>
+        <v>1085</v>
       </c>
       <c r="D214" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E214" s="44" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="44" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B215" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C215" s="45" t="s">
-        <v>1097</v>
+        <v>1086</v>
       </c>
       <c r="D215" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E215" s="44" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="44" t="s">
-        <v>488</v>
+        <v>721</v>
       </c>
       <c r="B216" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C216" s="45" t="s">
-        <v>1098</v>
+        <v>1186</v>
       </c>
       <c r="D216" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E216" s="44" t="s">
-        <v>489</v>
+        <v>836</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="44" t="s">
-        <v>728</v>
+        <v>483</v>
       </c>
       <c r="B217" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C217" s="45" t="s">
-        <v>1198</v>
+        <v>1087</v>
       </c>
       <c r="D217" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E217" s="44" t="s">
-        <v>843</v>
+        <v>484</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="44" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B218" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C218" s="45" t="s">
-        <v>1099</v>
+        <v>1088</v>
       </c>
       <c r="D218" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E218" s="44" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="44" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="B219" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C219" s="45" t="s">
-        <v>1100</v>
+        <v>1089</v>
       </c>
       <c r="D219" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E219" s="44" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="44" t="s">
-        <v>494</v>
+        <v>722</v>
       </c>
       <c r="B220" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C220" s="45" t="s">
-        <v>1101</v>
+        <v>1187</v>
       </c>
       <c r="D220" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E220" s="44" t="s">
-        <v>495</v>
+        <v>837</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="44" t="s">
-        <v>729</v>
+        <v>489</v>
       </c>
       <c r="B221" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C221" s="45" t="s">
-        <v>1199</v>
+        <v>1090</v>
       </c>
       <c r="D221" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E221" s="44" t="s">
-        <v>844</v>
+        <v>490</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="44" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B222" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C222" s="45" t="s">
-        <v>1102</v>
+        <v>1091</v>
       </c>
       <c r="D222" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E222" s="44" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="44" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B223" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C223" s="45" t="s">
-        <v>1103</v>
+        <v>1092</v>
       </c>
       <c r="D223" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E223" s="44" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="44" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B224" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C224" s="45" t="s">
-        <v>1104</v>
+        <v>1188</v>
       </c>
       <c r="D224" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E224" s="44" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="44" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B225" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C225" s="45" t="s">
-        <v>1200</v>
+        <v>1189</v>
       </c>
       <c r="D225" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E225" s="44" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="44" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B226" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C226" s="45" t="s">
-        <v>1201</v>
+        <v>1093</v>
       </c>
       <c r="D226" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E226" s="44" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="44" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B227" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C227" s="45" t="s">
-        <v>1105</v>
+        <v>1094</v>
       </c>
       <c r="D227" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E227" s="44" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="44" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B228" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C228" s="45" t="s">
-        <v>1106</v>
+        <v>1095</v>
       </c>
       <c r="D228" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E228" s="44" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="44" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B229" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C229" s="45" t="s">
-        <v>1107</v>
+        <v>1096</v>
       </c>
       <c r="D229" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E229" s="44" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="44" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B230" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C230" s="45" t="s">
-        <v>1108</v>
+        <v>1097</v>
       </c>
       <c r="D230" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E230" s="44" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="44" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B231" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C231" s="45" t="s">
-        <v>1109</v>
+        <v>1098</v>
       </c>
       <c r="D231" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E231" s="44" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="44" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B232" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C232" s="45" t="s">
-        <v>1110</v>
+        <v>1190</v>
       </c>
       <c r="D232" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E232" s="44" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="44" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="B233" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C233" s="45" t="s">
-        <v>1202</v>
+        <v>988</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E233" s="44" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="44" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="B234" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C234" s="45" t="s">
-        <v>996</v>
+        <v>1191</v>
       </c>
       <c r="D234" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E234" s="44" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="44" t="s">
-        <v>522</v>
+        <v>723</v>
       </c>
       <c r="B235" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C235" s="45" t="s">
-        <v>1203</v>
+        <v>1192</v>
       </c>
       <c r="D235" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E235" s="44" t="s">
-        <v>523</v>
+        <v>838</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="44" t="s">
-        <v>730</v>
+        <v>517</v>
       </c>
       <c r="B236" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C236" s="45" t="s">
-        <v>1204</v>
+        <v>1099</v>
       </c>
       <c r="D236" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E236" s="44" t="s">
-        <v>845</v>
+        <v>518</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="44" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="B237" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C237" s="45" t="s">
-        <v>1111</v>
+        <v>1100</v>
       </c>
       <c r="D237" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E237" s="44" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="44" t="s">
-        <v>526</v>
+        <v>724</v>
       </c>
       <c r="B238" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C238" s="45" t="s">
-        <v>1112</v>
+        <v>1193</v>
       </c>
       <c r="D238" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E238" s="44" t="s">
-        <v>527</v>
+        <v>839</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="44" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B239" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C239" s="45" t="s">
-        <v>1205</v>
+        <v>1194</v>
       </c>
       <c r="D239" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E239" s="44" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="44" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B240" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C240" s="45" t="s">
-        <v>1206</v>
+        <v>1101</v>
       </c>
       <c r="D240" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E240" s="44" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="44" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="B241" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C241" s="45" t="s">
-        <v>1113</v>
+        <v>1102</v>
       </c>
       <c r="D241" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E241" s="44" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="44" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B242" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C242" s="45" t="s">
-        <v>1114</v>
+        <v>1103</v>
       </c>
       <c r="D242" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E242" s="44" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="44" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B243" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C243" s="45" t="s">
-        <v>1115</v>
+        <v>1195</v>
       </c>
       <c r="D243" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E243" s="44" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="44" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B244" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C244" s="45" t="s">
-        <v>1207</v>
+        <v>1104</v>
       </c>
       <c r="D244" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E244" s="44" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="44" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B245" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C245" s="45" t="s">
-        <v>1116</v>
+        <v>1105</v>
       </c>
       <c r="D245" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E245" s="44" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="44" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B246" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C246" s="45" t="s">
-        <v>1117</v>
+        <v>1106</v>
       </c>
       <c r="D246" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E246" s="44" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="44" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="B247" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C247" s="45" t="s">
-        <v>1118</v>
+        <v>1196</v>
       </c>
       <c r="D247" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E247" s="44" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="44" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B248" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C248" s="45" t="s">
-        <v>1208</v>
+        <v>1197</v>
       </c>
       <c r="D248" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E248" s="44" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="44" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
       <c r="B249" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C249" s="45" t="s">
-        <v>1209</v>
+        <v>1107</v>
       </c>
       <c r="D249" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E249" s="44" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="44" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B250" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C250" s="45" t="s">
-        <v>1119</v>
+        <v>1108</v>
       </c>
       <c r="D250" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E250" s="44" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="44" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
       <c r="B251" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C251" s="45" t="s">
-        <v>1120</v>
+        <v>1198</v>
       </c>
       <c r="D251" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E251" s="44" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="44" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
       <c r="B252" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C252" s="45" t="s">
-        <v>1210</v>
+        <v>1109</v>
       </c>
       <c r="D252" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E252" s="44" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="44" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
       <c r="B253" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C253" s="45" t="s">
-        <v>1121</v>
+        <v>1110</v>
       </c>
       <c r="D253" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E253" s="44" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="44" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
       <c r="B254" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C254" s="45" t="s">
-        <v>1122</v>
+        <v>1111</v>
       </c>
       <c r="D254" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E254" s="44" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="44" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B255" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C255" s="45" t="s">
-        <v>1123</v>
+        <v>1112</v>
       </c>
       <c r="D255" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E255" s="44" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="44" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="B256" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C256" s="45" t="s">
-        <v>1124</v>
+        <v>1199</v>
       </c>
       <c r="D256" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E256" s="44" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="44" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B257" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C257" s="45" t="s">
-        <v>1211</v>
+        <v>1113</v>
       </c>
       <c r="D257" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E257" s="44" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="44" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="B258" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C258" s="45" t="s">
-        <v>1125</v>
+        <v>1114</v>
       </c>
       <c r="D258" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E258" s="44" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="44" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
       <c r="B259" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C259" s="45" t="s">
-        <v>1126</v>
+        <v>1115</v>
       </c>
       <c r="D259" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E259" s="44" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="44" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
       <c r="B260" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C260" s="45" t="s">
-        <v>1127</v>
+        <v>1200</v>
       </c>
       <c r="D260" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E260" s="44" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="44" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
       <c r="B261" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C261" s="45" t="s">
-        <v>1212</v>
+        <v>1201</v>
       </c>
       <c r="D261" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E261" s="44" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="44" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
       <c r="B262" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C262" s="45" t="s">
-        <v>1213</v>
+        <v>1116</v>
       </c>
       <c r="D262" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E262" s="44" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="44" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B263" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C263" s="45" t="s">
-        <v>1128</v>
+        <v>1202</v>
       </c>
       <c r="D263" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E263" s="44" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="44" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="B264" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C264" s="45" t="s">
-        <v>1214</v>
+        <v>1203</v>
       </c>
       <c r="D264" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E264" s="44" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="44" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="B265" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C265" s="45" t="s">
-        <v>1215</v>
+        <v>1118</v>
       </c>
       <c r="D265" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E265" s="44" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="44" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B266" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C266" s="45" t="s">
-        <v>1130</v>
+        <v>1119</v>
       </c>
       <c r="D266" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E266" s="44" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="44" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B267" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C267" s="45" t="s">
-        <v>1131</v>
+        <v>1120</v>
       </c>
       <c r="D267" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E267" s="44" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="44" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="B268" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C268" s="45" t="s">
-        <v>1132</v>
+        <v>1204</v>
       </c>
       <c r="D268" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E268" s="44" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="44" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="B269" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C269" s="45" t="s">
-        <v>1216</v>
+        <v>1121</v>
       </c>
       <c r="D269" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E269" s="44" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="44" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="B270" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C270" s="45" t="s">
-        <v>1133</v>
+        <v>1122</v>
       </c>
       <c r="D270" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E270" s="44" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="44" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="B271" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C271" s="45" t="s">
-        <v>1134</v>
+        <v>1123</v>
       </c>
       <c r="D271" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E271" s="44" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="44" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="B272" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C272" s="45" t="s">
-        <v>1135</v>
+        <v>1124</v>
       </c>
       <c r="D272" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E272" s="44" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="44" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="B273" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C273" s="45" t="s">
-        <v>1136</v>
+        <v>1125</v>
       </c>
       <c r="D273" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E273" s="44" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="44" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="B274" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C274" s="45" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="D274" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E274" s="44" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="44" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="B275" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C275" s="45" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="D275" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E275" s="44" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="44" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="B276" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C276" s="45" t="s">
-        <v>1139</v>
+        <v>1128</v>
       </c>
       <c r="D276" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E276" s="44" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="44" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="B277" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C277" s="45" t="s">
-        <v>1140</v>
+        <v>1205</v>
       </c>
       <c r="D277" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E277" s="44" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="44" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="B278" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C278" s="45" t="s">
-        <v>1217</v>
+        <v>1129</v>
       </c>
       <c r="D278" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E278" s="44" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="44" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="B279" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C279" s="45" t="s">
-        <v>1141</v>
+        <v>1130</v>
       </c>
       <c r="D279" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E279" s="44" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="44" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="B280" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C280" s="45" t="s">
-        <v>1142</v>
+        <v>1131</v>
       </c>
       <c r="D280" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E280" s="44" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="44" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="B281" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C281" s="45" t="s">
-        <v>1143</v>
+        <v>1206</v>
       </c>
       <c r="D281" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E281" s="44" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="44" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="B282" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C282" s="45" t="s">
-        <v>1218</v>
+        <v>1132</v>
       </c>
       <c r="D282" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E282" s="44" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="44" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B283" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C283" s="45" t="s">
-        <v>1144</v>
+        <v>1133</v>
       </c>
       <c r="D283" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E283" s="44" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="44" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="B284" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C284" s="45" t="s">
-        <v>1145</v>
+        <v>1134</v>
       </c>
       <c r="D284" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E284" s="44" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="44" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="B285" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C285" s="45" t="s">
-        <v>1146</v>
+        <v>1135</v>
       </c>
       <c r="D285" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E285" s="44" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="44" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
       <c r="B286" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C286" s="45" t="s">
-        <v>1147</v>
+        <v>1136</v>
       </c>
       <c r="D286" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E286" s="44" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="44" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B287" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C287" s="45" t="s">
-        <v>1148</v>
+        <v>1137</v>
       </c>
       <c r="D287" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E287" s="44" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="44" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
       <c r="B288" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C288" s="45" t="s">
-        <v>1149</v>
+        <v>1138</v>
       </c>
       <c r="D288" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E288" s="44" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="44" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
       <c r="B289" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C289" s="45" t="s">
-        <v>1150</v>
+        <v>1139</v>
       </c>
       <c r="D289" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E289" s="44" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
     </row>
     <row r="290" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A290" s="44" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B290" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C290" s="45" t="s">
-        <v>1151</v>
+        <v>1207</v>
       </c>
       <c r="D290" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E290" s="44" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
     </row>
     <row r="291" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="44" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="B291" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C291" s="45" t="s">
-        <v>1219</v>
+        <v>1140</v>
       </c>
       <c r="D291" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E291" s="44" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
     </row>
     <row r="292" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="44" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B292" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C292" s="45" t="s">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="D292" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E292" s="44" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
     </row>
     <row r="293" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="44" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="B293" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C293" s="45" t="s">
-        <v>1153</v>
+        <v>1142</v>
       </c>
       <c r="D293" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E293" s="44" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
     </row>
     <row r="294" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="44" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="B294" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C294" s="45" t="s">
-        <v>1154</v>
+        <v>1143</v>
       </c>
       <c r="D294" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E294" s="44" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
     </row>
     <row r="295" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="44" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="B295" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C295" s="45" t="s">
-        <v>1155</v>
+        <v>1208</v>
       </c>
       <c r="D295" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E295" s="44" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
     </row>
     <row r="296" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="44" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="B296" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C296" s="45" t="s">
-        <v>1220</v>
+        <v>1144</v>
       </c>
       <c r="D296" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E296" s="44" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
     </row>
     <row r="297" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="44" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="B297" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C297" s="45" t="s">
-        <v>1156</v>
+        <v>1145</v>
       </c>
       <c r="D297" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E297" s="44" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
     </row>
     <row r="298" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="44" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
       <c r="B298" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C298" s="45" t="s">
-        <v>1157</v>
+        <v>1146</v>
       </c>
       <c r="D298" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E298" s="44" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
     </row>
     <row r="299" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="44" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B299" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C299" s="45" t="s">
-        <v>1158</v>
+        <v>1147</v>
       </c>
       <c r="D299" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E299" s="44" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
     </row>
     <row r="300" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="44" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B300" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C300" s="45" t="s">
-        <v>1159</v>
+        <v>1148</v>
       </c>
       <c r="D300" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E300" s="44" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
     </row>
     <row r="301" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="44" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B301" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C301" s="45" t="s">
-        <v>1160</v>
+        <v>1149</v>
       </c>
       <c r="D301" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E301" s="44" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
     </row>
     <row r="302" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="44" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B302" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C302" s="45" t="s">
-        <v>1161</v>
+        <v>1209</v>
       </c>
       <c r="D302" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E302" s="44" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
     </row>
     <row r="303" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="44" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B303" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C303" s="45" t="s">
-        <v>1221</v>
+        <v>1150</v>
       </c>
       <c r="D303" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E303" s="44" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
     </row>
     <row r="304" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="44" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B304" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C304" s="45" t="s">
-        <v>1162</v>
+        <v>1210</v>
       </c>
       <c r="D304" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E304" s="44" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="305" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="44" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B305" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C305" s="45" t="s">
-        <v>1222</v>
+        <v>1151</v>
       </c>
       <c r="D305" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E305" s="44" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
     </row>
     <row r="306" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="44" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B306" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C306" s="45" t="s">
-        <v>1163</v>
+        <v>1211</v>
       </c>
       <c r="D306" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E306" s="44" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
     </row>
     <row r="307" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="44" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
       <c r="B307" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C307" s="45" t="s">
-        <v>1223</v>
+        <v>1152</v>
       </c>
       <c r="D307" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E307" s="44" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
     </row>
     <row r="308" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A308" s="44" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="B308" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C308" s="45" t="s">
-        <v>1164</v>
+        <v>1153</v>
       </c>
       <c r="D308" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E308" s="44" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
     </row>
     <row r="309" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="44" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
       <c r="B309" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C309" s="45" t="s">
-        <v>1165</v>
+        <v>1154</v>
       </c>
       <c r="D309" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E309" s="44" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
     </row>
     <row r="310" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="44" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
       <c r="B310" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C310" s="45" t="s">
-        <v>1166</v>
+        <v>1155</v>
       </c>
       <c r="D310" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E310" s="44" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
     </row>
     <row r="311" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="44" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B311" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C311" s="45" t="s">
-        <v>1167</v>
+        <v>1156</v>
       </c>
       <c r="D311" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E311" s="44" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
     </row>
     <row r="312" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="44" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
       <c r="B312" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C312" s="45" t="s">
-        <v>1168</v>
+        <v>1212</v>
       </c>
       <c r="D312" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E312" s="44" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
     </row>
     <row r="313" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="44" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
       <c r="B313" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C313" s="45" t="s">
-        <v>1224</v>
+        <v>1157</v>
       </c>
       <c r="D313" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E313" s="44" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
     </row>
     <row r="314" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="44" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
       <c r="B314" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C314" s="45" t="s">
-        <v>1169</v>
+        <v>1158</v>
       </c>
       <c r="D314" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E314" s="44" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
     </row>
     <row r="315" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="44" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B315" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C315" s="45" t="s">
-        <v>1170</v>
+        <v>1213</v>
       </c>
       <c r="D315" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E315" s="44" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
     </row>
     <row r="316" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="44" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
       <c r="B316" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C316" s="45" t="s">
-        <v>1225</v>
+        <v>1159</v>
       </c>
       <c r="D316" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E316" s="44" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
     </row>
     <row r="317" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="44" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
       <c r="B317" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C317" s="45" t="s">
-        <v>1171</v>
+        <v>1214</v>
       </c>
       <c r="D317" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E317" s="44" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
     </row>
     <row r="318" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="44" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
       <c r="B318" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C318" s="45" t="s">
-        <v>1226</v>
+        <v>1160</v>
       </c>
       <c r="D318" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E318" s="44" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
     </row>
     <row r="319" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="44" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
       <c r="B319" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C319" s="45" t="s">
-        <v>1172</v>
+        <v>1161</v>
       </c>
       <c r="D319" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E319" s="44" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
     </row>
     <row r="320" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="44" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C320" s="45" t="s">
-        <v>1173</v>
+        <v>1215</v>
       </c>
       <c r="D320" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E320" s="44" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
     </row>
     <row r="321" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="44" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="B321" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C321" s="45" t="s">
-        <v>1227</v>
+        <v>1162</v>
       </c>
       <c r="D321" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E321" s="44" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
     </row>
     <row r="322" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="44" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B322" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C322" s="45" t="s">
-        <v>1174</v>
+        <v>1163</v>
       </c>
       <c r="D322" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E322" s="44" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
     </row>
     <row r="323" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="44" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="B323" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C323" s="45" t="s">
-        <v>1175</v>
+        <v>1164</v>
       </c>
       <c r="D323" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E323" s="44" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
     </row>
     <row r="324" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" s="44" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="B324" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C324" s="45" t="s">
-        <v>1176</v>
+        <v>1165</v>
       </c>
       <c r="D324" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E324" s="44" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
     </row>
     <row r="325" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A325" s="44" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="B325" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C325" s="45" t="s">
-        <v>1177</v>
+        <v>1216</v>
       </c>
       <c r="D325" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E325" s="44" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
     </row>
     <row r="326" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" s="44" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="B326" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C326" s="45" t="s">
-        <v>1228</v>
+        <v>1166</v>
       </c>
       <c r="D326" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E326" s="44" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
     </row>
     <row r="327" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="44" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="B327" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C327" s="45" t="s">
-        <v>1178</v>
+        <v>1167</v>
       </c>
       <c r="D327" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E327" s="44" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
     </row>
     <row r="328" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" s="44" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="B328" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C328" s="45" t="s">
-        <v>1179</v>
+        <v>1117</v>
       </c>
       <c r="D328" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E328" s="44" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
     </row>
     <row r="329" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A329" s="44" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="B329" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C329" s="45" t="s">
-        <v>1129</v>
+        <v>1168</v>
       </c>
       <c r="D329" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E329" s="44" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
     </row>
     <row r="330" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A330" s="44" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="B330" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C330" s="45" t="s">
-        <v>1180</v>
+        <v>1169</v>
       </c>
       <c r="D330" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E330" s="44" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
     </row>
     <row r="331" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A331" s="44" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
       <c r="B331" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C331" s="45" t="s">
-        <v>1181</v>
+        <v>1217</v>
       </c>
       <c r="D331" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E331" s="44" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
     </row>
     <row r="332" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A332" s="44" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B332" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C332" s="45" t="s">
-        <v>1229</v>
+        <v>1218</v>
       </c>
       <c r="D332" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E332" s="44" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
     </row>
     <row r="333" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A333" s="44" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
       <c r="B333" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C333" s="45" t="s">
-        <v>1230</v>
+        <v>1170</v>
       </c>
       <c r="D333" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E333" s="44" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
     </row>
     <row r="334" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="44" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
       <c r="B334" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C334" s="45" t="s">
-        <v>1182</v>
+        <v>1171</v>
       </c>
       <c r="D334" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E334" s="44" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
     </row>
     <row r="335" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A335" s="44" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
       <c r="B335" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C335" s="45" t="s">
-        <v>1183</v>
+        <v>1219</v>
       </c>
       <c r="D335" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E335" s="44" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
     </row>
     <row r="336" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" s="44" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
       <c r="B336" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C336" s="45" t="s">
-        <v>1231</v>
+        <v>1172</v>
       </c>
       <c r="D336" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E336" s="44" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
     </row>
     <row r="337" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A337" s="44" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
       <c r="B337" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C337" s="45" t="s">
-        <v>1184</v>
+        <v>1220</v>
       </c>
       <c r="D337" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E337" s="44" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
     </row>
     <row r="338" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="44" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
       <c r="B338" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C338" s="45" t="s">
-        <v>1232</v>
+        <v>1173</v>
       </c>
       <c r="D338" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E338" s="44" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
     </row>
     <row r="339" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="44" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
       <c r="B339" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C339" s="45" t="s">
-        <v>1185</v>
+        <v>1174</v>
       </c>
       <c r="D339" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E339" s="44" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
     </row>
     <row r="340" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="44" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
       <c r="B340" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C340" s="45" t="s">
-        <v>1186</v>
+        <v>1175</v>
       </c>
       <c r="D340" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E340" s="44" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
     </row>
     <row r="341" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A341" s="44" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B341" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C341" s="45" t="s">
-        <v>1187</v>
+        <v>1176</v>
       </c>
       <c r="D341" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E341" s="44" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
     </row>
     <row r="342" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="44" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
       <c r="B342" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C342" s="45" t="s">
-        <v>1188</v>
+        <v>1177</v>
       </c>
       <c r="D342" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E342" s="44" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
     </row>
     <row r="343" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="44" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
       <c r="B343" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C343" s="45" t="s">
-        <v>1189</v>
+        <v>1178</v>
       </c>
       <c r="D343" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E343" s="44" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
     </row>
     <row r="344" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="44" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
       <c r="B344" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C344" s="45" t="s">
-        <v>1190</v>
+        <v>1179</v>
       </c>
       <c r="D344" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E344" s="44" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
     </row>
     <row r="345" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A345" s="44" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="B345" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C345" s="45" t="s">
-        <v>1191</v>
+        <v>1180</v>
       </c>
       <c r="D345" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E345" s="44" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
     </row>
     <row r="346" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="44" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B346" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C346" s="45" t="s">
-        <v>1192</v>
+        <v>1181</v>
       </c>
       <c r="D346" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E346" s="44" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
     </row>
     <row r="347" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="44" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="B347" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C347" s="45" t="s">
-        <v>1193</v>
+        <v>1182</v>
       </c>
       <c r="D347" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E347" s="44" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
     </row>
     <row r="348" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="44" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="B348" s="45" t="s">
-        <v>1045</v>
+        <v>1033</v>
       </c>
       <c r="C348" s="45" t="s">
-        <v>1194</v>
+        <v>1183</v>
       </c>
       <c r="D348" s="46" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="E348" s="44" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="349" spans="1:5" s="47" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A349" s="44" t="s">
-        <v>841</v>
-      </c>
-      <c r="B349" s="45" t="s">
-        <v>1045</v>
-      </c>
-      <c r="C349" s="45" t="s">
-        <v>1195</v>
-      </c>
-      <c r="D349" s="46" t="s">
-        <v>726</v>
-      </c>
-      <c r="E349" s="44" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="350" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A349" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B349" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="C349" s="5" t="s">
+        <v>988</v>
+      </c>
+      <c r="D349" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
-        <v>174</v>
+        <v>101</v>
       </c>
       <c r="B350" s="5" t="s">
-        <v>995</v>
+        <v>962</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>996</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>175</v>
+        <v>958</v>
+      </c>
+      <c r="D350" s="3" t="s">
+        <v>102</v>
       </c>
       <c r="E350" s="3" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B351" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D351" s="3" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E351" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B352" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D352" s="3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E352" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B353" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="D353" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E353" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
     </row>
     <row r="354" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A354" s="5" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B354" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>970</v>
+        <v>976</v>
       </c>
       <c r="D354" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E354" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B355" s="5" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>983</v>
+        <v>986</v>
       </c>
       <c r="D355" s="3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E355" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A356" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B356" s="5" t="s">
-        <v>969</v>
-      </c>
-      <c r="C356" s="5" t="s">
-        <v>994</v>
-      </c>
-      <c r="D356" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="E356" s="3" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A356" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B356" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="357" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B357" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E357" s="2" t="s">
         <v>243</v>
-      </c>
-      <c r="B357" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D357" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E357" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="358" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>1004</v>
+        <v>994</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="359" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C359" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E359" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+      <c r="A360" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B360" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E360" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B361" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E361" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A362" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B362" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A364" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A365" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B365" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C365" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="D359" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E359" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A360" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B360" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D360" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E360" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A361" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B361" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>973</v>
-      </c>
-      <c r="D361" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="E361" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A362" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="B362" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D362" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E362" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A363" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B363" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E363" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A364" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B364" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D364" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E364" s="2" t="s">
+      <c r="D365" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E365" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A365" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="B365" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E365" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>1010</v>
+        <v>967</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E366" s="2" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>974</v>
+        <v>1003</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="E367" s="2" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="368" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C368" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E368" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="B368" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C368" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D368" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E368" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="369" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B369" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A370" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B369" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C369" s="2" t="s">
-        <v>1012</v>
-      </c>
-      <c r="D369" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E369" s="2" t="s">
+      <c r="B370" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="E370" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A370" s="2" t="s">
+    <row r="371" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="A371" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B370" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C370" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E370" s="2" t="s">
+      <c r="B371" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="D371" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A371" s="2" t="s">
+      <c r="E371" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B371" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C371" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D371" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="E371" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="372" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A372" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B372" s="2" t="s">
-        <v>969</v>
-      </c>
-      <c r="C372" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="D372" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E372" s="2" t="s">
-        <v>307</v>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D372" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D373" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E373" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B373" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>1015</v>
-      </c>
-      <c r="D373" s="3" t="s">
+    </row>
+    <row r="374" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A374" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="E373" s="3" t="s">
+      <c r="B374" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D374" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E374" s="3" t="s">
         <v>316</v>
-      </c>
-    </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A374" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="B374" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C374" s="3" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D374" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E374" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="375" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A375" s="3" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="D375" s="3" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="E375" s="3" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
     </row>
     <row r="376" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A376" s="3" t="s">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D376" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="E376" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="377" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A377" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>982</v>
+        <v>1009</v>
       </c>
       <c r="D377" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E377" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
+      </c>
+      <c r="E377" s="10" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="378" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D378" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B378" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C378" s="3" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D378" s="3" t="s">
+      <c r="E378" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="E378" s="10" t="s">
+    </row>
+    <row r="379" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A379" s="3" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="379" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A379" s="3" t="s">
+      <c r="B379" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D379" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="B379" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C379" s="3" t="s">
-        <v>1018</v>
-      </c>
-      <c r="D379" s="3" t="s">
+      <c r="E379" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="E379" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="380" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A380" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="B380" s="3" t="s">
-        <v>969</v>
-      </c>
-      <c r="C380" s="3" t="s">
-        <v>1019</v>
-      </c>
-      <c r="D380" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="E380" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="381" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    </row>
+    <row r="380" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+      <c r="A380" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B380" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C380" s="6" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B381" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C381" s="6" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="B381" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C381" s="6" t="s">
-        <v>1022</v>
-      </c>
-      <c r="D381" s="1" t="s">
+      <c r="E381" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E381" s="2" t="s">
+    </row>
+    <row r="382" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A382" s="6" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A382" s="6" t="s">
+      <c r="B382" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C382" s="6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="B382" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C382" s="6" t="s">
-        <v>1023</v>
-      </c>
-      <c r="D382" s="2" t="s">
+      <c r="E382" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="E382" s="2" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="383" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="B383" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C383" s="6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D383" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="B383" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C383" s="6" t="s">
-        <v>1024</v>
-      </c>
-      <c r="D383" s="2" t="s">
+      <c r="E383" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="E383" s="2" t="s">
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="6" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A384" s="6" t="s">
+      <c r="B384" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C384" s="6" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="B384" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C384" s="6" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D384" s="2" t="s">
+      <c r="E384" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="E384" s="2" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B385" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C385" s="6" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="B385" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C385" s="6" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D385" s="2" t="s">
+      <c r="E385" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="E385" s="2" t="s">
+    </row>
+    <row r="386" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A386" s="6" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A386" s="6" t="s">
+      <c r="B386" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C386" s="6" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D386" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="B386" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C386" s="6" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D386" s="2" t="s">
+      <c r="E386" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="E386" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="387" spans="1:5" ht="29" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B387" s="6" t="s">
+        <v>962</v>
+      </c>
+      <c r="C387" s="6" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D387" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B387" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C387" s="6" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D387" s="2" t="s">
+      <c r="E387" s="2" t="s">
         <v>381</v>
-      </c>
-      <c r="E387" s="2" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="388" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A388" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="B388" s="6" t="s">
-        <v>969</v>
-      </c>
-      <c r="C388" s="6" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D388" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E388" s="2" t="s">
-        <v>385</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1">
-    <sortState ref="A2:E388">
+    <sortState ref="A2:E387">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="D156" r:id="rId1"/>
-    <hyperlink ref="D150" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>
+    <hyperlink ref="D160" r:id="rId1"/>
+    <hyperlink ref="D154" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>
     <hyperlink ref="D132" r:id="rId3"/>
     <hyperlink ref="D133" r:id="rId4"/>
     <hyperlink ref="D136" r:id="rId5"/>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -4293,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -4293,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B153" sqref="B153"/>
+    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9930,6 +9930,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E1"/>
   <hyperlinks>
     <hyperlink ref="D160" r:id="rId1"/>
     <hyperlink ref="D154" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -4293,8 +4293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E331"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/intents.xlsx
+++ b/intents.xlsx
@@ -32,7 +32,7 @@
     <author>Preet Deep Singh</author>
   </authors>
   <commentList>
-    <comment ref="E32" authorId="0" shapeId="0">
+    <comment ref="E31" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -56,7 +56,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D41" authorId="0" shapeId="0">
+    <comment ref="D40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -80,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
+    <comment ref="A50" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -104,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E64" authorId="0" shapeId="0">
+    <comment ref="E62" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -128,7 +128,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E73" authorId="0" shapeId="0">
+    <comment ref="E71" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A129" authorId="0" shapeId="0">
+    <comment ref="A127" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -167,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D131" authorId="0" shapeId="0">
+    <comment ref="D129" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D159" authorId="0" shapeId="0">
+    <comment ref="D156" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -215,7 +215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E163" authorId="0" shapeId="0">
+    <comment ref="E160" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -239,7 +239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E168" authorId="0" shapeId="0">
+    <comment ref="E165" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +268,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1043">
   <si>
     <t>Input</t>
   </si>
@@ -1840,35 +1840,6 @@
     <t>email, address, FRRO, Trivandrum</t>
   </si>
   <si>
-    <t>Can you provide the contact details of Visa Support Centre</t>
-  </si>
-  <si>
-    <t>91-11-22560198
-22560199</t>
-  </si>
-  <si>
-    <t>contact,detail,visa support centre</t>
-  </si>
-  <si>
-    <t>What is the email address  of Visa Support Centre</t>
-  </si>
-  <si>
-    <t>visasupport@nic.in</t>
-  </si>
-  <si>
-    <t>email, address, visa support centre</t>
-  </si>
-  <si>
-    <t>What is the address of Investment Facilitation Cell</t>
-  </si>
-  <si>
-    <t>The Ashok, Third Floor,50B, Diplomatic Enclave, Chanakyapuri ,
-New Delhi 110 021</t>
-  </si>
-  <si>
-    <t>address, investment, facilitation, cell</t>
-  </si>
-  <si>
     <t>What is ACD</t>
   </si>
   <si>
@@ -3019,12 +2990,6 @@
   </si>
   <si>
     <t>frro, trivandrum</t>
-  </si>
-  <si>
-    <t>visa support centre</t>
-  </si>
-  <si>
-    <t>investment facilitation cell</t>
   </si>
   <si>
     <t>acd</t>
@@ -4291,10 +4256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E331"/>
+  <dimension ref="A1:E328"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D14"/>
+    <sheetView tabSelected="1" topLeftCell="A119" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4311,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
@@ -4328,10 +4293,10 @@
         <v>366</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>367</v>
@@ -4345,10 +4310,10 @@
         <v>369</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>370</v>
@@ -4362,10 +4327,10 @@
         <v>378</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>379</v>
@@ -4379,10 +4344,10 @@
         <v>387</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>388</v>
@@ -4396,10 +4361,10 @@
         <v>396</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>397</v>
@@ -4413,10 +4378,10 @@
         <v>405</v>
       </c>
       <c r="B7" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>845</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>854</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>406</v>
@@ -4430,10 +4395,10 @@
         <v>414</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>415</v>
@@ -4447,10 +4412,10 @@
         <v>423</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>424</v>
@@ -4464,10 +4429,10 @@
         <v>432</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>433</v>
@@ -4481,10 +4446,10 @@
         <v>441</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>442</v>
@@ -4498,10 +4463,10 @@
         <v>450</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>451</v>
@@ -4515,10 +4480,10 @@
         <v>459</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>460</v>
@@ -4527,32 +4492,32 @@
         <v>461</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="7" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>475</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>476</v>
+    <row r="14" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>794</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>94</v>
@@ -4563,13 +4528,13 @@
     </row>
     <row r="16" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>94</v>
@@ -4578,5373 +4543,5321 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>803</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>94</v>
+        <v>796</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="10" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>98</v>
+        <v>190</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>99</v>
+        <v>191</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" s="10" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>806</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>820</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="E19" s="9" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="13" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="13" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A19" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>811</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>820</v>
+        <v>816</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>825</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="14" t="s">
+      <c r="A22" s="14" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="14" t="s">
-        <v>824</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>831</v>
-      </c>
-      <c r="D23" s="15" t="s">
+      <c r="B22" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="D22" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>815</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>801</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" s="16" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="16" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="13" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" s="16" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>824</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>812</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="E28" s="16" t="s">
         <v>246</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="15" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="E29" s="15" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="13" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A30" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>824</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>819</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="E30" s="15" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D31" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
-        <v>31</v>
+      <c r="A32" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>803</v>
+        <v>815</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>794</v>
       </c>
       <c r="D32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="12" t="s">
-        <v>32</v>
+      <c r="E32" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C33" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D33" s="12" t="s">
+        <v>815</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="D33" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>34</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="D34" s="15" t="s">
+        <v>815</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D34" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E34" s="15" t="s">
-        <v>87</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" s="14" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C35" s="14" t="s">
-        <v>803</v>
+        <v>815</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>794</v>
       </c>
       <c r="D35" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>803</v>
+        <v>815</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>794</v>
       </c>
       <c r="D36" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C37" s="14" t="s">
-        <v>803</v>
+        <v>815</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>794</v>
       </c>
       <c r="D37" s="12" t="s">
         <v>27</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="13" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A38" s="14" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>803</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>27</v>
+        <v>815</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A39" s="14" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D39" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D40" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A41" s="14" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D41" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D42" s="36" t="s">
         <v>53</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="13" customFormat="1" ht="348" x14ac:dyDescent="0.35">
-      <c r="A43" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="A43" s="12" t="s">
+        <v>70</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>804</v>
-      </c>
-      <c r="D43" s="36" t="s">
-        <v>53</v>
+        <v>815</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>71</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="D44" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="D44" s="36" t="s">
         <v>71</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
-        <v>73</v>
+      <c r="A45" s="14" t="s">
+        <v>74</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="D45" s="36" t="s">
+        <v>796</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A47" s="14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D47" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D48" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A49" s="14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D49" s="15" t="s">
         <v>71</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="13" customFormat="1" ht="188.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>824</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>805</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="15" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>841</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>373</v>
+      </c>
+      <c r="E50" s="17" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E51" s="17" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>853</v>
+        <v>842</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E52" s="17" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E53" s="17" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E54" s="17" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A55" s="17" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>837</v>
+      </c>
+      <c r="C55" s="17" t="s">
         <v>846</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>854</v>
-      </c>
       <c r="D55" s="17" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E55" s="17" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="17" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="E56" s="17" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="E57" s="17" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="E58" s="17" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="E59" s="17" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="E60" s="17" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A61" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="C61" s="17" t="s">
-        <v>860</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="E61" s="17" t="s">
-        <v>464</v>
+      <c r="A61" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="D61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A62" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>846</v>
-      </c>
-      <c r="C62" s="17" t="s">
-        <v>861</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="E62" s="17" t="s">
-        <v>470</v>
+      <c r="A62" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>794</v>
+      </c>
+      <c r="D62" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A63" s="18" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="D64" s="18" t="s">
+      <c r="A64" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>794</v>
+      </c>
+      <c r="D64" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="E64" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A65" s="18" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B66" s="20" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="D66" s="21" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="67" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>803</v>
-      </c>
-      <c r="D67" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E67" s="18" t="s">
-        <v>28</v>
+      <c r="A67" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C67" s="20" t="s">
+        <v>795</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B68" s="20" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D68" s="21" t="s">
         <v>46</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>46</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A69" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C70" s="20" t="s">
-        <v>804</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>46</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A70" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>796</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>64</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A71" s="18" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D71" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A72" s="18" t="s">
-        <v>66</v>
+      <c r="A72" s="20" t="s">
+        <v>84</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A73" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B73" s="18" t="s">
+      <c r="A73" s="20" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>811</v>
+      </c>
+      <c r="D73" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="E73" s="21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A74" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>793</v>
+      </c>
+      <c r="C74" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="E74" s="21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A75" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C75" s="23" t="s">
+        <v>801</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="E75" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A76" s="23" t="s">
+        <v>208</v>
+      </c>
+      <c r="B76" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C76" s="23" t="s">
         <v>802</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="D76" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E76" s="23" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A77" s="23" t="s">
+        <v>211</v>
+      </c>
+      <c r="B77" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C77" s="23" t="s">
+        <v>803</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="E77" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A78" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B78" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C78" s="23" t="s">
         <v>805</v>
       </c>
-      <c r="D73" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A74" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="B74" s="18" t="s">
-        <v>802</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>805</v>
-      </c>
-      <c r="D74" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A75" s="20" t="s">
-        <v>1036</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>820</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="B76" s="20" t="s">
-        <v>802</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D76" s="22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="21" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A77" s="23" t="s">
-        <v>205</v>
-      </c>
-      <c r="B77" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C77" s="23" t="s">
+      <c r="D78" s="23" t="s">
+        <v>215</v>
+      </c>
+      <c r="E78" s="23" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A79" s="23" t="s">
+        <v>217</v>
+      </c>
+      <c r="B79" s="23" t="s">
+        <v>793</v>
+      </c>
+      <c r="C79" s="23" t="s">
         <v>810</v>
       </c>
-      <c r="D77" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="E77" s="23" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A78" s="23" t="s">
-        <v>208</v>
-      </c>
-      <c r="B78" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C78" s="23" t="s">
-        <v>811</v>
-      </c>
-      <c r="D78" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E78" s="23" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="19" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A79" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B79" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C79" s="23" t="s">
-        <v>812</v>
-      </c>
       <c r="D79" s="23" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="E79" s="23" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A80" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="B80" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C80" s="23" t="s">
-        <v>814</v>
+        <v>219</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A80" s="24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>829</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>215</v>
-      </c>
-      <c r="E80" s="23" t="s">
-        <v>216</v>
+        <v>272</v>
+      </c>
+      <c r="E80" s="21" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="81" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="B81" s="23" t="s">
-        <v>802</v>
-      </c>
-      <c r="C81" s="23" t="s">
-        <v>819</v>
+      <c r="A81" s="24" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B81" s="24" t="s">
+        <v>793</v>
+      </c>
+      <c r="C81" s="24" t="s">
+        <v>830</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="23" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+        <v>274</v>
+      </c>
+      <c r="E81" s="21" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="24" t="s">
-        <v>271</v>
+        <v>1027</v>
       </c>
       <c r="B82" s="24" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C82" s="24" t="s">
-        <v>838</v>
-      </c>
-      <c r="D82" s="23" t="s">
-        <v>272</v>
+        <v>831</v>
+      </c>
+      <c r="D82" s="18" t="s">
+        <v>276</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A83" s="24" t="s">
-        <v>1037</v>
+        <v>1028</v>
       </c>
       <c r="B83" s="24" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C83" s="24" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>274</v>
+        <v>833</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" s="19" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="24" t="s">
-        <v>1038</v>
+        <v>288</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C84" s="24" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="24" t="s">
-        <v>1039</v>
-      </c>
-      <c r="B85" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="C85" s="24" t="s">
-        <v>841</v>
-      </c>
-      <c r="D85" s="23" t="s">
-        <v>842</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>278</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>852</v>
+      </c>
+      <c r="D85" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B86" s="24" t="s">
-        <v>802</v>
-      </c>
-      <c r="C86" s="24" t="s">
-        <v>843</v>
-      </c>
-      <c r="D86" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>290</v>
+      <c r="A86" s="22" t="s">
+        <v>471</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>853</v>
+      </c>
+      <c r="D86" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="22" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B87" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C87" s="22" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="D87" s="22" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E87" s="22" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="22" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B88" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>864</v>
+        <v>834</v>
       </c>
       <c r="D88" s="22" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E88" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A89" s="22" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B89" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C89" s="22" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
       <c r="D89" s="22" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E89" s="22" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A90" s="22" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B90" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C90" s="22" t="s">
-        <v>843</v>
+        <v>856</v>
       </c>
       <c r="D90" s="22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E90" s="22" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A91" s="22" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B91" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C91" s="22" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="D91" s="22" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E91" s="22" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A92" s="22" t="s">
+        <v>489</v>
+      </c>
+      <c r="B92" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>858</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>490</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="22" t="s">
         <v>492</v>
       </c>
-      <c r="B92" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C92" s="22" t="s">
-        <v>867</v>
-      </c>
-      <c r="D92" s="22" t="s">
+      <c r="B93" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>859</v>
+      </c>
+      <c r="D93" s="22" t="s">
         <v>493</v>
       </c>
-      <c r="E92" s="22" t="s">
+      <c r="E93" s="22" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="22" t="s">
+    <row r="94" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="22" t="s">
         <v>495</v>
       </c>
-      <c r="B93" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C93" s="22" t="s">
-        <v>868</v>
-      </c>
-      <c r="D93" s="22" t="s">
+      <c r="B94" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>860</v>
+      </c>
+      <c r="D94" s="22" t="s">
         <v>496</v>
       </c>
-      <c r="E93" s="22" t="s">
+      <c r="E94" s="22" t="s">
         <v>497</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="B94" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C94" s="22" t="s">
-        <v>869</v>
-      </c>
-      <c r="D94" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="E94" s="22" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="95" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A95" s="22" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B95" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C95" s="22" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="D95" s="22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E95" s="22" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="96" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B96" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="D96" s="22" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E96" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="22" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B97" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C97" s="22" t="s">
-        <v>872</v>
+        <v>828</v>
       </c>
       <c r="D97" s="22" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="98" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A98" s="22" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B98" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C98" s="22" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="D98" s="22" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E98" s="22" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="99" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="22" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B99" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>837</v>
+        <v>863</v>
       </c>
       <c r="D99" s="22" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E99" s="22" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="22" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B100" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C100" s="22" t="s">
-        <v>886</v>
+        <v>864</v>
       </c>
       <c r="D100" s="22" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E100" s="22" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="101" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="22" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B101" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C101" s="22" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="D101" s="22" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="102" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="22" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B102" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C102" s="22" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="D102" s="22" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E102" s="22" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="103" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="22" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B103" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C103" s="22" t="s">
-        <v>876</v>
+        <v>794</v>
       </c>
       <c r="D103" s="22" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E103" s="22" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="104" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B104" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C104" s="22" t="s">
-        <v>877</v>
+        <v>796</v>
       </c>
       <c r="D104" s="22" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="E104" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="105" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B105" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C105" s="22" t="s">
-        <v>803</v>
+        <v>867</v>
       </c>
       <c r="D105" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E105" s="22" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="106" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="22" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="B106" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C106" s="22" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D106" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E106" s="22" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="107" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="22" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B107" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C107" s="22" t="s">
-        <v>878</v>
+        <v>813</v>
       </c>
       <c r="D107" s="22" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E107" s="22" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A108" s="22" t="s">
+        <v>537</v>
+      </c>
+      <c r="B108" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>868</v>
+      </c>
+      <c r="D108" s="22" t="s">
+        <v>538</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="22" t="s">
         <v>540</v>
       </c>
-      <c r="B108" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C108" s="22" t="s">
-        <v>804</v>
-      </c>
-      <c r="D108" s="22" t="s">
+      <c r="B109" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>869</v>
+      </c>
+      <c r="D109" s="22" t="s">
         <v>541</v>
       </c>
-      <c r="E108" s="22" t="s">
+      <c r="E109" s="22" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="22" t="s">
+    <row r="110" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="B109" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C109" s="22" t="s">
-        <v>822</v>
-      </c>
-      <c r="D109" s="22" t="s">
+      <c r="B110" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C110" s="22" t="s">
+        <v>870</v>
+      </c>
+      <c r="D110" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="E109" s="22" t="s">
+      <c r="E110" s="22" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="22" t="s">
-        <v>546</v>
-      </c>
-      <c r="B110" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C110" s="22" t="s">
-        <v>879</v>
-      </c>
-      <c r="D110" s="22" t="s">
-        <v>547</v>
-      </c>
-      <c r="E110" s="22" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="22" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B111" s="22" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="C111" s="22" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="D111" s="22" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="E111" s="22" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="112" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>872</v>
+      </c>
+      <c r="D112" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="E112" s="22" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="22" t="s">
         <v>552</v>
       </c>
-      <c r="B112" s="22" t="s">
+      <c r="B113" s="22" t="s">
+        <v>793</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>873</v>
+      </c>
+      <c r="D113" s="22" t="s">
+        <v>553</v>
+      </c>
+      <c r="E113" s="22" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="C114" s="25" t="s">
+        <v>801</v>
+      </c>
+      <c r="D114" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="E114" s="26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>812</v>
+      </c>
+      <c r="C115" s="25" t="s">
         <v>802</v>
       </c>
-      <c r="C112" s="22" t="s">
-        <v>881</v>
-      </c>
-      <c r="D112" s="22" t="s">
-        <v>553</v>
-      </c>
-      <c r="E112" s="22" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="22" t="s">
-        <v>555</v>
-      </c>
-      <c r="B113" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C113" s="22" t="s">
-        <v>882</v>
-      </c>
-      <c r="D113" s="22" t="s">
-        <v>556</v>
-      </c>
-      <c r="E113" s="22" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="B114" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C114" s="22" t="s">
-        <v>883</v>
-      </c>
-      <c r="D114" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="E114" s="22" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A115" s="22" t="s">
-        <v>561</v>
-      </c>
-      <c r="B115" s="22" t="s">
-        <v>802</v>
-      </c>
-      <c r="C115" s="22" t="s">
-        <v>884</v>
-      </c>
-      <c r="D115" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="E115" s="22" t="s">
-        <v>563</v>
+      <c r="D115" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="E115" s="26" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="25" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B116" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C116" s="25" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="D116" s="26" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E116" s="26" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="25" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B117" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C117" s="25" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="D117" s="26" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E117" s="26" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="25" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="B118" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C118" s="25" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="D118" s="26" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="25" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B119" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C119" s="25" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="D119" s="26" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="E119" s="26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="25" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B120" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C120" s="25" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="D120" s="26" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="E120" s="26" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="25" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B121" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C121" s="25" t="s">
-        <v>819</v>
+        <v>807</v>
       </c>
       <c r="D121" s="26" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="E121" s="26" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="25" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B122" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C122" s="25" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="D122" s="26" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E122" s="26" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="25" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B123" s="25" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C123" s="25" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D123" s="26" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="E123" s="26" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A124" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="B124" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="C124" s="25" t="s">
-        <v>817</v>
-      </c>
-      <c r="D124" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="E124" s="26" t="s">
-        <v>142</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A124" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" s="29" t="s">
+        <v>812</v>
+      </c>
+      <c r="C124" s="29" t="s">
+        <v>811</v>
+      </c>
+      <c r="D124" s="29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E124" s="29" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A125" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="B125" s="25" t="s">
-        <v>821</v>
-      </c>
-      <c r="C125" s="25" t="s">
-        <v>818</v>
-      </c>
-      <c r="D125" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E125" s="26" t="s">
-        <v>145</v>
+      <c r="A125" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="C125" s="28" t="s">
+        <v>801</v>
+      </c>
+      <c r="D125" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A126" s="29" t="s">
-        <v>199</v>
-      </c>
-      <c r="B126" s="29" t="s">
-        <v>821</v>
-      </c>
-      <c r="C126" s="29" t="s">
-        <v>820</v>
-      </c>
-      <c r="D126" s="29" t="s">
-        <v>200</v>
-      </c>
-      <c r="E126" s="29" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>812</v>
+      </c>
+      <c r="C126" s="28" t="s">
+        <v>802</v>
+      </c>
+      <c r="D126" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="58" x14ac:dyDescent="0.35">
       <c r="A127" s="28" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B127" s="28" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="C127" s="28" t="s">
+        <v>803</v>
+      </c>
+      <c r="D127" s="28" t="s">
+        <v>251</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A128" s="26" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="C128" s="26" t="s">
+        <v>805</v>
+      </c>
+      <c r="D128" s="26" t="s">
+        <v>260</v>
+      </c>
+      <c r="E128" s="26" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="A129" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B129" s="26" t="s">
+        <v>812</v>
+      </c>
+      <c r="C129" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="D127" s="28" t="s">
-        <v>230</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A128" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="C128" s="28" t="s">
-        <v>811</v>
-      </c>
-      <c r="D128" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" ht="58" x14ac:dyDescent="0.35">
-      <c r="A129" s="28" t="s">
-        <v>250</v>
-      </c>
-      <c r="B129" s="28" t="s">
-        <v>821</v>
-      </c>
-      <c r="C129" s="28" t="s">
-        <v>812</v>
-      </c>
-      <c r="D129" s="28" t="s">
-        <v>251</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A130" s="26" t="s">
-        <v>259</v>
-      </c>
-      <c r="B130" s="26" t="s">
-        <v>821</v>
-      </c>
-      <c r="C130" s="26" t="s">
-        <v>814</v>
-      </c>
-      <c r="D130" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="E130" s="26" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A131" s="26" t="s">
-        <v>268</v>
-      </c>
-      <c r="B131" s="26" t="s">
-        <v>821</v>
-      </c>
-      <c r="C131" s="26" t="s">
-        <v>819</v>
-      </c>
-      <c r="D131" s="26" t="s">
+      <c r="D129" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="E131" s="26" t="s">
+      <c r="E129" s="26" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="132" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>841</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="E130" s="35" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="B131" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="C131" s="35" t="s">
+        <v>844</v>
+      </c>
+      <c r="D131" s="37" t="s">
+        <v>385</v>
+      </c>
+      <c r="E131" s="35" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
-        <v>375</v>
+        <v>393</v>
       </c>
       <c r="B132" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C132" s="35" t="s">
-        <v>850</v>
-      </c>
-      <c r="D132" s="37" t="s">
-        <v>376</v>
+        <v>842</v>
+      </c>
+      <c r="D132" s="35" t="s">
+        <v>394</v>
       </c>
       <c r="E132" s="35" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A133" s="35" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="B133" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C133" s="35" t="s">
-        <v>853</v>
-      </c>
-      <c r="D133" s="37" t="s">
-        <v>385</v>
+        <v>843</v>
+      </c>
+      <c r="D133" s="35" t="s">
+        <v>403</v>
       </c>
       <c r="E133" s="35" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A134" s="35" t="s">
-        <v>393</v>
+        <v>411</v>
       </c>
       <c r="B134" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C134" s="35" t="s">
-        <v>851</v>
-      </c>
-      <c r="D134" s="35" t="s">
-        <v>394</v>
+        <v>845</v>
+      </c>
+      <c r="D134" s="37" t="s">
+        <v>412</v>
       </c>
       <c r="E134" s="35" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" s="34" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A135" s="35" t="s">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B135" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C135" s="35" t="s">
-        <v>852</v>
-      </c>
-      <c r="D135" s="35" t="s">
-        <v>403</v>
+        <v>846</v>
+      </c>
+      <c r="D135" s="37" t="s">
+        <v>421</v>
       </c>
       <c r="E135" s="35" t="s">
-        <v>404</v>
+        <v>422</v>
       </c>
     </row>
     <row r="136" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A136" s="35" t="s">
-        <v>411</v>
+        <v>429</v>
       </c>
       <c r="B136" s="35" t="s">
+        <v>838</v>
+      </c>
+      <c r="C136" s="35" t="s">
         <v>847</v>
       </c>
-      <c r="C136" s="35" t="s">
-        <v>854</v>
-      </c>
       <c r="D136" s="37" t="s">
-        <v>412</v>
+        <v>430</v>
       </c>
       <c r="E136" s="35" t="s">
-        <v>413</v>
+        <v>431</v>
       </c>
     </row>
     <row r="137" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A137" s="35" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="B137" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C137" s="35" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>421</v>
+        <v>439</v>
       </c>
       <c r="E137" s="35" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="35" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
       <c r="B138" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C138" s="35" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E138" s="35" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
     </row>
     <row r="139" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A139" s="35" t="s">
-        <v>438</v>
+        <v>456</v>
       </c>
       <c r="B139" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C139" s="35" t="s">
-        <v>857</v>
-      </c>
-      <c r="D139" s="37" t="s">
-        <v>439</v>
+        <v>850</v>
+      </c>
+      <c r="D139" s="35" t="s">
+        <v>457</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>440</v>
+        <v>458</v>
       </c>
     </row>
     <row r="140" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A140" s="35" t="s">
-        <v>447</v>
+        <v>465</v>
       </c>
       <c r="B140" s="35" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="C140" s="35" t="s">
-        <v>858</v>
-      </c>
-      <c r="D140" s="37" t="s">
-        <v>448</v>
+        <v>851</v>
+      </c>
+      <c r="D140" s="35" t="s">
+        <v>466</v>
       </c>
       <c r="E140" s="35" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="35" t="s">
-        <v>456</v>
-      </c>
-      <c r="B141" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="C141" s="35" t="s">
-        <v>859</v>
-      </c>
-      <c r="D141" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="E141" s="35" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="B142" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="C142" s="35" t="s">
-        <v>860</v>
-      </c>
-      <c r="D142" s="35" t="s">
-        <v>466</v>
-      </c>
-      <c r="E142" s="35" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="143" spans="1:5" s="34" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="35" t="s">
-        <v>471</v>
-      </c>
-      <c r="B143" s="35" t="s">
-        <v>847</v>
-      </c>
-      <c r="C143" s="35" t="s">
-        <v>861</v>
-      </c>
-      <c r="D143" s="37" t="s">
-        <v>472</v>
-      </c>
-      <c r="E143" s="35" t="s">
-        <v>473</v>
+    <row r="141" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A141" s="58" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B141" s="58" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C141" s="58" t="s">
+        <v>788</v>
+      </c>
+      <c r="D141" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A142" s="58" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" s="58" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C142" s="58" t="s">
+        <v>789</v>
+      </c>
+      <c r="D142" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E142" s="58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A143" s="58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" s="58" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C143" s="58" t="s">
+        <v>790</v>
+      </c>
+      <c r="D143" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E143" s="58" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A144" s="58" t="s">
-        <v>1042</v>
+        <v>17</v>
       </c>
       <c r="B144" s="58" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="C144" s="58" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D144" s="58" t="s">
         <v>3</v>
       </c>
       <c r="E144" s="58" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A145" s="58" t="s">
-        <v>5</v>
-      </c>
-      <c r="B145" s="58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C145" s="58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" s="38" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+      <c r="A145" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B145" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C145" s="40" t="s">
+        <v>1029</v>
+      </c>
+      <c r="D145" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="E145" s="39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A146" s="40" t="s">
+        <v>172</v>
+      </c>
+      <c r="B146" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C146" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="D146" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E146" s="39" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A147" s="40" t="s">
+        <v>175</v>
+      </c>
+      <c r="B147" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C147" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="D147" s="41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E147" s="39" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A148" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C148" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="D148" s="41" t="s">
+        <v>179</v>
+      </c>
+      <c r="E148" s="39" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A149" s="40" t="s">
+        <v>181</v>
+      </c>
+      <c r="B149" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C149" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="D149" s="41" t="s">
+        <v>182</v>
+      </c>
+      <c r="E149" s="39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A150" s="40" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="40" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C150" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="D150" s="41" t="s">
+        <v>185</v>
+      </c>
+      <c r="E150" s="39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A151" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="B151" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C151" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="D151" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="E151" s="44" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" s="45" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A152" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C152" s="42" t="s">
+        <v>818</v>
+      </c>
+      <c r="D152" s="43" t="s">
+        <v>149</v>
+      </c>
+      <c r="E152" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" s="45" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A153" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C153" s="42" t="s">
+        <v>819</v>
+      </c>
+      <c r="D153" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="E153" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="A154" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B154" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C154" s="42" t="s">
+        <v>820</v>
+      </c>
+      <c r="D154" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="E154" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" s="49" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A155" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C155" s="42" t="s">
+        <v>821</v>
+      </c>
+      <c r="D155" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E155" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="46" t="s">
+        <v>285</v>
+      </c>
+      <c r="B156" s="46" t="s">
+        <v>817</v>
+      </c>
+      <c r="C156" s="46" t="s">
+        <v>835</v>
+      </c>
+      <c r="D156" s="47" t="s">
+        <v>286</v>
+      </c>
+      <c r="E156" s="44" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A157" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B157" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C157" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="D157" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E157" s="44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A158" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>817</v>
+      </c>
+      <c r="C158" s="42" t="s">
+        <v>796</v>
+      </c>
+      <c r="D158" s="44" t="s">
+        <v>92</v>
+      </c>
+      <c r="E158" s="44"/>
+    </row>
+    <row r="159" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A159" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="B159" s="48" t="s">
+        <v>814</v>
+      </c>
+      <c r="C159" s="48" t="s">
+        <v>791</v>
+      </c>
+      <c r="D159" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E159" s="48" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A160" s="50" t="s">
+        <v>187</v>
+      </c>
+      <c r="B160" s="50" t="s">
+        <v>814</v>
+      </c>
+      <c r="C160" s="50" t="s">
+        <v>811</v>
+      </c>
+      <c r="D160" s="51" t="s">
+        <v>188</v>
+      </c>
+      <c r="E160" s="52" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" s="49" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+      <c r="A161" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="B161" s="53" t="s">
+        <v>814</v>
+      </c>
+      <c r="C161" s="53" t="s">
+        <v>801</v>
+      </c>
+      <c r="D161" s="53" t="s">
+        <v>227</v>
+      </c>
+      <c r="E161" s="53" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A162" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="B162" s="53" t="s">
+        <v>814</v>
+      </c>
+      <c r="C162" s="53" t="s">
+        <v>802</v>
+      </c>
+      <c r="D162" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="E162" s="53" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A163" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="B163" s="53" t="s">
+        <v>814</v>
+      </c>
+      <c r="C163" s="53" t="s">
+        <v>803</v>
+      </c>
+      <c r="D163" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E163" s="53" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" s="54" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A164" s="52" t="s">
+        <v>256</v>
+      </c>
+      <c r="B164" s="52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C164" s="52" t="s">
+        <v>805</v>
+      </c>
+      <c r="D164" s="52" t="s">
+        <v>257</v>
+      </c>
+      <c r="E164" s="52" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" s="54" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A165" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="B165" s="52" t="s">
+        <v>814</v>
+      </c>
+      <c r="C165" s="52" t="s">
+        <v>810</v>
+      </c>
+      <c r="D165" s="52" t="s">
+        <v>266</v>
+      </c>
+      <c r="E165" s="52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B166" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C166" s="25" t="s">
+        <v>794</v>
+      </c>
+      <c r="D166" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E166" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B167" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C167" s="25" t="s">
+        <v>796</v>
+      </c>
+      <c r="D167" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="E167" s="26" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C168" s="25" t="s">
+        <v>795</v>
+      </c>
+      <c r="D168" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="E168" s="26" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A169" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C169" s="25" t="s">
         <v>798</v>
       </c>
-      <c r="D145" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E145" s="58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A146" s="58" t="s">
-        <v>7</v>
-      </c>
-      <c r="B146" s="58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C146" s="58" t="s">
-        <v>799</v>
-      </c>
-      <c r="D146" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E146" s="58" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" s="45" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A147" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="B147" s="58" t="s">
-        <v>1043</v>
-      </c>
-      <c r="C147" s="58" t="s">
-        <v>797</v>
-      </c>
-      <c r="D147" s="58" t="s">
-        <v>3</v>
-      </c>
-      <c r="E147" s="58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" s="38" customFormat="1" ht="203" x14ac:dyDescent="0.35">
-      <c r="A148" s="40" t="s">
-        <v>169</v>
-      </c>
-      <c r="B148" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C148" s="40" t="s">
-        <v>1040</v>
-      </c>
-      <c r="D148" s="41" t="s">
-        <v>170</v>
-      </c>
-      <c r="E148" s="39" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" s="38" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A149" s="40" t="s">
-        <v>172</v>
-      </c>
-      <c r="B149" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C149" s="40" t="s">
-        <v>833</v>
-      </c>
-      <c r="D149" s="41" t="s">
-        <v>173</v>
-      </c>
-      <c r="E149" s="39" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A150" s="40" t="s">
-        <v>175</v>
-      </c>
-      <c r="B150" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C150" s="40" t="s">
-        <v>834</v>
-      </c>
-      <c r="D150" s="41" t="s">
-        <v>176</v>
-      </c>
-      <c r="E150" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" s="45" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A151" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="B151" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C151" s="40" t="s">
-        <v>835</v>
-      </c>
-      <c r="D151" s="41" t="s">
-        <v>179</v>
-      </c>
-      <c r="E151" s="39" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A152" s="40" t="s">
-        <v>181</v>
-      </c>
-      <c r="B152" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C152" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="D152" s="41" t="s">
-        <v>182</v>
-      </c>
-      <c r="E152" s="39" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A153" s="40" t="s">
-        <v>184</v>
-      </c>
-      <c r="B153" s="40" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C153" s="40" t="s">
-        <v>836</v>
-      </c>
-      <c r="D153" s="41" t="s">
-        <v>185</v>
-      </c>
-      <c r="E153" s="39" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" s="45" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A154" s="42" t="s">
-        <v>157</v>
-      </c>
-      <c r="B154" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>827</v>
-      </c>
-      <c r="D154" s="43" t="s">
-        <v>158</v>
-      </c>
-      <c r="E154" s="44" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" s="45" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A155" s="42" t="s">
-        <v>148</v>
-      </c>
-      <c r="B155" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>827</v>
-      </c>
-      <c r="D155" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="E155" s="44" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" s="45" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
-      <c r="A156" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="B156" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>828</v>
-      </c>
-      <c r="D156" s="43" t="s">
-        <v>155</v>
-      </c>
-      <c r="E156" s="44" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" s="45" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="A157" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="B157" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C157" s="42" t="s">
-        <v>829</v>
-      </c>
-      <c r="D157" s="43" t="s">
-        <v>161</v>
-      </c>
-      <c r="E157" s="44" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" s="49" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A158" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="B158" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C158" s="42" t="s">
-        <v>830</v>
-      </c>
-      <c r="D158" s="43" t="s">
-        <v>164</v>
-      </c>
-      <c r="E158" s="44" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" s="49" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="46" t="s">
-        <v>285</v>
-      </c>
-      <c r="B159" s="46" t="s">
-        <v>826</v>
-      </c>
-      <c r="C159" s="46" t="s">
-        <v>844</v>
-      </c>
-      <c r="D159" s="47" t="s">
-        <v>286</v>
-      </c>
-      <c r="E159" s="44" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A160" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B160" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C160" s="42" t="s">
-        <v>805</v>
-      </c>
-      <c r="D160" s="44" t="s">
-        <v>89</v>
-      </c>
-      <c r="E160" s="44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A161" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B161" s="42" t="s">
-        <v>826</v>
-      </c>
-      <c r="C161" s="42" t="s">
-        <v>805</v>
-      </c>
-      <c r="D161" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="E161" s="44"/>
-    </row>
-    <row r="162" spans="1:5" s="49" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A162" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="B162" s="48" t="s">
-        <v>823</v>
-      </c>
-      <c r="C162" s="48" t="s">
-        <v>800</v>
-      </c>
-      <c r="D162" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="E162" s="48" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A163" s="50" t="s">
-        <v>187</v>
-      </c>
-      <c r="B163" s="50" t="s">
-        <v>823</v>
-      </c>
-      <c r="C163" s="50" t="s">
-        <v>820</v>
-      </c>
-      <c r="D163" s="51" t="s">
-        <v>188</v>
-      </c>
-      <c r="E163" s="52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" s="49" customFormat="1" ht="116" x14ac:dyDescent="0.35">
-      <c r="A164" s="53" t="s">
-        <v>226</v>
-      </c>
-      <c r="B164" s="53" t="s">
-        <v>823</v>
-      </c>
-      <c r="C164" s="53" t="s">
-        <v>810</v>
-      </c>
-      <c r="D164" s="53" t="s">
-        <v>227</v>
-      </c>
-      <c r="E164" s="53" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" s="10" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A165" s="53" t="s">
-        <v>235</v>
-      </c>
-      <c r="B165" s="53" t="s">
-        <v>823</v>
-      </c>
-      <c r="C165" s="53" t="s">
-        <v>811</v>
-      </c>
-      <c r="D165" s="53" t="s">
-        <v>236</v>
-      </c>
-      <c r="E165" s="53" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A166" s="53" t="s">
-        <v>247</v>
-      </c>
-      <c r="B166" s="53" t="s">
-        <v>823</v>
-      </c>
-      <c r="C166" s="53" t="s">
-        <v>812</v>
-      </c>
-      <c r="D166" s="53" t="s">
-        <v>248</v>
-      </c>
-      <c r="E166" s="53" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" s="54" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A167" s="52" t="s">
-        <v>256</v>
-      </c>
-      <c r="B167" s="52" t="s">
-        <v>823</v>
-      </c>
-      <c r="C167" s="52" t="s">
-        <v>814</v>
-      </c>
-      <c r="D167" s="52" t="s">
-        <v>257</v>
-      </c>
-      <c r="E167" s="52" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" s="54" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A168" s="52" t="s">
-        <v>265</v>
-      </c>
-      <c r="B168" s="52" t="s">
-        <v>823</v>
-      </c>
-      <c r="C168" s="52" t="s">
-        <v>819</v>
-      </c>
-      <c r="D168" s="52" t="s">
-        <v>266</v>
-      </c>
-      <c r="E168" s="52" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="B169" s="25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C169" s="25" t="s">
-        <v>803</v>
-      </c>
       <c r="D169" s="26" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="E169" s="26" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
     </row>
     <row r="170" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="25" t="s">
-        <v>104</v>
+        <v>1042</v>
       </c>
       <c r="B170" s="25" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="C170" s="25" t="s">
-        <v>805</v>
+        <v>811</v>
       </c>
       <c r="D170" s="26" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="E170" s="26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A171" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="B171" s="25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C171" s="25" t="s">
-        <v>804</v>
-      </c>
-      <c r="D171" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="E171" s="26" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" s="27" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A172" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B172" s="25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C172" s="25" t="s">
-        <v>807</v>
-      </c>
-      <c r="D172" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E172" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="25" t="s">
-        <v>1053</v>
-      </c>
-      <c r="B173" s="25" t="s">
-        <v>1052</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>820</v>
-      </c>
-      <c r="D173" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="E173" s="26" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="174" spans="1:5" s="60" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A174" s="59" t="s">
+    <row r="171" spans="1:5" s="60" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A171" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B174" s="59" t="s">
-        <v>801</v>
-      </c>
-      <c r="C174" s="59" t="s">
-        <v>797</v>
-      </c>
-      <c r="D174" s="59" t="s">
+      <c r="B171" s="59" t="s">
+        <v>792</v>
+      </c>
+      <c r="C171" s="59" t="s">
+        <v>788</v>
+      </c>
+      <c r="D171" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="E174" s="59" t="s">
+      <c r="E171" s="59" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:5" s="60" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A175" s="59" t="s">
+    <row r="172" spans="1:5" s="60" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A172" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B175" s="59" t="s">
-        <v>801</v>
-      </c>
-      <c r="C175" s="59" t="s">
+      <c r="B172" s="59" t="s">
+        <v>792</v>
+      </c>
+      <c r="C172" s="59" t="s">
+        <v>790</v>
+      </c>
+      <c r="D172" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E172" s="59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A173" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B173" s="8" t="s">
         <v>799</v>
       </c>
-      <c r="D175" s="59" t="s">
-        <v>13</v>
-      </c>
-      <c r="E175" s="59" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A176" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="B176" s="8" t="s">
-        <v>808</v>
-      </c>
-      <c r="C176" s="8" t="s">
-        <v>809</v>
-      </c>
-      <c r="D176" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E176" s="9"/>
-    </row>
-    <row r="177" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C173" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="D173" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E173" s="9"/>
+    </row>
+    <row r="174" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A174" s="56" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B174" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="C174" s="56" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D174" s="57" t="s">
+        <v>279</v>
+      </c>
+      <c r="E174" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A175" s="56" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B175" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="C175" s="56" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D175" s="57" t="s">
+        <v>281</v>
+      </c>
+      <c r="E175" s="57" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="56" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>799</v>
+      </c>
+      <c r="C176" s="56" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D176" s="57" t="s">
+        <v>283</v>
+      </c>
+      <c r="E176" s="57" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" s="33" customFormat="1" ht="87" x14ac:dyDescent="0.35">
       <c r="A177" s="56" t="s">
-        <v>1045</v>
+        <v>291</v>
       </c>
       <c r="B177" s="56" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="C177" s="56" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D177" s="57" t="s">
-        <v>279</v>
-      </c>
-      <c r="E177" s="9" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" s="33" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="56" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B178" s="56" t="s">
-        <v>808</v>
-      </c>
-      <c r="C178" s="56" t="s">
-        <v>1050</v>
-      </c>
-      <c r="D178" s="57" t="s">
-        <v>281</v>
-      </c>
-      <c r="E178" s="57" t="s">
-        <v>282</v>
+        <v>1037</v>
+      </c>
+      <c r="D177" s="55" t="s">
+        <v>292</v>
+      </c>
+      <c r="E177" s="57" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="B178" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C178" s="31" t="s">
+        <v>874</v>
+      </c>
+      <c r="D178" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E178" s="30" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="179" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A179" s="56" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B179" s="56" t="s">
-        <v>808</v>
-      </c>
-      <c r="C179" s="56" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D179" s="57" t="s">
-        <v>283</v>
-      </c>
-      <c r="E179" s="57" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" s="33" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A180" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="B180" s="56" t="s">
-        <v>808</v>
-      </c>
-      <c r="C180" s="56" t="s">
-        <v>1048</v>
-      </c>
-      <c r="D180" s="55" t="s">
-        <v>292</v>
-      </c>
-      <c r="E180" s="57" t="s">
-        <v>293</v>
+      <c r="A179" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="B179" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C179" s="31" t="s">
+        <v>876</v>
+      </c>
+      <c r="D179" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E179" s="30" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A180" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="B180" s="31" t="s">
+        <v>839</v>
+      </c>
+      <c r="C180" s="31" t="s">
+        <v>877</v>
+      </c>
+      <c r="D180" s="32" t="s">
+        <v>555</v>
+      </c>
+      <c r="E180" s="30" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="181" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="30" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="B181" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C181" s="31" t="s">
-        <v>885</v>
+        <v>878</v>
       </c>
       <c r="D181" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E181" s="30" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="182" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="30" t="s">
-        <v>296</v>
+        <v>556</v>
       </c>
       <c r="B182" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C182" s="31" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="D182" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E182" s="30" t="s">
-        <v>297</v>
+        <v>671</v>
       </c>
     </row>
     <row r="183" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="30" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B183" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C183" s="31" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="D183" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E183" s="30" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="184" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="30" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B184" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C184" s="31" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="D184" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E184" s="30" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="185" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="30" t="s">
-        <v>565</v>
+        <v>306</v>
       </c>
       <c r="B185" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C185" s="31" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D185" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E185" s="30" t="s">
-        <v>680</v>
+        <v>307</v>
       </c>
     </row>
     <row r="186" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="30" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B186" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C186" s="31" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="D186" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E186" s="30" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="187" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="30" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B187" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C187" s="31" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="D187" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E187" s="30" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="188" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="30" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B188" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C188" s="31" t="s">
-        <v>893</v>
+        <v>988</v>
       </c>
       <c r="D188" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E188" s="30" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="189" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="30" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B189" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C189" s="31" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="D189" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E189" s="30" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="190" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="30" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B190" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C190" s="31" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="D190" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E190" s="30" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="191" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="30" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B191" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C191" s="31" t="s">
-        <v>999</v>
+        <v>887</v>
       </c>
       <c r="D191" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E191" s="30" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="30" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="B192" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C192" s="31" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="D192" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E192" s="30" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
     </row>
     <row r="193" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="30" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B193" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C193" s="31" t="s">
-        <v>897</v>
+        <v>989</v>
       </c>
       <c r="D193" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E193" s="30" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="194" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="30" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="B194" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C194" s="31" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="D194" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E194" s="30" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="195" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="30" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B195" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C195" s="31" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="D195" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E195" s="30" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="196" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="30" t="s">
-        <v>322</v>
+        <v>557</v>
       </c>
       <c r="B196" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C196" s="31" t="s">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="D196" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E196" s="30" t="s">
-        <v>323</v>
+        <v>672</v>
       </c>
     </row>
     <row r="197" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="30" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B197" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C197" s="31" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="D197" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E197" s="30" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="198" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A198" s="30" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B198" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C198" s="31" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="D198" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E198" s="30" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="199" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A199" s="30" t="s">
-        <v>566</v>
+        <v>332</v>
       </c>
       <c r="B199" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C199" s="31" t="s">
-        <v>1001</v>
+        <v>893</v>
       </c>
       <c r="D199" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E199" s="30" t="s">
-        <v>681</v>
+        <v>333</v>
       </c>
     </row>
     <row r="200" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A200" s="30" t="s">
-        <v>328</v>
+        <v>558</v>
       </c>
       <c r="B200" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C200" s="31" t="s">
-        <v>902</v>
+        <v>991</v>
       </c>
       <c r="D200" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E200" s="30" t="s">
-        <v>329</v>
+        <v>673</v>
       </c>
     </row>
     <row r="201" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A201" s="30" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B201" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C201" s="31" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="D201" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E201" s="30" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="202" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="30" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B202" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C202" s="31" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="D202" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E202" s="30" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="203" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="30" t="s">
-        <v>567</v>
+        <v>338</v>
       </c>
       <c r="B203" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C203" s="31" t="s">
-        <v>1002</v>
+        <v>896</v>
       </c>
       <c r="D203" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E203" s="30" t="s">
-        <v>682</v>
+        <v>339</v>
       </c>
     </row>
     <row r="204" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="30" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B204" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C204" s="31" t="s">
-        <v>905</v>
+        <v>992</v>
       </c>
       <c r="D204" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E204" s="30" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="205" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="30" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B205" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C205" s="31" t="s">
-        <v>906</v>
+        <v>993</v>
       </c>
       <c r="D205" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E205" s="30" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="206" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="30" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B206" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C206" s="31" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
       <c r="D206" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E206" s="30" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="207" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="30" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B207" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C207" s="31" t="s">
-        <v>1003</v>
+        <v>898</v>
       </c>
       <c r="D207" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E207" s="30" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="208" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="30" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B208" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C208" s="31" t="s">
-        <v>1004</v>
+        <v>899</v>
       </c>
       <c r="D208" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E208" s="30" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="209" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="30" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B209" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C209" s="31" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="D209" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E209" s="30" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="210" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="30" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B210" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C210" s="31" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="D210" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E210" s="30" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="211" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="30" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B211" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C211" s="31" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="D211" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E211" s="30" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="212" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="30" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B212" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C212" s="31" t="s">
-        <v>911</v>
+        <v>994</v>
       </c>
       <c r="D212" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E212" s="30" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="213" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="30" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B213" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C213" s="31" t="s">
-        <v>912</v>
+        <v>823</v>
       </c>
       <c r="D213" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E213" s="30" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="214" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="30" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B214" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C214" s="31" t="s">
-        <v>913</v>
+        <v>995</v>
       </c>
       <c r="D214" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E214" s="30" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="215" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="30" t="s">
-        <v>356</v>
+        <v>559</v>
       </c>
       <c r="B215" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C215" s="31" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
       <c r="D215" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E215" s="30" t="s">
-        <v>357</v>
+        <v>674</v>
       </c>
     </row>
     <row r="216" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="30" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B216" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C216" s="31" t="s">
-        <v>832</v>
+        <v>903</v>
       </c>
       <c r="D216" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E216" s="30" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="217" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A217" s="30" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B217" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C217" s="31" t="s">
-        <v>1006</v>
+        <v>904</v>
       </c>
       <c r="D217" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E217" s="30" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="218" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A218" s="30" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="B218" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C218" s="31" t="s">
-        <v>1007</v>
+        <v>997</v>
       </c>
       <c r="D218" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E218" s="30" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="219" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A219" s="30" t="s">
-        <v>362</v>
+        <v>561</v>
       </c>
       <c r="B219" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C219" s="31" t="s">
-        <v>914</v>
+        <v>998</v>
       </c>
       <c r="D219" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E219" s="30" t="s">
-        <v>363</v>
+        <v>676</v>
       </c>
     </row>
     <row r="220" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A220" s="30" t="s">
-        <v>364</v>
+        <v>562</v>
       </c>
       <c r="B220" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C220" s="31" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
       <c r="D220" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E220" s="30" t="s">
-        <v>365</v>
+        <v>677</v>
       </c>
     </row>
     <row r="221" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A221" s="30" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B221" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C221" s="31" t="s">
-        <v>1008</v>
+        <v>906</v>
       </c>
       <c r="D221" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E221" s="30" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="222" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A222" s="30" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B222" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C222" s="31" t="s">
-        <v>1009</v>
+        <v>907</v>
       </c>
       <c r="D222" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E222" s="30" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="223" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="30" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B223" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C223" s="31" t="s">
-        <v>916</v>
+        <v>999</v>
       </c>
       <c r="D223" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E223" s="30" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="224" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="30" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B224" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C224" s="31" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="D224" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E224" s="30" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="225" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="30" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B225" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C225" s="31" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="D225" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E225" s="30" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="226" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="30" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="B226" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C226" s="31" t="s">
-        <v>1010</v>
+        <v>910</v>
       </c>
       <c r="D226" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E226" s="30" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
     </row>
     <row r="227" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="30" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B227" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C227" s="31" t="s">
-        <v>919</v>
+        <v>1000</v>
       </c>
       <c r="D227" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E227" s="30" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="228" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="30" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="B228" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C228" s="31" t="s">
-        <v>920</v>
+        <v>1001</v>
       </c>
       <c r="D228" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E228" s="30" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="229" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="30" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B229" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C229" s="31" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D229" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E229" s="30" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="230" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="30" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B230" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C230" s="31" t="s">
-        <v>1011</v>
+        <v>912</v>
       </c>
       <c r="D230" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E230" s="30" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="231" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="30" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B231" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C231" s="31" t="s">
-        <v>1012</v>
+        <v>1002</v>
       </c>
       <c r="D231" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E231" s="30" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="232" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="30" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B232" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C232" s="31" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="D232" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E232" s="30" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="233" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="30" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B233" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C233" s="31" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="D233" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E233" s="30" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="234" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="30" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B234" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C234" s="31" t="s">
-        <v>1013</v>
+        <v>915</v>
       </c>
       <c r="D234" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E234" s="30" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="235" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A235" s="30" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B235" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C235" s="31" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="D235" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E235" s="30" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="236" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A236" s="30" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="B236" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C236" s="31" t="s">
-        <v>925</v>
+        <v>1003</v>
       </c>
       <c r="D236" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E236" s="30" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="237" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="30" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B237" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C237" s="31" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="D237" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E237" s="30" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="238" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="30" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B238" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C238" s="31" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="D238" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E238" s="30" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="239" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="30" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B239" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C239" s="31" t="s">
-        <v>1014</v>
+        <v>919</v>
       </c>
       <c r="D239" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E239" s="30" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="240" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="30" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B240" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C240" s="31" t="s">
-        <v>928</v>
+        <v>1004</v>
       </c>
       <c r="D240" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E240" s="30" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="241" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="30" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B241" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C241" s="31" t="s">
-        <v>929</v>
+        <v>1005</v>
       </c>
       <c r="D241" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E241" s="30" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="242" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="30" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B242" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C242" s="31" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D242" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E242" s="30" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="243" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="30" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B243" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C243" s="31" t="s">
-        <v>1015</v>
+        <v>1006</v>
       </c>
       <c r="D243" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E243" s="30" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="244" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="30" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B244" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C244" s="31" t="s">
-        <v>1016</v>
+        <v>1007</v>
       </c>
       <c r="D244" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E244" s="30" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="245" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="30" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B245" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C245" s="31" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="D245" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E245" s="30" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="246" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="30" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B246" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C246" s="31" t="s">
-        <v>1017</v>
+        <v>923</v>
       </c>
       <c r="D246" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E246" s="30" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="247" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="30" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B247" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C247" s="31" t="s">
-        <v>1018</v>
+        <v>924</v>
       </c>
       <c r="D247" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E247" s="30" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="248" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="30" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B248" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C248" s="31" t="s">
-        <v>933</v>
+        <v>1008</v>
       </c>
       <c r="D248" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E248" s="30" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="249" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="30" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B249" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C249" s="31" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="D249" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E249" s="30" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="250" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="30" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B250" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C250" s="31" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="D250" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E250" s="30" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="251" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="30" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B251" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C251" s="31" t="s">
-        <v>1019</v>
+        <v>927</v>
       </c>
       <c r="D251" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E251" s="30" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="252" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="30" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B252" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C252" s="31" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="D252" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E252" s="30" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="253" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="30" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B253" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C253" s="31" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="D253" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E253" s="30" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="254" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="30" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B254" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C254" s="31" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D254" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E254" s="30" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="255" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="30" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B255" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C255" s="31" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="D255" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E255" s="30" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="256" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="30" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B256" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C256" s="31" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="D256" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E256" s="30" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="257" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="30" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B257" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C257" s="31" t="s">
-        <v>941</v>
+        <v>1009</v>
       </c>
       <c r="D257" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E257" s="30" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="258" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="30" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B258" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C258" s="31" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="D258" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E258" s="30" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="259" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="30" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B259" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C259" s="31" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="D259" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E259" s="30" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="260" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="30" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B260" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C260" s="31" t="s">
-        <v>1020</v>
+        <v>935</v>
       </c>
       <c r="D260" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E260" s="30" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="261" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="30" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B261" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C261" s="31" t="s">
-        <v>944</v>
+        <v>1010</v>
       </c>
       <c r="D261" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E261" s="30" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="262" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="30" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B262" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="D262" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E262" s="30" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="30" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B263" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C263" s="31" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="D263" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E263" s="30" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="264" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="30" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B264" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C264" s="31" t="s">
-        <v>1021</v>
+        <v>938</v>
       </c>
       <c r="D264" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E264" s="30" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="265" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="30" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B265" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C265" s="31" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="D265" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E265" s="30" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="266" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="30" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B266" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C266" s="31" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="D266" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E266" s="30" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="267" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="30" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B267" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C267" s="31" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="D267" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E267" s="30" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="268" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="30" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B268" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C268" s="31" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="D268" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E268" s="30" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="30" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B269" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C269" s="31" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="D269" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E269" s="30" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="270" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="30" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B270" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C270" s="31" t="s">
-        <v>952</v>
+        <v>1011</v>
       </c>
       <c r="D270" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E270" s="30" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="30" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B271" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C271" s="31" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="D271" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E271" s="30" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="272" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A272" s="30" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B272" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C272" s="31" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="D272" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E272" s="30" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="273" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="30" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B273" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C273" s="31" t="s">
-        <v>1022</v>
+        <v>946</v>
       </c>
       <c r="D273" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E273" s="30" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="274" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="30" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B274" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C274" s="31" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="D274" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E274" s="30" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="275" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A275" s="30" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B275" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C275" s="31" t="s">
-        <v>956</v>
+        <v>1012</v>
       </c>
       <c r="D275" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E275" s="30" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="276" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A276" s="30" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B276" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C276" s="31" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="D276" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E276" s="30" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="277" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A277" s="30" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B277" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C277" s="31" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="D277" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E277" s="30" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="278" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A278" s="30" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B278" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C278" s="31" t="s">
-        <v>1023</v>
+        <v>950</v>
       </c>
       <c r="D278" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E278" s="30" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="279" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A279" s="30" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B279" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C279" s="31" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="D279" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E279" s="30" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="280" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A280" s="30" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B280" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C280" s="31" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="D280" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E280" s="30" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="281" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A281" s="30" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B281" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C281" s="31" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="D281" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E281" s="30" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="282" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="30" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B282" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C282" s="31" t="s">
-        <v>962</v>
+        <v>1013</v>
       </c>
       <c r="D282" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E282" s="30" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="283" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="30" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B283" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C283" s="31" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="D283" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E283" s="30" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="284" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A284" s="30" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B284" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C284" s="31" t="s">
-        <v>964</v>
+        <v>1014</v>
       </c>
       <c r="D284" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E284" s="30" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="285" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A285" s="30" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B285" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C285" s="31" t="s">
-        <v>1024</v>
+        <v>955</v>
       </c>
       <c r="D285" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E285" s="30" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="286" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="30" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B286" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C286" s="31" t="s">
-        <v>965</v>
+        <v>1015</v>
       </c>
       <c r="D286" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E286" s="30" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="287" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A287" s="30" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
       <c r="B287" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C287" s="31" t="s">
-        <v>1025</v>
+        <v>956</v>
       </c>
       <c r="D287" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E287" s="30" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="288" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A288" s="30" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B288" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C288" s="31" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="D288" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E288" s="30" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="289" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A289" s="30" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B289" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C289" s="31" t="s">
-        <v>1026</v>
+        <v>958</v>
       </c>
       <c r="D289" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E289" s="30" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="290" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="30" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="B290" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C290" s="31" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="D290" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E290" s="30" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="291" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="30" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="B291" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C291" s="31" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="D291" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E291" s="30" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="292" spans="1:5" s="33" customFormat="1" x14ac:dyDescent="0.35">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="30" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="B292" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C292" s="31" t="s">
-        <v>969</v>
+        <v>1016</v>
       </c>
       <c r="D292" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E292" s="30" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="30" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="B293" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C293" s="31" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="D293" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E293" s="30" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="30" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B294" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C294" s="31" t="s">
-        <v>971</v>
+        <v>962</v>
       </c>
       <c r="D294" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E294" s="30" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="30" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B295" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C295" s="31" t="s">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="D295" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E295" s="30" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="30" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
       <c r="B296" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C296" s="31" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
       <c r="D296" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E296" s="30" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="30" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
       <c r="B297" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C297" s="31" t="s">
-        <v>973</v>
+        <v>1018</v>
       </c>
       <c r="D297" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E297" s="30" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="30" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="B298" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C298" s="31" t="s">
-        <v>1028</v>
+        <v>964</v>
       </c>
       <c r="D298" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E298" s="30" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="30" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B299" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C299" s="31" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="D299" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E299" s="30" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="30" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B300" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C300" s="31" t="s">
-        <v>1029</v>
+        <v>1019</v>
       </c>
       <c r="D300" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E300" s="30" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="30" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
       <c r="B301" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C301" s="31" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
       <c r="D301" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E301" s="30" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="30" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="B302" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C302" s="31" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
       <c r="D302" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E302" s="30" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="30" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B303" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C303" s="31" t="s">
-        <v>1030</v>
+        <v>968</v>
       </c>
       <c r="D303" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E303" s="30" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="30" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="B304" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C304" s="31" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="D304" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E304" s="30" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="30" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="B305" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C305" s="31" t="s">
-        <v>978</v>
+        <v>1020</v>
       </c>
       <c r="D305" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E305" s="30" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="30" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="B306" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C306" s="31" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="D306" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E306" s="30" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="30" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B307" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C307" s="31" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
       <c r="D307" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E307" s="30" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="30" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B308" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C308" s="31" t="s">
-        <v>1031</v>
+        <v>921</v>
       </c>
       <c r="D308" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E308" s="30" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="30" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B309" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C309" s="31" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="D309" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E309" s="30" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="30" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B310" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C310" s="31" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
       <c r="D310" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E310" s="30" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="30" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B311" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C311" s="31" t="s">
-        <v>932</v>
+        <v>1021</v>
       </c>
       <c r="D311" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E311" s="30" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="30" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B312" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C312" s="31" t="s">
-        <v>983</v>
+        <v>1022</v>
       </c>
       <c r="D312" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E312" s="30" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="30" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B313" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C313" s="31" t="s">
-        <v>984</v>
+        <v>974</v>
       </c>
       <c r="D313" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E313" s="30" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="30" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="B314" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C314" s="31" t="s">
-        <v>1032</v>
+        <v>975</v>
       </c>
       <c r="D314" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E314" s="30" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="30" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B315" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C315" s="31" t="s">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="D315" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E315" s="30" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="30" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="B316" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C316" s="31" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
       <c r="D316" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E316" s="30" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="30" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B317" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C317" s="31" t="s">
-        <v>986</v>
+        <v>1024</v>
       </c>
       <c r="D317" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E317" s="30" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="30" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B318" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C318" s="31" t="s">
-        <v>1034</v>
+        <v>977</v>
       </c>
       <c r="D318" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E318" s="30" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="30" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B319" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C319" s="31" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
       <c r="D319" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E319" s="30" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="30" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B320" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C320" s="31" t="s">
-        <v>1035</v>
+        <v>979</v>
       </c>
       <c r="D320" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E320" s="30" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="30" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B321" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C321" s="31" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="D321" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E321" s="30" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="30" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B322" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C322" s="31" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="D322" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E322" s="30" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="30" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B323" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C323" s="31" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="D323" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E323" s="30" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="30" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B324" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C324" s="31" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="D324" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E324" s="30" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="30" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B325" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C325" s="31" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
       <c r="D325" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E325" s="30" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="30" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="B326" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C326" s="31" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="D326" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E326" s="30" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="30" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B327" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C327" s="31" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
       <c r="D327" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E327" s="30" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="30" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B328" s="31" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="C328" s="31" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
       <c r="D328" s="32" t="s">
-        <v>564</v>
+        <v>555</v>
       </c>
       <c r="E328" s="30" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A329" s="30" t="s">
-        <v>677</v>
-      </c>
-      <c r="B329" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="C329" s="31" t="s">
-        <v>996</v>
-      </c>
-      <c r="D329" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="E329" s="30" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A330" s="30" t="s">
-        <v>678</v>
-      </c>
-      <c r="B330" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="C330" s="31" t="s">
-        <v>997</v>
-      </c>
-      <c r="D330" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="E330" s="30" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A331" s="30" t="s">
-        <v>679</v>
-      </c>
-      <c r="B331" s="31" t="s">
-        <v>848</v>
-      </c>
-      <c r="C331" s="31" t="s">
-        <v>998</v>
-      </c>
-      <c r="D331" s="32" t="s">
-        <v>564</v>
-      </c>
-      <c r="E331" s="30" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:E1"/>
   <hyperlinks>
-    <hyperlink ref="D160" r:id="rId1"/>
-    <hyperlink ref="D154" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>
-    <hyperlink ref="D132" r:id="rId3"/>
-    <hyperlink ref="D133" r:id="rId4"/>
-    <hyperlink ref="D136" r:id="rId5"/>
-    <hyperlink ref="D137" r:id="rId6"/>
-    <hyperlink ref="D138" r:id="rId7"/>
-    <hyperlink ref="D139" r:id="rId8"/>
-    <hyperlink ref="D140" r:id="rId9"/>
-    <hyperlink ref="D143" r:id="rId10"/>
+    <hyperlink ref="D157" r:id="rId1"/>
+    <hyperlink ref="D151" r:id="rId2" display="https://indianvisaonline.gov.in/visa/index.html"/>
+    <hyperlink ref="D130" r:id="rId3"/>
+    <hyperlink ref="D131" r:id="rId4"/>
+    <hyperlink ref="D134" r:id="rId5"/>
+    <hyperlink ref="D135" r:id="rId6"/>
+    <hyperlink ref="D136" r:id="rId7"/>
+    <hyperlink ref="D137" r:id="rId8"/>
+    <hyperlink ref="D138" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
 </worksheet>
 </file>